--- a/outcome/appendix/forecast/Hepatitis E.xlsx
+++ b/outcome/appendix/forecast/Hepatitis E.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2345.82604541859</v>
+        <v>2380.02714819215</v>
       </c>
       <c r="C2" t="n">
         <v>2092.67073250141</v>
@@ -448,7 +448,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>719.826045418595</v>
+        <v>754.027148192146</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2383.41546582568</v>
+        <v>2389.83132282444</v>
       </c>
       <c r="C3" t="n">
         <v>1972.65524679747</v>
@@ -480,7 +480,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1338.41546582568</v>
+        <v>1344.83132282444</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,10 +491,10 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3182.03601572976</v>
+        <v>3172.01324258838</v>
       </c>
       <c r="C4" t="n">
-        <v>2848.12675525047</v>
+        <v>2822.93104588867</v>
       </c>
       <c r="D4" t="n">
         <v>2617.69890368062</v>
@@ -512,7 +512,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1541.03601572976</v>
+        <v>1531.01324258838</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2885.75790711633</v>
+        <v>2848.24708171213</v>
       </c>
       <c r="C5" t="n">
         <v>2480.75761103751</v>
@@ -544,7 +544,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1153.75790711633</v>
+        <v>1116.24708171213</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2651.74309661964</v>
+        <v>2637.37107935653</v>
       </c>
       <c r="C6" t="n">
         <v>2089.6139643587</v>
@@ -564,10 +564,10 @@
         <v>1924.55013593521</v>
       </c>
       <c r="E6" t="n">
-        <v>3169.4656425352</v>
+        <v>3092.59910762078</v>
       </c>
       <c r="F6" t="n">
-        <v>3204.8397918311</v>
+        <v>3181.78860470656</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1066.74309661964</v>
+        <v>1052.37107935653</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2296.7065025552</v>
+        <v>2338.38783962607</v>
       </c>
       <c r="C7" t="n">
         <v>1761.55378011194</v>
@@ -596,10 +596,10 @@
         <v>1589.10435823062</v>
       </c>
       <c r="E7" t="n">
-        <v>2693.85751033169</v>
+        <v>2842.94273704274</v>
       </c>
       <c r="F7" t="n">
-        <v>2827.53569070833</v>
+        <v>2873.44258152634</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>588.706502555196</v>
+        <v>630.387839626065</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2297.87074716034</v>
+        <v>2339.04219538204</v>
       </c>
       <c r="C8" t="n">
         <v>1784.29864013751</v>
@@ -628,7 +628,7 @@
         <v>1604.76719787576</v>
       </c>
       <c r="E8" t="n">
-        <v>2655.2630653145</v>
+        <v>2763.41295335752</v>
       </c>
       <c r="F8" t="n">
         <v>2854.53680235356</v>
@@ -640,7 +640,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>538.870747160343</v>
+        <v>580.042195382037</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2245.71211563272</v>
+        <v>2256.60267467163</v>
       </c>
       <c r="C9" t="n">
         <v>1789.86011713188</v>
@@ -672,7 +672,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>486.712115632715</v>
+        <v>497.602674671634</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2001.07221786681</v>
+        <v>2031.08018978856</v>
       </c>
       <c r="C10" t="n">
         <v>1531.74947334365</v>
@@ -704,7 +704,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>190.072217866814</v>
+        <v>220.080189788563</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1833.1431606507</v>
+        <v>1858.00454406556</v>
       </c>
       <c r="C11" t="n">
         <v>1364.39386169921</v>
@@ -736,7 +736,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>327.143160650703</v>
+        <v>352.00454406556</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2000.18709046726</v>
+        <v>1976.86280592054</v>
       </c>
       <c r="C12" t="n">
         <v>1579.53111299129</v>
@@ -768,7 +768,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>361.187090467261</v>
+        <v>337.862805920543</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2044.27671768558</v>
+        <v>2035.00348873635</v>
       </c>
       <c r="C13" t="n">
         <v>1596.77428920028</v>
@@ -800,7 +800,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>226.276717685579</v>
+        <v>217.003488736352</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2372.77903524243</v>
+        <v>2375.95636331426</v>
       </c>
       <c r="C14" t="n">
         <v>1914.43103099402</v>
@@ -832,7 +832,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>534.77903524243</v>
+        <v>537.956363314262</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2381.52415267455</v>
+        <v>2385.09667886499</v>
       </c>
       <c r="C15" t="n">
         <v>1768.52726544701</v>
@@ -864,7 +864,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>532.524152674549</v>
+        <v>536.096678864985</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,10 +875,10 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3167.83669714077</v>
+        <v>3118.8798687178</v>
       </c>
       <c r="C16" t="n">
-        <v>2695.96020812502</v>
+        <v>2625.50484099747</v>
       </c>
       <c r="D16" t="n">
         <v>2384.98025229264</v>
@@ -896,7 +896,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>176.836697140771</v>
+        <v>127.879868717804</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2919.24223771832</v>
+        <v>2826.03093017774</v>
       </c>
       <c r="C17" t="n">
         <v>2329.24592105384</v>
@@ -928,7 +928,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>122.242237718319</v>
+        <v>29.0309301777447</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2716.86174269962</v>
+        <v>2703.53193848894</v>
       </c>
       <c r="C18" t="n">
         <v>1949.79547507638</v>
@@ -948,10 +948,10 @@
         <v>1710.71620936223</v>
       </c>
       <c r="E18" t="n">
-        <v>3490.20619330671</v>
+        <v>3445.24280918071</v>
       </c>
       <c r="F18" t="n">
-        <v>3554.47476916635</v>
+        <v>3523.24754075392</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>207.861742699619</v>
+        <v>194.531938488945</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2337.08889392244</v>
+        <v>2386.94432581473</v>
       </c>
       <c r="C19" t="n">
         <v>1625.94413108705</v>
@@ -980,10 +980,10 @@
         <v>1381.7072973625</v>
       </c>
       <c r="E19" t="n">
-        <v>2914.46669104487</v>
+        <v>3102.65015806002</v>
       </c>
       <c r="F19" t="n">
-        <v>3064.64296638977</v>
+        <v>3160.8559848173</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>71.0888939224433</v>
+        <v>120.944325814729</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2284.21992731779</v>
+        <v>2339.69547413819</v>
       </c>
       <c r="C20" t="n">
         <v>1652.52589758054</v>
@@ -1012,7 +1012,7 @@
         <v>1403.23817906801</v>
       </c>
       <c r="E20" t="n">
-        <v>2788.59731888565</v>
+        <v>2807.30553241622</v>
       </c>
       <c r="F20" t="n">
         <v>3076.70690839687</v>
@@ -1024,7 +1024,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>144.219927317788</v>
+        <v>199.695474138189</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2213.65005315125</v>
+        <v>2283.72368914081</v>
       </c>
       <c r="C21" t="n">
         <v>1661.60572536473</v>
@@ -1056,7 +1056,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>104.650053151252</v>
+        <v>174.723689140811</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1993.44918281372</v>
+        <v>2068.62346704761</v>
       </c>
       <c r="C22" t="n">
         <v>1386.06673025111</v>
@@ -1088,10 +1088,10 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>-39.5508171862793</v>
+        <v>35.6234670476065</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1837.70461315055</v>
+        <v>1916.87453969057</v>
       </c>
       <c r="C23" t="n">
         <v>1213.91124407118</v>
@@ -1108,7 +1108,7 @@
         <v>930.643425817936</v>
       </c>
       <c r="E23" t="n">
-        <v>2365.42902102599</v>
+        <v>2398.09959291985</v>
       </c>
       <c r="F23" t="n">
         <v>2651.44818108515</v>
@@ -1120,10 +1120,10 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>-8.29538684944782</v>
+        <v>70.8745396905697</v>
       </c>
       <c r="J23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1983.9267683175</v>
+        <v>1985.74697426705</v>
       </c>
       <c r="C24" t="n">
         <v>1434.67903069169</v>
@@ -1152,7 +1152,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-71.073231682499</v>
+        <v>-69.253025732949</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2052.99251427202</v>
+        <v>2010.61861775074</v>
       </c>
       <c r="C25" t="n">
         <v>1456.22526462817</v>
@@ -1184,7 +1184,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-316.007485727977</v>
+        <v>-358.381382249261</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2354.95943510422</v>
+        <v>2321.35098689949</v>
       </c>
       <c r="C26" t="n">
         <v>1782.8628673287</v>
@@ -1216,7 +1216,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-175.040564895782</v>
+        <v>-208.64901310051</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2308.97916918825</v>
+        <v>2313.9528565104</v>
       </c>
       <c r="C27" t="n">
         <v>1623.85930325603</v>
@@ -1248,7 +1248,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-134.020830811754</v>
+        <v>-129.047143489599</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,10 +1259,10 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3175.22062559158</v>
+        <v>3107.77201890017</v>
       </c>
       <c r="C28" t="n">
-        <v>2574.20138899116</v>
+        <v>2527.63174507259</v>
       </c>
       <c r="D28" t="n">
         <v>2198.76620775587</v>
@@ -1280,10 +1280,10 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>44.220625591578</v>
+        <v>-23.227981099828</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2901.82592287506</v>
+        <v>2754.91605941304</v>
       </c>
       <c r="C29" t="n">
         <v>2164.45414392355</v>
@@ -1312,7 +1312,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>376.825922875065</v>
+        <v>229.916059413044</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2709.30718446737</v>
+        <v>2730.39205140531</v>
       </c>
       <c r="C30" t="n">
         <v>1843.83249649127</v>
@@ -1332,10 +1332,10 @@
         <v>1499.87471884951</v>
       </c>
       <c r="E30" t="n">
-        <v>3641.87410422425</v>
+        <v>3571.47264716006</v>
       </c>
       <c r="F30" t="n">
-        <v>3755.95661669599</v>
+        <v>3655.90283742696</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>206.307184467369</v>
+        <v>227.392051405314</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2344.9977303031</v>
+        <v>2468.69058713112</v>
       </c>
       <c r="C31" t="n">
         <v>1521.97792708445</v>
@@ -1364,10 +1364,10 @@
         <v>1183.90265702296</v>
       </c>
       <c r="E31" t="n">
-        <v>3071.50322115092</v>
+        <v>3473.69645492242</v>
       </c>
       <c r="F31" t="n">
-        <v>3249.77910139857</v>
+        <v>3548.60675133907</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,10 +1376,10 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-66.0022696969008</v>
+        <v>57.6905871311174</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2260.12821454197</v>
+        <v>2406.2311177135</v>
       </c>
       <c r="C32" t="n">
         <v>1550.28782413263</v>
@@ -1396,7 +1396,7 @@
         <v>1210.96074424427</v>
       </c>
       <c r="E32" t="n">
-        <v>2912.3765558275</v>
+        <v>3094.08184976023</v>
       </c>
       <c r="F32" t="n">
         <v>3268.46357704298</v>
@@ -1408,7 +1408,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>35.1282145419659</v>
+        <v>181.231117713497</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2192.12141083213</v>
+        <v>2274.49780019978</v>
       </c>
       <c r="C33" t="n">
         <v>1549.03743878369</v>
@@ -1440,10 +1440,10 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>-62.8785891678681</v>
+        <v>19.4978001997797</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2004.63957677498</v>
+        <v>2069.5747989682</v>
       </c>
       <c r="C34" t="n">
         <v>1270.61212162443</v>
@@ -1472,7 +1472,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>58.63957677498</v>
+        <v>123.574798968204</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1830.65424636799</v>
+        <v>1953.46627546999</v>
       </c>
       <c r="C35" t="n">
         <v>1095.57269499521</v>
@@ -1492,7 +1492,7 @@
         <v>726.38607155842</v>
       </c>
       <c r="E35" t="n">
-        <v>2511.2088528842</v>
+        <v>2535.64799570267</v>
       </c>
       <c r="F35" t="n">
         <v>2884.75200634086</v>
@@ -1504,7 +1504,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>147.654246367988</v>
+        <v>270.466275469991</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1997.91701430775</v>
+        <v>2026.02267849386</v>
       </c>
       <c r="C36" t="n">
         <v>1318.81651411255</v>
@@ -1536,7 +1536,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>265.917014307753</v>
+        <v>294.022678493861</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2039.58658012265</v>
+        <v>2021.70316662223</v>
       </c>
       <c r="C37" t="n">
         <v>1338.80662894613</v>
@@ -1568,7 +1568,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>852.586580122649</v>
+        <v>834.703166622231</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2325.41823383961</v>
+        <v>2294.56961594646</v>
       </c>
       <c r="C38" t="n">
         <v>1645.34393971249</v>
@@ -1600,7 +1600,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1181.41823383961</v>
+        <v>1150.56961594646</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2324.70314479065</v>
+        <v>2217.7879823517</v>
       </c>
       <c r="C39" t="n">
         <v>1486.11401111166</v>
@@ -1632,7 +1632,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>117.703144790654</v>
+        <v>10.7879823516992</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,10 +1643,10 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3160.58769096378</v>
+        <v>3012.90254703622</v>
       </c>
       <c r="C40" t="n">
-        <v>2405.26410121057</v>
+        <v>2209.65383107024</v>
       </c>
       <c r="D40" t="n">
         <v>1983.10109118607</v>
@@ -1664,10 +1664,10 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>43.5876909637818</v>
+        <v>-104.097452963783</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2838.0766298621</v>
+        <v>2795.20738319356</v>
       </c>
       <c r="C41" t="n">
         <v>1971.63522254429</v>
@@ -1696,7 +1696,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-167.923370137903</v>
+        <v>-210.79261680644</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2706.52659407763</v>
+        <v>2647.83226549166</v>
       </c>
       <c r="C42" t="n">
         <v>1649.24414445909</v>
@@ -1716,10 +1716,10 @@
         <v>1212.63032751826</v>
       </c>
       <c r="E42" t="n">
-        <v>3697.91381251181</v>
+        <v>3449.72725378591</v>
       </c>
       <c r="F42" t="n">
-        <v>3793.55928570007</v>
+        <v>3749.24575340589</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-115.47340592237</v>
+        <v>-174.167734508344</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2353.17955474641</v>
+        <v>2440.00683391848</v>
       </c>
       <c r="C43" t="n">
         <v>1337.62907551692</v>
@@ -1748,10 +1748,10 @@
         <v>893.966327251034</v>
       </c>
       <c r="E43" t="n">
-        <v>3229.00089645972</v>
+        <v>3500.78020940878</v>
       </c>
       <c r="F43" t="n">
-        <v>3457.48958695427</v>
+        <v>3580.83504553558</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-175.820445253593</v>
+        <v>-88.9931660815178</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2273.73948913387</v>
+        <v>2450.64381324985</v>
       </c>
       <c r="C44" t="n">
         <v>1368.94888135808</v>
@@ -1780,10 +1780,10 @@
         <v>918.347457421205</v>
       </c>
       <c r="E44" t="n">
-        <v>3071.36158523516</v>
+        <v>3424.56264614721</v>
       </c>
       <c r="F44" t="n">
-        <v>3521.96300917203</v>
+        <v>3564.32063449154</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-346.260510866134</v>
+        <v>-169.356186750146</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2190.43200844351</v>
+        <v>2355.32932958646</v>
       </c>
       <c r="C45" t="n">
         <v>1367.68751238602</v>
@@ -1824,7 +1824,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-427.56799155649</v>
+        <v>-262.67067041354</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>1971.78793204054</v>
+        <v>2103.29221620061</v>
       </c>
       <c r="C46" t="n">
         <v>1081.92151510189</v>
@@ -1856,7 +1856,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-578.21206795946</v>
+        <v>-446.707783799386</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1847.31048121537</v>
+        <v>1930.56411422383</v>
       </c>
       <c r="C47" t="n">
         <v>896.641655395377</v>
@@ -1888,7 +1888,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-695.689518784634</v>
+        <v>-612.435885776173</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>1979.68104934647</v>
+        <v>2065.00777174975</v>
       </c>
       <c r="C48" t="n">
         <v>1121.84715679139</v>
@@ -1920,7 +1920,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-771.318950653529</v>
+        <v>-685.992228250249</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2015.44174939773</v>
+        <v>2058.81179026115</v>
       </c>
       <c r="C49" t="n">
         <v>1132.11414754105</v>
@@ -1952,7 +1952,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-652.558250602274</v>
+        <v>-609.188209738853</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Hepatitis E.xlsx
+++ b/outcome/appendix/forecast/Hepatitis E.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2380.02714819215</v>
+        <v>2375.86527235627</v>
       </c>
       <c r="C2" t="n">
         <v>2092.67073250141</v>
@@ -448,7 +448,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>754.027148192146</v>
+        <v>749.865272356268</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2389.83132282444</v>
+        <v>2369.96478183978</v>
       </c>
       <c r="C3" t="n">
         <v>1972.65524679747</v>
@@ -480,7 +480,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1344.83132282444</v>
+        <v>1324.96478183978</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,10 +491,10 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3172.01324258838</v>
+        <v>3145.83049909941</v>
       </c>
       <c r="C4" t="n">
-        <v>2822.93104588867</v>
+        <v>2714.99216292644</v>
       </c>
       <c r="D4" t="n">
         <v>2617.69890368062</v>
@@ -512,7 +512,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1531.01324258838</v>
+        <v>1504.83049909941</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2848.24708171213</v>
+        <v>2942.79401417899</v>
       </c>
       <c r="C5" t="n">
         <v>2480.75761103751</v>
@@ -532,7 +532,7 @@
         <v>2262.09225504128</v>
       </c>
       <c r="E5" t="n">
-        <v>3307.93184266879</v>
+        <v>3327.575655822</v>
       </c>
       <c r="F5" t="n">
         <v>3526.81419987515</v>
@@ -544,7 +544,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1116.24708171213</v>
+        <v>1210.79401417899</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2637.37107935653</v>
+        <v>2651.6272239533</v>
       </c>
       <c r="C6" t="n">
         <v>2089.6139643587</v>
@@ -564,10 +564,10 @@
         <v>1924.55013593521</v>
       </c>
       <c r="E6" t="n">
-        <v>3092.59910762078</v>
+        <v>3156.23486436951</v>
       </c>
       <c r="F6" t="n">
-        <v>3181.78860470656</v>
+        <v>3188.65956344707</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1052.37107935653</v>
+        <v>1066.6272239533</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2338.38783962607</v>
+        <v>2302.72221694863</v>
       </c>
       <c r="C7" t="n">
         <v>1761.55378011194</v>
@@ -596,10 +596,10 @@
         <v>1589.10435823062</v>
       </c>
       <c r="E7" t="n">
-        <v>2842.94273704274</v>
+        <v>2729.17216002548</v>
       </c>
       <c r="F7" t="n">
-        <v>2873.44258152634</v>
+        <v>2827.53569070833</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>630.387839626065</v>
+        <v>594.722216948628</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2339.04219538204</v>
+        <v>2284.71699478346</v>
       </c>
       <c r="C8" t="n">
         <v>1784.29864013751</v>
@@ -628,7 +628,7 @@
         <v>1604.76719787576</v>
       </c>
       <c r="E8" t="n">
-        <v>2763.41295335752</v>
+        <v>2655.2630653145</v>
       </c>
       <c r="F8" t="n">
         <v>2854.53680235356</v>
@@ -640,7 +640,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>580.042195382037</v>
+        <v>525.716994783462</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2256.60267467163</v>
+        <v>2209.63653161118</v>
       </c>
       <c r="C9" t="n">
         <v>1789.86011713188</v>
@@ -672,7 +672,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>497.602674671634</v>
+        <v>450.636531611178</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2031.08018978856</v>
+        <v>2013.88686497512</v>
       </c>
       <c r="C10" t="n">
         <v>1531.74947334365</v>
@@ -704,7 +704,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>220.080189788563</v>
+        <v>202.886864975116</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1858.00454406556</v>
+        <v>1860.00167916912</v>
       </c>
       <c r="C11" t="n">
         <v>1364.39386169921</v>
@@ -736,7 +736,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>352.00454406556</v>
+        <v>354.001679169116</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1976.86280592054</v>
+        <v>1989.24031042648</v>
       </c>
       <c r="C12" t="n">
         <v>1579.53111299129</v>
@@ -768,7 +768,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>337.862805920543</v>
+        <v>350.240310426483</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2035.00348873635</v>
+        <v>2060.53299468797</v>
       </c>
       <c r="C13" t="n">
         <v>1596.77428920028</v>
@@ -800,7 +800,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>217.003488736352</v>
+        <v>242.532994687968</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2375.95636331426</v>
+        <v>2366.22120019795</v>
       </c>
       <c r="C14" t="n">
         <v>1914.43103099402</v>
@@ -832,7 +832,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>537.956363314262</v>
+        <v>528.221200197948</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2385.09667886499</v>
+        <v>2359.46631273279</v>
       </c>
       <c r="C15" t="n">
         <v>1768.52726544701</v>
@@ -864,7 +864,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>536.096678864985</v>
+        <v>510.466312732785</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,10 +875,10 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3118.8798687178</v>
+        <v>3136.10662498193</v>
       </c>
       <c r="C16" t="n">
-        <v>2625.50484099747</v>
+        <v>2631.44449876311</v>
       </c>
       <c r="D16" t="n">
         <v>2384.98025229264</v>
@@ -896,7 +896,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>127.879868717804</v>
+        <v>145.10662498193</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2826.03093017774</v>
+        <v>2999.01293911684</v>
       </c>
       <c r="C17" t="n">
         <v>2329.24592105384</v>
@@ -916,7 +916,7 @@
         <v>2030.04324651397</v>
       </c>
       <c r="E17" t="n">
-        <v>3459.66053386259</v>
+        <v>3598.65790962952</v>
       </c>
       <c r="F17" t="n">
         <v>3758.86320840246</v>
@@ -928,7 +928,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>29.0309301777447</v>
+        <v>202.012939116835</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2703.53193848894</v>
+        <v>2676.72473795193</v>
       </c>
       <c r="C18" t="n">
         <v>1949.79547507638</v>
@@ -948,10 +948,10 @@
         <v>1710.71620936223</v>
       </c>
       <c r="E18" t="n">
-        <v>3445.24280918071</v>
+        <v>3309.19840176694</v>
       </c>
       <c r="F18" t="n">
-        <v>3523.24754075392</v>
+        <v>3411.45727795734</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>194.531938488945</v>
+        <v>167.724737951929</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2386.94432581473</v>
+        <v>2336.10801843763</v>
       </c>
       <c r="C19" t="n">
         <v>1625.94413108705</v>
@@ -980,10 +980,10 @@
         <v>1381.7072973625</v>
       </c>
       <c r="E19" t="n">
-        <v>3102.65015806002</v>
+        <v>2897.30942524766</v>
       </c>
       <c r="F19" t="n">
-        <v>3160.8559848173</v>
+        <v>3064.64296638977</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>120.944325814729</v>
+        <v>70.108018437626</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2339.69547413819</v>
+        <v>2278.15850798352</v>
       </c>
       <c r="C20" t="n">
         <v>1652.52589758054</v>
@@ -1012,7 +1012,7 @@
         <v>1403.23817906801</v>
       </c>
       <c r="E20" t="n">
-        <v>2807.30553241622</v>
+        <v>2788.59731888565</v>
       </c>
       <c r="F20" t="n">
         <v>3076.70690839687</v>
@@ -1024,7 +1024,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>199.695474138189</v>
+        <v>138.158507983517</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2283.72368914081</v>
+        <v>2234.13048153406</v>
       </c>
       <c r="C21" t="n">
         <v>1661.60572536473</v>
@@ -1056,7 +1056,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>174.723689140811</v>
+        <v>125.13048153406</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2068.62346704761</v>
+        <v>2047.45234301031</v>
       </c>
       <c r="C22" t="n">
         <v>1386.06673025111</v>
@@ -1088,7 +1088,7 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>35.6234670476065</v>
+        <v>14.4523430103106</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1916.87453969057</v>
+        <v>1862.45774225095</v>
       </c>
       <c r="C23" t="n">
         <v>1213.91124407118</v>
@@ -1108,7 +1108,7 @@
         <v>930.643425817936</v>
       </c>
       <c r="E23" t="n">
-        <v>2398.09959291985</v>
+        <v>2365.42902102599</v>
       </c>
       <c r="F23" t="n">
         <v>2651.44818108515</v>
@@ -1120,7 +1120,7 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>70.8745396905697</v>
+        <v>16.4577422509494</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1985.74697426705</v>
+        <v>1973.05346778722</v>
       </c>
       <c r="C24" t="n">
         <v>1434.67903069169</v>
@@ -1152,7 +1152,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-69.253025732949</v>
+        <v>-81.9465322127794</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2010.61861775074</v>
+        <v>2056.44163062415</v>
       </c>
       <c r="C25" t="n">
         <v>1456.22526462817</v>
@@ -1184,7 +1184,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-358.381382249261</v>
+        <v>-312.558369375852</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2321.35098689949</v>
+        <v>2349.90331203171</v>
       </c>
       <c r="C26" t="n">
         <v>1782.8628673287</v>
@@ -1216,7 +1216,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-208.64901310051</v>
+        <v>-180.096687968295</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2313.9528565104</v>
+        <v>2356.72074074303</v>
       </c>
       <c r="C27" t="n">
         <v>1623.85930325603</v>
@@ -1248,7 +1248,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-129.047143489599</v>
+        <v>-86.2792592569749</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,10 +1259,10 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3107.77201890017</v>
+        <v>3128.13368198304</v>
       </c>
       <c r="C28" t="n">
-        <v>2527.63174507259</v>
+        <v>2574.20138899116</v>
       </c>
       <c r="D28" t="n">
         <v>2198.76620775587</v>
@@ -1280,7 +1280,7 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>-23.227981099828</v>
+        <v>-2.8663180169624</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2754.91605941304</v>
+        <v>3001.45131297182</v>
       </c>
       <c r="C29" t="n">
         <v>2164.45414392355</v>
@@ -1300,7 +1300,7 @@
         <v>1826.72430239158</v>
       </c>
       <c r="E29" t="n">
-        <v>3580.16001318352</v>
+        <v>3642.01061913805</v>
       </c>
       <c r="F29" t="n">
         <v>3943.15125889888</v>
@@ -1312,7 +1312,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>229.916059413044</v>
+        <v>476.451312971822</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2730.39205140531</v>
+        <v>2684.37856019641</v>
       </c>
       <c r="C30" t="n">
         <v>1843.83249649127</v>
@@ -1332,10 +1332,10 @@
         <v>1499.87471884951</v>
       </c>
       <c r="E30" t="n">
-        <v>3571.47264716006</v>
+        <v>3365.87278005652</v>
       </c>
       <c r="F30" t="n">
-        <v>3655.90283742696</v>
+        <v>3593.10969167383</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>227.392051405314</v>
+        <v>181.378560196408</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2468.69058713112</v>
+        <v>2354.10623332186</v>
       </c>
       <c r="C31" t="n">
         <v>1521.97792708445</v>
@@ -1364,10 +1364,10 @@
         <v>1183.90265702296</v>
       </c>
       <c r="E31" t="n">
-        <v>3473.69645492242</v>
+        <v>2992.1623385381</v>
       </c>
       <c r="F31" t="n">
-        <v>3548.60675133907</v>
+        <v>3249.77910139857</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,10 +1376,10 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>57.6905871311174</v>
+        <v>-56.8937666781444</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2406.2311177135</v>
+        <v>2283.9336143542</v>
       </c>
       <c r="C32" t="n">
         <v>1550.28782413263</v>
@@ -1396,7 +1396,7 @@
         <v>1210.96074424427</v>
       </c>
       <c r="E32" t="n">
-        <v>3094.08184976023</v>
+        <v>2912.3765558275</v>
       </c>
       <c r="F32" t="n">
         <v>3268.46357704298</v>
@@ -1408,7 +1408,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>181.231117713497</v>
+        <v>58.933614354195</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2274.49780019978</v>
+        <v>2219.62630733114</v>
       </c>
       <c r="C33" t="n">
         <v>1549.03743878369</v>
@@ -1440,10 +1440,10 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>19.4978001997797</v>
+        <v>-35.3736926688593</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2069.5747989682</v>
+        <v>2042.41189525506</v>
       </c>
       <c r="C34" t="n">
         <v>1270.61212162443</v>
@@ -1472,7 +1472,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>123.574798968204</v>
+        <v>96.4118952550625</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1953.46627546999</v>
+        <v>1861.78505851484</v>
       </c>
       <c r="C35" t="n">
         <v>1095.57269499521</v>
@@ -1492,7 +1492,7 @@
         <v>726.38607155842</v>
       </c>
       <c r="E35" t="n">
-        <v>2535.64799570267</v>
+        <v>2511.2088528842</v>
       </c>
       <c r="F35" t="n">
         <v>2884.75200634086</v>
@@ -1504,7 +1504,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>270.466275469991</v>
+        <v>178.785058514835</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2026.02267849386</v>
+        <v>1963.91917901127</v>
       </c>
       <c r="C36" t="n">
         <v>1318.81651411255</v>
@@ -1536,7 +1536,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>294.022678493861</v>
+        <v>231.919179011272</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2021.70316662223</v>
+        <v>2059.1246281667</v>
       </c>
       <c r="C37" t="n">
         <v>1338.80662894613</v>
@@ -1568,7 +1568,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>834.703166622231</v>
+        <v>872.124628166698</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2294.56961594646</v>
+        <v>2338.39429427472</v>
       </c>
       <c r="C38" t="n">
         <v>1645.34393971249</v>
@@ -1600,7 +1600,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1150.56961594646</v>
+        <v>1194.39429427472</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2217.7879823517</v>
+        <v>2348.53812807094</v>
       </c>
       <c r="C39" t="n">
         <v>1486.11401111166</v>
@@ -1632,7 +1632,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>10.7879823516992</v>
+        <v>141.53812807094</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,10 +1643,10 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3012.90254703622</v>
+        <v>3135.57079399774</v>
       </c>
       <c r="C40" t="n">
-        <v>2209.65383107024</v>
+        <v>2405.26410121057</v>
       </c>
       <c r="D40" t="n">
         <v>1983.10109118607</v>
@@ -1664,10 +1664,10 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>-104.097452963783</v>
+        <v>18.5707939977378</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2795.20738319356</v>
+        <v>2993.98946928103</v>
       </c>
       <c r="C41" t="n">
         <v>1971.63522254429</v>
@@ -1696,7 +1696,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-210.79261680644</v>
+        <v>-12.0105307189656</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2647.83226549166</v>
+        <v>2665.33598253778</v>
       </c>
       <c r="C42" t="n">
         <v>1649.24414445909</v>
@@ -1716,7 +1716,7 @@
         <v>1212.63032751826</v>
       </c>
       <c r="E42" t="n">
-        <v>3449.72725378591</v>
+        <v>3388.09142131129</v>
       </c>
       <c r="F42" t="n">
         <v>3749.24575340589</v>
@@ -1728,7 +1728,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-174.167734508344</v>
+        <v>-156.664017462219</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2440.00683391848</v>
+        <v>2353.76568844257</v>
       </c>
       <c r="C43" t="n">
         <v>1337.62907551692</v>
@@ -1748,10 +1748,10 @@
         <v>893.966327251034</v>
       </c>
       <c r="E43" t="n">
-        <v>3500.78020940878</v>
+        <v>3095.57993302711</v>
       </c>
       <c r="F43" t="n">
-        <v>3580.83504553558</v>
+        <v>3457.48958695427</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-88.9931660815178</v>
+        <v>-175.234311557428</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2450.64381324985</v>
+        <v>2283.34762077196</v>
       </c>
       <c r="C44" t="n">
         <v>1368.94888135808</v>
@@ -1780,10 +1780,10 @@
         <v>918.347457421205</v>
       </c>
       <c r="E44" t="n">
-        <v>3424.56264614721</v>
+        <v>3071.36158523516</v>
       </c>
       <c r="F44" t="n">
-        <v>3564.32063449154</v>
+        <v>3521.96300917203</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-169.356186750146</v>
+        <v>-336.652379228036</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2355.32932958646</v>
+        <v>2224.30115073114</v>
       </c>
       <c r="C45" t="n">
         <v>1367.68751238602</v>
@@ -1824,7 +1824,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-262.67067041354</v>
+        <v>-393.69884926886</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>2103.29221620061</v>
+        <v>2039.23222153562</v>
       </c>
       <c r="C46" t="n">
         <v>1081.92151510189</v>
@@ -1856,7 +1856,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-446.707783799386</v>
+        <v>-510.767778464377</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1930.56411422383</v>
+        <v>1857.21027274206</v>
       </c>
       <c r="C47" t="n">
         <v>896.641655395377</v>
@@ -1888,7 +1888,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-612.435885776173</v>
+        <v>-685.789727257937</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>2065.00777174975</v>
+        <v>1957.97043576441</v>
       </c>
       <c r="C48" t="n">
         <v>1121.84715679139</v>
@@ -1920,7 +1920,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-685.992228250249</v>
+        <v>-793.029564235586</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2058.81179026115</v>
+        <v>2047.08304074506</v>
       </c>
       <c r="C49" t="n">
         <v>1132.11414754105</v>
@@ -1952,7 +1952,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-609.188209738853</v>
+        <v>-620.916959254943</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Hepatitis E.xlsx
+++ b/outcome/appendix/forecast/Hepatitis E.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2375.86527235627</v>
+        <v>2360.39455573452</v>
       </c>
       <c r="C2" t="n">
         <v>2092.67073250141</v>
@@ -448,7 +448,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>749.865272356268</v>
+        <v>734.394555734517</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2369.96478183978</v>
+        <v>2352.32559555366</v>
       </c>
       <c r="C3" t="n">
         <v>1972.65524679747</v>
@@ -480,7 +480,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1324.96478183978</v>
+        <v>1307.32559555366</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,10 +491,10 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3145.83049909941</v>
+        <v>3170.93958214168</v>
       </c>
       <c r="C4" t="n">
-        <v>2714.99216292644</v>
+        <v>2821.15113400456</v>
       </c>
       <c r="D4" t="n">
         <v>2617.69890368062</v>
@@ -512,7 +512,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1504.83049909941</v>
+        <v>1529.93958214168</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2942.79401417899</v>
+        <v>2938.06367494595</v>
       </c>
       <c r="C5" t="n">
         <v>2480.75761103751</v>
@@ -532,7 +532,7 @@
         <v>2262.09225504128</v>
       </c>
       <c r="E5" t="n">
-        <v>3327.575655822</v>
+        <v>3307.93184266879</v>
       </c>
       <c r="F5" t="n">
         <v>3526.81419987515</v>
@@ -544,7 +544,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1210.79401417899</v>
+        <v>1206.06367494595</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2651.6272239533</v>
+        <v>2614.75849661334</v>
       </c>
       <c r="C6" t="n">
         <v>2089.6139643587</v>
@@ -564,10 +564,10 @@
         <v>1924.55013593521</v>
       </c>
       <c r="E6" t="n">
-        <v>3156.23486436951</v>
+        <v>3002.2587283695</v>
       </c>
       <c r="F6" t="n">
-        <v>3188.65956344707</v>
+        <v>3181.78860470656</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1066.6272239533</v>
+        <v>1029.75849661334</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2302.72221694863</v>
+        <v>2238.50348973571</v>
       </c>
       <c r="C7" t="n">
         <v>1761.55378011194</v>
@@ -596,7 +596,7 @@
         <v>1589.10435823062</v>
       </c>
       <c r="E7" t="n">
-        <v>2729.17216002548</v>
+        <v>2625.72882298163</v>
       </c>
       <c r="F7" t="n">
         <v>2827.53569070833</v>
@@ -608,7 +608,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>594.722216948628</v>
+        <v>530.503489735707</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2284.71699478346</v>
+        <v>2250.84188571033</v>
       </c>
       <c r="C8" t="n">
         <v>1784.29864013751</v>
@@ -640,7 +640,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>525.716994783462</v>
+        <v>491.841885710326</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2209.63653161118</v>
+        <v>2251.51253617101</v>
       </c>
       <c r="C9" t="n">
         <v>1789.86011713188</v>
@@ -672,7 +672,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>450.636531611178</v>
+        <v>492.51253617101</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2013.88686497512</v>
+        <v>2024.69787883702</v>
       </c>
       <c r="C10" t="n">
         <v>1531.74947334365</v>
@@ -704,7 +704,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>202.886864975116</v>
+        <v>213.69787883702</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1860.00167916912</v>
+        <v>1853.53740933331</v>
       </c>
       <c r="C11" t="n">
         <v>1364.39386169921</v>
@@ -736,7 +736,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>354.001679169116</v>
+        <v>347.537409333307</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1989.24031042648</v>
+        <v>2014.47765952703</v>
       </c>
       <c r="C12" t="n">
         <v>1579.53111299129</v>
@@ -768,7 +768,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>350.240310426483</v>
+        <v>375.477659527029</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2060.53299468797</v>
+        <v>2082.13414466569</v>
       </c>
       <c r="C13" t="n">
         <v>1596.77428920028</v>
@@ -800,7 +800,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>242.532994687968</v>
+        <v>264.134144665692</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2366.22120019795</v>
+        <v>2379.62098943604</v>
       </c>
       <c r="C14" t="n">
         <v>1914.43103099402</v>
@@ -832,7 +832,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>528.221200197948</v>
+        <v>541.620989436036</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2359.46631273279</v>
+        <v>2375.27561271413</v>
       </c>
       <c r="C15" t="n">
         <v>1768.52726544701</v>
@@ -864,7 +864,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>510.466312732785</v>
+        <v>526.275612714135</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,10 +875,10 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3136.10662498193</v>
+        <v>3085.37024305792</v>
       </c>
       <c r="C16" t="n">
-        <v>2631.44449876311</v>
+        <v>2465.74140743452</v>
       </c>
       <c r="D16" t="n">
         <v>2384.98025229264</v>
@@ -896,7 +896,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>145.10662498193</v>
+        <v>94.3702430579224</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2999.01293911684</v>
+        <v>2922.68121387256</v>
       </c>
       <c r="C17" t="n">
         <v>2329.24592105384</v>
@@ -916,7 +916,7 @@
         <v>2030.04324651397</v>
       </c>
       <c r="E17" t="n">
-        <v>3598.65790962952</v>
+        <v>3459.66053386259</v>
       </c>
       <c r="F17" t="n">
         <v>3758.86320840246</v>
@@ -928,7 +928,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>202.012939116835</v>
+        <v>125.681213872556</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2676.72473795193</v>
+        <v>2654.48048423851</v>
       </c>
       <c r="C18" t="n">
         <v>1949.79547507638</v>
@@ -948,7 +948,7 @@
         <v>1710.71620936223</v>
       </c>
       <c r="E18" t="n">
-        <v>3309.19840176694</v>
+        <v>3196.43259445353</v>
       </c>
       <c r="F18" t="n">
         <v>3411.45727795734</v>
@@ -960,7 +960,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>167.724737951929</v>
+        <v>145.480484238507</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2336.10801843763</v>
+        <v>2275.20377989122</v>
       </c>
       <c r="C19" t="n">
         <v>1625.94413108705</v>
@@ -980,7 +980,7 @@
         <v>1381.7072973625</v>
       </c>
       <c r="E19" t="n">
-        <v>2897.30942524766</v>
+        <v>2780.7649372921</v>
       </c>
       <c r="F19" t="n">
         <v>3064.64296638977</v>
@@ -992,7 +992,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>70.108018437626</v>
+        <v>9.20377989122335</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2278.15850798352</v>
+        <v>2225.56607818956</v>
       </c>
       <c r="C20" t="n">
         <v>1652.52589758054</v>
@@ -1024,7 +1024,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>138.158507983517</v>
+        <v>85.5660781895554</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2234.13048153406</v>
+        <v>2234.12562072625</v>
       </c>
       <c r="C21" t="n">
         <v>1661.60572536473</v>
@@ -1056,7 +1056,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>125.13048153406</v>
+        <v>125.125620726247</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2047.45234301031</v>
+        <v>2040.98833102556</v>
       </c>
       <c r="C22" t="n">
         <v>1386.06673025111</v>
@@ -1088,7 +1088,7 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>14.4523430103106</v>
+        <v>7.98833102555818</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1862.45774225095</v>
+        <v>1892.94888338909</v>
       </c>
       <c r="C23" t="n">
         <v>1213.91124407118</v>
@@ -1120,7 +1120,7 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>16.4577422509494</v>
+        <v>46.9488833890862</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1973.05346778722</v>
+        <v>2007.09868395807</v>
       </c>
       <c r="C24" t="n">
         <v>1434.67903069169</v>
@@ -1152,7 +1152,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-81.9465322127794</v>
+        <v>-47.9013160419336</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2056.44163062415</v>
+        <v>2081.45596042113</v>
       </c>
       <c r="C25" t="n">
         <v>1456.22526462817</v>
@@ -1184,7 +1184,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-312.558369375852</v>
+        <v>-287.544039578875</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2349.90331203171</v>
+        <v>2374.73095176211</v>
       </c>
       <c r="C26" t="n">
         <v>1782.8628673287</v>
@@ -1216,7 +1216,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-180.096687968295</v>
+        <v>-155.269048237889</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2356.72074074303</v>
+        <v>2325.42763219352</v>
       </c>
       <c r="C27" t="n">
         <v>1623.85930325603</v>
@@ -1248,7 +1248,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-86.2792592569749</v>
+        <v>-117.572367806476</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,10 +1259,10 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3128.13368198304</v>
+        <v>3087.36353973135</v>
       </c>
       <c r="C28" t="n">
-        <v>2574.20138899116</v>
+        <v>2448.47204028956</v>
       </c>
       <c r="D28" t="n">
         <v>2198.76620775587</v>
@@ -1280,7 +1280,7 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>-2.8663180169624</v>
+        <v>-43.6364602686485</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3001.45131297182</v>
+        <v>2834.58864534412</v>
       </c>
       <c r="C29" t="n">
         <v>2164.45414392355</v>
@@ -1300,7 +1300,7 @@
         <v>1826.72430239158</v>
       </c>
       <c r="E29" t="n">
-        <v>3642.01061913805</v>
+        <v>3580.16001318352</v>
       </c>
       <c r="F29" t="n">
         <v>3943.15125889888</v>
@@ -1312,7 +1312,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>476.451312971822</v>
+        <v>309.588645344117</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2684.37856019641</v>
+        <v>2637.18996904426</v>
       </c>
       <c r="C30" t="n">
         <v>1843.83249649127</v>
@@ -1332,7 +1332,7 @@
         <v>1499.87471884951</v>
       </c>
       <c r="E30" t="n">
-        <v>3365.87278005652</v>
+        <v>3240.08338226704</v>
       </c>
       <c r="F30" t="n">
         <v>3593.10969167383</v>
@@ -1344,7 +1344,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>181.378560196408</v>
+        <v>134.189969044259</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2354.10623332186</v>
+        <v>2303.37397941122</v>
       </c>
       <c r="C31" t="n">
         <v>1521.97792708445</v>
@@ -1364,7 +1364,7 @@
         <v>1183.90265702296</v>
       </c>
       <c r="E31" t="n">
-        <v>2992.1623385381</v>
+        <v>2901.81894926931</v>
       </c>
       <c r="F31" t="n">
         <v>3249.77910139857</v>
@@ -1376,7 +1376,7 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-56.8937666781444</v>
+        <v>-107.626020588782</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2283.9336143542</v>
+        <v>2243.79823076496</v>
       </c>
       <c r="C32" t="n">
         <v>1550.28782413263</v>
@@ -1408,7 +1408,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>58.933614354195</v>
+        <v>18.7982307649622</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2219.62630733114</v>
+        <v>2237.96058241431</v>
       </c>
       <c r="C33" t="n">
         <v>1549.03743878369</v>
@@ -1440,7 +1440,7 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>-35.3736926688593</v>
+        <v>-17.0394175856936</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2042.41189525506</v>
+        <v>2057.2892337754</v>
       </c>
       <c r="C34" t="n">
         <v>1270.61212162443</v>
@@ -1472,7 +1472,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>96.4118952550625</v>
+        <v>111.289233775401</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1861.78505851484</v>
+        <v>1898.93375166217</v>
       </c>
       <c r="C35" t="n">
         <v>1095.57269499521</v>
@@ -1504,7 +1504,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>178.785058514835</v>
+        <v>215.933751662174</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1963.91917901127</v>
+        <v>2016.55427857588</v>
       </c>
       <c r="C36" t="n">
         <v>1318.81651411255</v>
@@ -1536,7 +1536,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>231.919179011272</v>
+        <v>284.554278575883</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2059.1246281667</v>
+        <v>2057.19702818581</v>
       </c>
       <c r="C37" t="n">
         <v>1338.80662894613</v>
@@ -1568,7 +1568,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>872.124628166698</v>
+        <v>870.197028185814</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2338.39429427472</v>
+        <v>2338.58315343903</v>
       </c>
       <c r="C38" t="n">
         <v>1645.34393971249</v>
@@ -1600,7 +1600,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1194.39429427472</v>
+        <v>1194.58315343903</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2348.53812807094</v>
+        <v>2333.21289648938</v>
       </c>
       <c r="C39" t="n">
         <v>1486.11401111166</v>
@@ -1632,7 +1632,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>141.53812807094</v>
+        <v>126.212896489378</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3135.57079399774</v>
+        <v>3083.30892494582</v>
       </c>
       <c r="C40" t="n">
         <v>2405.26410121057</v>
@@ -1664,10 +1664,10 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>18.5707939977378</v>
+        <v>-33.691075054182</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2993.98946928103</v>
+        <v>2720.44158009397</v>
       </c>
       <c r="C41" t="n">
         <v>1971.63522254429</v>
@@ -1696,7 +1696,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-12.0105307189656</v>
+        <v>-285.558419906026</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2665.33598253778</v>
+        <v>2657.5648211793</v>
       </c>
       <c r="C42" t="n">
         <v>1649.24414445909</v>
@@ -1716,7 +1716,7 @@
         <v>1212.63032751826</v>
       </c>
       <c r="E42" t="n">
-        <v>3388.09142131129</v>
+        <v>3342.17526555114</v>
       </c>
       <c r="F42" t="n">
         <v>3749.24575340589</v>
@@ -1728,7 +1728,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-156.664017462219</v>
+        <v>-164.435178820697</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2353.76568844257</v>
+        <v>2359.02527019689</v>
       </c>
       <c r="C43" t="n">
         <v>1337.62907551692</v>
@@ -1748,7 +1748,7 @@
         <v>893.966327251034</v>
       </c>
       <c r="E43" t="n">
-        <v>3095.57993302711</v>
+        <v>3013.82683868839</v>
       </c>
       <c r="F43" t="n">
         <v>3457.48958695427</v>
@@ -1760,7 +1760,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-175.234311557428</v>
+        <v>-169.974729803109</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2283.34762077196</v>
+        <v>2245.03757081197</v>
       </c>
       <c r="C44" t="n">
         <v>1368.94888135808</v>
@@ -1792,7 +1792,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-336.652379228036</v>
+        <v>-374.962429188034</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2224.30115073114</v>
+        <v>2220.69897041823</v>
       </c>
       <c r="C45" t="n">
         <v>1367.68751238602</v>
@@ -1824,7 +1824,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-393.69884926886</v>
+        <v>-397.301029581767</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>2039.23222153562</v>
+        <v>2061.05175497573</v>
       </c>
       <c r="C46" t="n">
         <v>1081.92151510189</v>
@@ -1856,7 +1856,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-510.767778464377</v>
+        <v>-488.948245024274</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1857.21027274206</v>
+        <v>1911.22120405076</v>
       </c>
       <c r="C47" t="n">
         <v>896.641655395377</v>
@@ -1888,7 +1888,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-685.789727257937</v>
+        <v>-631.778795949243</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>1957.97043576441</v>
+        <v>2059.46726197347</v>
       </c>
       <c r="C48" t="n">
         <v>1121.84715679139</v>
@@ -1920,7 +1920,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-793.029564235586</v>
+        <v>-691.532738026527</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2047.08304074506</v>
+        <v>2055.77357235953</v>
       </c>
       <c r="C49" t="n">
         <v>1132.11414754105</v>
@@ -1952,7 +1952,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-620.916959254943</v>
+        <v>-612.226427640468</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Hepatitis E.xlsx
+++ b/outcome/appendix/forecast/Hepatitis E.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2360.39455573452</v>
+        <v>2369.64532915192</v>
       </c>
       <c r="C2" t="n">
         <v>2092.67073250141</v>
@@ -448,7 +448,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>734.394555734517</v>
+        <v>743.645329151924</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2352.32559555366</v>
+        <v>2356.66380675752</v>
       </c>
       <c r="C3" t="n">
         <v>1972.65524679747</v>
@@ -480,7 +480,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1307.32559555366</v>
+        <v>1311.66380675752</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,10 +491,10 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3170.93958214168</v>
+        <v>3221.08350526701</v>
       </c>
       <c r="C4" t="n">
-        <v>2821.15113400456</v>
+        <v>2848.12675525047</v>
       </c>
       <c r="D4" t="n">
         <v>2617.69890368062</v>
@@ -512,7 +512,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1529.93958214168</v>
+        <v>1580.08350526701</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2938.06367494595</v>
+        <v>2938.0506181578</v>
       </c>
       <c r="C5" t="n">
         <v>2480.75761103751</v>
@@ -544,7 +544,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1206.06367494595</v>
+        <v>1206.0506181578</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2614.75849661334</v>
+        <v>2657.33454706264</v>
       </c>
       <c r="C6" t="n">
         <v>2089.6139643587</v>
@@ -564,10 +564,10 @@
         <v>1924.55013593521</v>
       </c>
       <c r="E6" t="n">
-        <v>3002.2587283695</v>
+        <v>3188.39405569294</v>
       </c>
       <c r="F6" t="n">
-        <v>3181.78860470656</v>
+        <v>3220.71265696999</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1029.75849661334</v>
+        <v>1072.33454706264</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2238.50348973571</v>
+        <v>2272.76574324714</v>
       </c>
       <c r="C7" t="n">
         <v>1761.55378011194</v>
@@ -608,7 +608,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>530.503489735707</v>
+        <v>564.765743247138</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2250.84188571033</v>
+        <v>2292.41214399495</v>
       </c>
       <c r="C8" t="n">
         <v>1784.29864013751</v>
@@ -640,7 +640,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>491.841885710326</v>
+        <v>533.412143994954</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2251.51253617101</v>
+        <v>2236.18977217617</v>
       </c>
       <c r="C9" t="n">
         <v>1789.86011713188</v>
@@ -672,7 +672,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>492.51253617101</v>
+        <v>477.189772176172</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2024.69787883702</v>
+        <v>2043.74917089699</v>
       </c>
       <c r="C10" t="n">
         <v>1531.74947334365</v>
@@ -704,7 +704,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>213.69787883702</v>
+        <v>232.749170896995</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1853.53740933331</v>
+        <v>1854.56073571044</v>
       </c>
       <c r="C11" t="n">
         <v>1364.39386169921</v>
@@ -736,7 +736,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>347.537409333307</v>
+        <v>348.560735710445</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2014.47765952703</v>
+        <v>1960.25565583311</v>
       </c>
       <c r="C12" t="n">
         <v>1579.53111299129</v>
@@ -768,7 +768,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>375.477659527029</v>
+        <v>321.255655833114</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2082.13414466569</v>
+        <v>2043.77802506409</v>
       </c>
       <c r="C13" t="n">
         <v>1596.77428920028</v>
@@ -800,7 +800,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>264.134144665692</v>
+        <v>225.778025064094</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2379.62098943604</v>
+        <v>2401.82109122706</v>
       </c>
       <c r="C14" t="n">
         <v>1914.43103099402</v>
@@ -832,7 +832,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>541.620989436036</v>
+        <v>563.821091227056</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2375.27561271413</v>
+        <v>2410.64131128664</v>
       </c>
       <c r="C15" t="n">
         <v>1768.52726544701</v>
@@ -864,7 +864,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>526.275612714135</v>
+        <v>561.641311286637</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,10 +875,10 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3085.37024305792</v>
+        <v>3211.54939463769</v>
       </c>
       <c r="C16" t="n">
-        <v>2465.74140743452</v>
+        <v>2695.96020812502</v>
       </c>
       <c r="D16" t="n">
         <v>2384.98025229264</v>
@@ -896,7 +896,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>94.3702430579224</v>
+        <v>220.549394637694</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2922.68121387256</v>
+        <v>2925.60494564699</v>
       </c>
       <c r="C17" t="n">
         <v>2329.24592105384</v>
@@ -928,7 +928,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>125.681213872556</v>
+        <v>128.604945646993</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2654.48048423851</v>
+        <v>2698.77670815532</v>
       </c>
       <c r="C18" t="n">
         <v>1949.79547507638</v>
@@ -948,10 +948,10 @@
         <v>1710.71620936223</v>
       </c>
       <c r="E18" t="n">
-        <v>3196.43259445353</v>
+        <v>3400.4610591474</v>
       </c>
       <c r="F18" t="n">
-        <v>3411.45727795734</v>
+        <v>3453.34328472222</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>145.480484238507</v>
+        <v>189.776708155317</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2275.20377989122</v>
+        <v>2346.52028976479</v>
       </c>
       <c r="C19" t="n">
         <v>1625.94413108705</v>
@@ -980,7 +980,7 @@
         <v>1381.7072973625</v>
       </c>
       <c r="E19" t="n">
-        <v>2780.7649372921</v>
+        <v>2976.22456071007</v>
       </c>
       <c r="F19" t="n">
         <v>3064.64296638977</v>
@@ -992,7 +992,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>9.20377989122335</v>
+        <v>80.520289764791</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2225.56607818956</v>
+        <v>2266.85616158152</v>
       </c>
       <c r="C20" t="n">
         <v>1652.52589758054</v>
@@ -1024,7 +1024,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>85.5660781895554</v>
+        <v>126.85616158152</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2234.12562072625</v>
+        <v>2252.2244347175</v>
       </c>
       <c r="C21" t="n">
         <v>1661.60572536473</v>
@@ -1056,7 +1056,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>125.125620726247</v>
+        <v>143.224434717498</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2040.98833102556</v>
+        <v>2072.06088892078</v>
       </c>
       <c r="C22" t="n">
         <v>1386.06673025111</v>
@@ -1076,7 +1076,7 @@
         <v>1103.14820029984</v>
       </c>
       <c r="E22" t="n">
-        <v>2529.32646183503</v>
+        <v>2541.09880293632</v>
       </c>
       <c r="F22" t="n">
         <v>2810.66302521311</v>
@@ -1088,7 +1088,7 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>7.98833102555818</v>
+        <v>39.0608889207824</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1892.94888338909</v>
+        <v>1865.65977621643</v>
       </c>
       <c r="C23" t="n">
         <v>1213.91124407118</v>
@@ -1120,7 +1120,7 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>46.9488833890862</v>
+        <v>19.6597762164324</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2007.09868395807</v>
+        <v>1967.34780222212</v>
       </c>
       <c r="C24" t="n">
         <v>1434.67903069169</v>
@@ -1152,7 +1152,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-47.9013160419336</v>
+        <v>-87.6521977778827</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2081.45596042113</v>
+        <v>2067.61984251266</v>
       </c>
       <c r="C25" t="n">
         <v>1456.22526462817</v>
@@ -1184,7 +1184,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-287.544039578875</v>
+        <v>-301.380157487338</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2374.73095176211</v>
+        <v>2417.18894520112</v>
       </c>
       <c r="C26" t="n">
         <v>1782.8628673287</v>
@@ -1216,7 +1216,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-155.269048237889</v>
+        <v>-112.811054798879</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2325.42763219352</v>
+        <v>2421.21480682265</v>
       </c>
       <c r="C27" t="n">
         <v>1623.85930325603</v>
@@ -1248,7 +1248,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-117.572367806476</v>
+        <v>-21.7851931773457</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,10 +1259,10 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3087.36353973135</v>
+        <v>3140.20070899561</v>
       </c>
       <c r="C28" t="n">
-        <v>2448.47204028956</v>
+        <v>2574.20138899116</v>
       </c>
       <c r="D28" t="n">
         <v>2198.76620775587</v>
@@ -1280,10 +1280,10 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>-43.6364602686485</v>
+        <v>9.20070899560596</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2834.58864534412</v>
+        <v>2927.83892243914</v>
       </c>
       <c r="C29" t="n">
         <v>2164.45414392355</v>
@@ -1312,7 +1312,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>309.588645344117</v>
+        <v>402.838922439144</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2637.18996904426</v>
+        <v>2710.12886898584</v>
       </c>
       <c r="C30" t="n">
         <v>1843.83249649127</v>
@@ -1332,10 +1332,10 @@
         <v>1499.87471884951</v>
       </c>
       <c r="E30" t="n">
-        <v>3240.08338226704</v>
+        <v>3548.81153324065</v>
       </c>
       <c r="F30" t="n">
-        <v>3593.10969167383</v>
+        <v>3620.12306932956</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>134.189969044259</v>
+        <v>207.128868985844</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2303.37397941122</v>
+        <v>2378.4943935106</v>
       </c>
       <c r="C31" t="n">
         <v>1521.97792708445</v>
@@ -1364,10 +1364,10 @@
         <v>1183.90265702296</v>
       </c>
       <c r="E31" t="n">
-        <v>2901.81894926931</v>
+        <v>3203.40250485526</v>
       </c>
       <c r="F31" t="n">
-        <v>3249.77910139857</v>
+        <v>3293.94426677737</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-107.626020588782</v>
+        <v>-32.505606489397</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2243.79823076496</v>
+        <v>2274.36386836738</v>
       </c>
       <c r="C32" t="n">
         <v>1550.28782413263</v>
@@ -1408,7 +1408,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>18.7982307649622</v>
+        <v>49.3638683673812</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2237.96058241431</v>
+        <v>2250.32686678829</v>
       </c>
       <c r="C33" t="n">
         <v>1549.03743878369</v>
@@ -1440,7 +1440,7 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>-17.0394175856936</v>
+        <v>-4.67313321170786</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2057.2892337754</v>
+        <v>2078.8492756593</v>
       </c>
       <c r="C34" t="n">
         <v>1270.61212162443</v>
@@ -1472,7 +1472,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>111.289233775401</v>
+        <v>132.849275659302</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1898.93375166217</v>
+        <v>1874.45506516399</v>
       </c>
       <c r="C35" t="n">
         <v>1095.57269499521</v>
@@ -1504,7 +1504,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>215.933751662174</v>
+        <v>191.455065163986</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2016.55427857588</v>
+        <v>1992.74500252106</v>
       </c>
       <c r="C36" t="n">
         <v>1318.81651411255</v>
@@ -1536,7 +1536,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>284.554278575883</v>
+        <v>260.745002521064</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2057.19702818581</v>
+        <v>2063.9820277177</v>
       </c>
       <c r="C37" t="n">
         <v>1338.80662894613</v>
@@ -1568,7 +1568,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>870.197028185814</v>
+        <v>876.982027717699</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2338.58315343903</v>
+        <v>2347.7745351009</v>
       </c>
       <c r="C38" t="n">
         <v>1645.34393971249</v>
@@ -1600,7 +1600,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1194.58315343903</v>
+        <v>1203.7745351009</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2333.21289648938</v>
+        <v>2354.87507389634</v>
       </c>
       <c r="C39" t="n">
         <v>1486.11401111166</v>
@@ -1632,7 +1632,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>126.212896489378</v>
+        <v>147.875073896342</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3083.30892494582</v>
+        <v>3138.6090983689</v>
       </c>
       <c r="C40" t="n">
         <v>2405.26410121057</v>
@@ -1664,10 +1664,10 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>-33.691075054182</v>
+        <v>21.6090983689037</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2720.44158009397</v>
+        <v>2854.38915476181</v>
       </c>
       <c r="C41" t="n">
         <v>1971.63522254429</v>
@@ -1696,7 +1696,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-285.558419906026</v>
+        <v>-151.610845238194</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2657.5648211793</v>
+        <v>2734.95412617465</v>
       </c>
       <c r="C42" t="n">
         <v>1649.24414445909</v>
@@ -1716,10 +1716,10 @@
         <v>1212.63032751826</v>
       </c>
       <c r="E42" t="n">
-        <v>3342.17526555114</v>
+        <v>3703.4737000813</v>
       </c>
       <c r="F42" t="n">
-        <v>3749.24575340589</v>
+        <v>3801.35351668372</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-164.435178820697</v>
+        <v>-87.0458738253524</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2359.02527019689</v>
+        <v>2427.55252882938</v>
       </c>
       <c r="C43" t="n">
         <v>1337.62907551692</v>
@@ -1748,7 +1748,7 @@
         <v>893.966327251034</v>
       </c>
       <c r="E43" t="n">
-        <v>3013.82683868839</v>
+        <v>3352.68669947086</v>
       </c>
       <c r="F43" t="n">
         <v>3457.48958695427</v>
@@ -1760,7 +1760,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-169.974729803109</v>
+        <v>-101.447471170621</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2245.03757081197</v>
+        <v>2329.97234375505</v>
       </c>
       <c r="C44" t="n">
         <v>1368.94888135808</v>
@@ -1792,7 +1792,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-374.962429188034</v>
+        <v>-290.027656244953</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2220.69897041823</v>
+        <v>2246.64939597867</v>
       </c>
       <c r="C45" t="n">
         <v>1367.68751238602</v>
@@ -1824,7 +1824,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-397.301029581767</v>
+        <v>-371.350604021331</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>2061.05175497573</v>
+        <v>2058.36887244485</v>
       </c>
       <c r="C46" t="n">
         <v>1081.92151510189</v>
@@ -1856,7 +1856,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-488.948245024274</v>
+        <v>-491.631127555154</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1911.22120405076</v>
+        <v>1877.60568999119</v>
       </c>
       <c r="C47" t="n">
         <v>896.641655395377</v>
@@ -1888,7 +1888,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-631.778795949243</v>
+        <v>-665.394310008814</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>2059.46726197347</v>
+        <v>2005.78786826061</v>
       </c>
       <c r="C48" t="n">
         <v>1121.84715679139</v>
@@ -1920,7 +1920,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-691.532738026527</v>
+        <v>-745.212131739387</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2055.77357235953</v>
+        <v>2019.24015798748</v>
       </c>
       <c r="C49" t="n">
         <v>1132.11414754105</v>
@@ -1952,7 +1952,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-612.226427640468</v>
+        <v>-648.759842012524</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Hepatitis E.xlsx
+++ b/outcome/appendix/forecast/Hepatitis E.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2369.64532915192</v>
+        <v>2368.21762734204</v>
       </c>
       <c r="C2" t="n">
         <v>2092.67073250141</v>
@@ -448,7 +448,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>743.645329151924</v>
+        <v>742.217627342037</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2356.66380675752</v>
+        <v>2336.5482952521</v>
       </c>
       <c r="C3" t="n">
         <v>1972.65524679747</v>
@@ -480,7 +480,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1311.66380675752</v>
+        <v>1291.5482952521</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3221.08350526701</v>
+        <v>3207.8142596256</v>
       </c>
       <c r="C4" t="n">
         <v>2848.12675525047</v>
@@ -512,7 +512,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1580.08350526701</v>
+        <v>1566.8142596256</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2938.0506181578</v>
+        <v>2896.54459329175</v>
       </c>
       <c r="C5" t="n">
         <v>2480.75761103751</v>
@@ -544,7 +544,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1206.0506181578</v>
+        <v>1164.54459329175</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2657.33454706264</v>
+        <v>2592.40664413885</v>
       </c>
       <c r="C6" t="n">
         <v>2089.6139643587</v>
@@ -564,10 +564,10 @@
         <v>1924.55013593521</v>
       </c>
       <c r="E6" t="n">
-        <v>3188.39405569294</v>
+        <v>2971.13497959111</v>
       </c>
       <c r="F6" t="n">
-        <v>3220.71265696999</v>
+        <v>3181.78860470656</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1072.33454706264</v>
+        <v>1007.40664413885</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2272.76574324714</v>
+        <v>2278.87062738263</v>
       </c>
       <c r="C7" t="n">
         <v>1761.55378011194</v>
@@ -596,7 +596,7 @@
         <v>1589.10435823062</v>
       </c>
       <c r="E7" t="n">
-        <v>2625.72882298163</v>
+        <v>2651.11271612996</v>
       </c>
       <c r="F7" t="n">
         <v>2827.53569070833</v>
@@ -608,7 +608,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>564.765743247138</v>
+        <v>570.870627382628</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2292.41214399495</v>
+        <v>2312.26115529802</v>
       </c>
       <c r="C8" t="n">
         <v>1784.29864013751</v>
@@ -628,7 +628,7 @@
         <v>1604.76719787576</v>
       </c>
       <c r="E8" t="n">
-        <v>2655.2630653145</v>
+        <v>2713.26487790539</v>
       </c>
       <c r="F8" t="n">
         <v>2854.53680235356</v>
@@ -640,7 +640,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>533.412143994954</v>
+        <v>553.261155298023</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2236.18977217617</v>
+        <v>2261.69631969865</v>
       </c>
       <c r="C9" t="n">
         <v>1789.86011713188</v>
@@ -672,7 +672,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>477.189772176172</v>
+        <v>502.696319698655</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2043.74917089699</v>
+        <v>2023.44931937047</v>
       </c>
       <c r="C10" t="n">
         <v>1531.74947334365</v>
@@ -704,7 +704,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>232.749170896995</v>
+        <v>212.449319370465</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1854.56073571044</v>
+        <v>1843.88959653763</v>
       </c>
       <c r="C11" t="n">
         <v>1364.39386169921</v>
@@ -736,7 +736,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>348.560735710445</v>
+        <v>337.889596537626</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1960.25565583311</v>
+        <v>1980.93531202516</v>
       </c>
       <c r="C12" t="n">
         <v>1579.53111299129</v>
@@ -768,7 +768,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>321.255655833114</v>
+        <v>341.935312025159</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2043.77802506409</v>
+        <v>2055.94399441911</v>
       </c>
       <c r="C13" t="n">
         <v>1596.77428920028</v>
@@ -800,7 +800,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>225.778025064094</v>
+        <v>237.943994419107</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2401.82109122706</v>
+        <v>2383.70990055491</v>
       </c>
       <c r="C14" t="n">
         <v>1914.43103099402</v>
@@ -832,7 +832,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>563.821091227056</v>
+        <v>545.709900554909</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2410.64131128664</v>
+        <v>2369.45036570567</v>
       </c>
       <c r="C15" t="n">
         <v>1768.52726544701</v>
@@ -864,7 +864,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>561.641311286637</v>
+        <v>520.450365705673</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,10 +875,10 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3211.54939463769</v>
+        <v>3122.40673975883</v>
       </c>
       <c r="C16" t="n">
-        <v>2695.96020812502</v>
+        <v>2631.9546352947</v>
       </c>
       <c r="D16" t="n">
         <v>2384.98025229264</v>
@@ -896,7 +896,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>220.549394637694</v>
+        <v>131.406739758833</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2925.60494564699</v>
+        <v>2938.56424009533</v>
       </c>
       <c r="C17" t="n">
         <v>2329.24592105384</v>
@@ -928,7 +928,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>128.604945646993</v>
+        <v>141.564240095332</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2698.77670815532</v>
+        <v>2670.3744564922</v>
       </c>
       <c r="C18" t="n">
         <v>1949.79547507638</v>
@@ -948,10 +948,10 @@
         <v>1710.71620936223</v>
       </c>
       <c r="E18" t="n">
-        <v>3400.4610591474</v>
+        <v>3283.71825276073</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.34328472222</v>
+        <v>3411.45727795734</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>189.776708155317</v>
+        <v>161.374456492201</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2346.52028976479</v>
+        <v>2383.26365335335</v>
       </c>
       <c r="C19" t="n">
         <v>1625.94413108705</v>
@@ -980,10 +980,10 @@
         <v>1381.7072973625</v>
       </c>
       <c r="E19" t="n">
-        <v>2976.22456071007</v>
+        <v>3091.21960907202</v>
       </c>
       <c r="F19" t="n">
-        <v>3064.64296638977</v>
+        <v>3134.1555930335</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>80.520289764791</v>
+        <v>117.263653353347</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2266.85616158152</v>
+        <v>2324.08903156803</v>
       </c>
       <c r="C20" t="n">
         <v>1652.52589758054</v>
@@ -1012,7 +1012,7 @@
         <v>1403.23817906801</v>
       </c>
       <c r="E20" t="n">
-        <v>2788.59731888565</v>
+        <v>2824.35466582489</v>
       </c>
       <c r="F20" t="n">
         <v>3076.70690839687</v>
@@ -1024,7 +1024,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>126.85616158152</v>
+        <v>184.089031568027</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2252.2244347175</v>
+        <v>2277.39202187009</v>
       </c>
       <c r="C21" t="n">
         <v>1661.60572536473</v>
@@ -1056,7 +1056,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>143.224434717498</v>
+        <v>168.392021870088</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2072.06088892078</v>
+        <v>2057.85275140661</v>
       </c>
       <c r="C22" t="n">
         <v>1386.06673025111</v>
@@ -1076,7 +1076,7 @@
         <v>1103.14820029984</v>
       </c>
       <c r="E22" t="n">
-        <v>2541.09880293632</v>
+        <v>2529.32646183503</v>
       </c>
       <c r="F22" t="n">
         <v>2810.66302521311</v>
@@ -1088,7 +1088,7 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>39.0608889207824</v>
+        <v>24.85275140661</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1865.65977621643</v>
+        <v>1884.30308505986</v>
       </c>
       <c r="C23" t="n">
         <v>1213.91124407118</v>
@@ -1120,7 +1120,7 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>19.6597762164324</v>
+        <v>38.3030850598575</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1967.34780222212</v>
+        <v>1972.89220287654</v>
       </c>
       <c r="C24" t="n">
         <v>1434.67903069169</v>
@@ -1152,7 +1152,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-87.6521977778827</v>
+        <v>-82.1077971234599</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2067.61984251266</v>
+        <v>2053.45234469096</v>
       </c>
       <c r="C25" t="n">
         <v>1456.22526462817</v>
@@ -1184,7 +1184,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-301.380157487338</v>
+        <v>-315.547655309038</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2417.18894520112</v>
+        <v>2336.40454164163</v>
       </c>
       <c r="C26" t="n">
         <v>1782.8628673287</v>
@@ -1216,7 +1216,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-112.811054798879</v>
+        <v>-193.595458358374</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2421.21480682265</v>
+        <v>2341.16605878448</v>
       </c>
       <c r="C27" t="n">
         <v>1623.85930325603</v>
@@ -1248,7 +1248,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-21.7851931773457</v>
+        <v>-101.833941215521</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3140.20070899561</v>
+        <v>3143.76075649491</v>
       </c>
       <c r="C28" t="n">
         <v>2574.20138899116</v>
@@ -1280,7 +1280,7 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>9.20070899560596</v>
+        <v>12.7607564949062</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2927.83892243914</v>
+        <v>2909.65862203893</v>
       </c>
       <c r="C29" t="n">
         <v>2164.45414392355</v>
@@ -1312,7 +1312,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>402.838922439144</v>
+        <v>384.658622038927</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2710.12886898584</v>
+        <v>2679.62185735878</v>
       </c>
       <c r="C30" t="n">
         <v>1843.83249649127</v>
@@ -1332,10 +1332,10 @@
         <v>1499.87471884951</v>
       </c>
       <c r="E30" t="n">
-        <v>3548.81153324065</v>
+        <v>3437.28428133711</v>
       </c>
       <c r="F30" t="n">
-        <v>3620.12306932956</v>
+        <v>3593.10969167383</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>207.128868985844</v>
+        <v>176.621857358783</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2378.4943935106</v>
+        <v>2399.15018215248</v>
       </c>
       <c r="C31" t="n">
         <v>1521.97792708445</v>
@@ -1364,10 +1364,10 @@
         <v>1183.90265702296</v>
       </c>
       <c r="E31" t="n">
-        <v>3203.40250485526</v>
+        <v>3210.5494749312</v>
       </c>
       <c r="F31" t="n">
-        <v>3293.94426677737</v>
+        <v>3271.29311576699</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-32.505606489397</v>
+        <v>-11.8498178475247</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2274.36386836738</v>
+        <v>2366.01362377732</v>
       </c>
       <c r="C32" t="n">
         <v>1550.28782413263</v>
@@ -1396,7 +1396,7 @@
         <v>1210.96074424427</v>
       </c>
       <c r="E32" t="n">
-        <v>2912.3765558275</v>
+        <v>3013.70687895017</v>
       </c>
       <c r="F32" t="n">
         <v>3268.46357704298</v>
@@ -1408,7 +1408,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>49.3638683673812</v>
+        <v>141.013623777319</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2250.32686678829</v>
+        <v>2311.77177227984</v>
       </c>
       <c r="C33" t="n">
         <v>1549.03743878369</v>
@@ -1440,10 +1440,10 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>-4.67313321170786</v>
+        <v>56.7717722798388</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2078.8492756593</v>
+        <v>2075.92542041862</v>
       </c>
       <c r="C34" t="n">
         <v>1270.61212162443</v>
@@ -1472,7 +1472,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>132.849275659302</v>
+        <v>129.925420418615</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1874.45506516399</v>
+        <v>1918.71614290046</v>
       </c>
       <c r="C35" t="n">
         <v>1095.57269499521</v>
@@ -1504,7 +1504,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>191.455065163986</v>
+        <v>235.716142900459</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1992.74500252106</v>
+        <v>1974.37118751203</v>
       </c>
       <c r="C36" t="n">
         <v>1318.81651411255</v>
@@ -1536,7 +1536,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>260.745002521064</v>
+        <v>242.371187512026</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2063.9820277177</v>
+        <v>2032.86084639748</v>
       </c>
       <c r="C37" t="n">
         <v>1338.80662894613</v>
@@ -1568,7 +1568,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>876.982027717699</v>
+        <v>845.860846397482</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2347.7745351009</v>
+        <v>2323.33466038916</v>
       </c>
       <c r="C38" t="n">
         <v>1645.34393971249</v>
@@ -1600,7 +1600,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1203.7745351009</v>
+        <v>1179.33466038916</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2354.87507389634</v>
+        <v>2302.98648168276</v>
       </c>
       <c r="C39" t="n">
         <v>1486.11401111166</v>
@@ -1632,7 +1632,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>147.875073896342</v>
+        <v>95.9864816827649</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3138.6090983689</v>
+        <v>3126.80638441235</v>
       </c>
       <c r="C40" t="n">
         <v>2405.26410121057</v>
@@ -1664,7 +1664,7 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>21.6090983689037</v>
+        <v>9.80638441235169</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2854.38915476181</v>
+        <v>2843.49094008233</v>
       </c>
       <c r="C41" t="n">
         <v>1971.63522254429</v>
@@ -1696,7 +1696,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-151.610845238194</v>
+        <v>-162.509059917674</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2734.95412617465</v>
+        <v>2675.93553511813</v>
       </c>
       <c r="C42" t="n">
         <v>1649.24414445909</v>
@@ -1716,10 +1716,10 @@
         <v>1212.63032751826</v>
       </c>
       <c r="E42" t="n">
-        <v>3703.4737000813</v>
+        <v>3509.52109098807</v>
       </c>
       <c r="F42" t="n">
-        <v>3801.35351668372</v>
+        <v>3749.24575340589</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-87.0458738253524</v>
+        <v>-146.064464881867</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2427.55252882938</v>
+        <v>2436.00068497384</v>
       </c>
       <c r="C43" t="n">
         <v>1337.62907551692</v>
@@ -1748,10 +1748,10 @@
         <v>893.966327251034</v>
       </c>
       <c r="E43" t="n">
-        <v>3352.68669947086</v>
+        <v>3458.00189766241</v>
       </c>
       <c r="F43" t="n">
-        <v>3457.48958695427</v>
+        <v>3539.78449059481</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-101.447471170621</v>
+        <v>-92.9993150261594</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2329.97234375505</v>
+        <v>2440.2800471682</v>
       </c>
       <c r="C44" t="n">
         <v>1368.94888135808</v>
@@ -1780,7 +1780,7 @@
         <v>918.347457421205</v>
       </c>
       <c r="E44" t="n">
-        <v>3071.36158523516</v>
+        <v>3168.26724230141</v>
       </c>
       <c r="F44" t="n">
         <v>3521.96300917203</v>
@@ -1792,7 +1792,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-290.027656244953</v>
+        <v>-179.719952831797</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2246.64939597867</v>
+        <v>2325.80239845561</v>
       </c>
       <c r="C45" t="n">
         <v>1367.68751238602</v>
@@ -1824,7 +1824,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-371.350604021331</v>
+        <v>-292.197601544387</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>2058.36887244485</v>
+        <v>2098.3578318662</v>
       </c>
       <c r="C46" t="n">
         <v>1081.92151510189</v>
@@ -1856,7 +1856,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-491.631127555154</v>
+        <v>-451.642168133802</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1877.60568999119</v>
+        <v>1928.59886789504</v>
       </c>
       <c r="C47" t="n">
         <v>896.641655395377</v>
@@ -1888,7 +1888,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-665.394310008814</v>
+        <v>-614.401132104957</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>2005.78786826061</v>
+        <v>2010.23669528578</v>
       </c>
       <c r="C48" t="n">
         <v>1121.84715679139</v>
@@ -1920,7 +1920,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-745.212131739387</v>
+        <v>-740.763304714219</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2019.24015798748</v>
+        <v>2002.43449261634</v>
       </c>
       <c r="C49" t="n">
         <v>1132.11414754105</v>
@@ -1952,7 +1952,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-648.759842012524</v>
+        <v>-665.565507383665</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Hepatitis E.xlsx
+++ b/outcome/appendix/forecast/Hepatitis E.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2368.21762734204</v>
+        <v>2360.49508353872</v>
       </c>
       <c r="C2" t="n">
-        <v>2092.67073250141</v>
+        <v>2069.81608400988</v>
       </c>
       <c r="D2" t="n">
-        <v>1931.21099620892</v>
+        <v>1915.72887354009</v>
       </c>
       <c r="E2" t="n">
-        <v>2702.68013688243</v>
+        <v>2698.57067930623</v>
       </c>
       <c r="F2" t="n">
-        <v>2864.13987317492</v>
+        <v>2863.05621523334</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>742.217627342037</v>
+        <v>734.495083538722</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2336.5482952521</v>
+        <v>2388.6234249205</v>
       </c>
       <c r="C3" t="n">
-        <v>1972.65524679747</v>
+        <v>1898.80573504816</v>
       </c>
       <c r="D3" t="n">
-        <v>1807.29692258877</v>
+        <v>1736.77226910575</v>
       </c>
       <c r="E3" t="n">
-        <v>2668.90605665627</v>
+        <v>2785.24285411384</v>
       </c>
       <c r="F3" t="n">
-        <v>2849.23107063193</v>
+        <v>2842.37577983023</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1291.5482952521</v>
+        <v>1343.6234249205</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3207.8142596256</v>
+        <v>3175.7221930949</v>
       </c>
       <c r="C4" t="n">
-        <v>2848.12675525047</v>
+        <v>2864.62654708032</v>
       </c>
       <c r="D4" t="n">
-        <v>2617.69890368062</v>
+        <v>2683.70772955674</v>
       </c>
       <c r="E4" t="n">
-        <v>3718.70390170567</v>
+        <v>3609.54540196867</v>
       </c>
       <c r="F4" t="n">
-        <v>3949.13175327551</v>
+        <v>3807.80033182138</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1566.8142596256</v>
+        <v>1534.7221930949</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2896.54459329175</v>
+        <v>2877.34986961615</v>
       </c>
       <c r="C5" t="n">
-        <v>2480.75761103751</v>
+        <v>2469.15893727208</v>
       </c>
       <c r="D5" t="n">
-        <v>2262.09225504128</v>
+        <v>2283.29332943847</v>
       </c>
       <c r="E5" t="n">
-        <v>3307.93184266879</v>
+        <v>3245.10923087099</v>
       </c>
       <c r="F5" t="n">
-        <v>3526.81419987515</v>
+        <v>3449.57043252574</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1164.54459329175</v>
+        <v>1145.34986961615</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2592.40664413885</v>
+        <v>2597.37245959793</v>
       </c>
       <c r="C6" t="n">
-        <v>2089.6139643587</v>
+        <v>2091.20256643864</v>
       </c>
       <c r="D6" t="n">
-        <v>1924.55013593521</v>
+        <v>1933.77533026582</v>
       </c>
       <c r="E6" t="n">
-        <v>2971.13497959111</v>
+        <v>3027.84203543649</v>
       </c>
       <c r="F6" t="n">
-        <v>3181.78860470656</v>
+        <v>3161.6046838146</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1007.40664413885</v>
+        <v>1012.37245959793</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2278.87062738263</v>
+        <v>2302.37296668747</v>
       </c>
       <c r="C7" t="n">
-        <v>1761.55378011194</v>
+        <v>1774.62555930224</v>
       </c>
       <c r="D7" t="n">
-        <v>1589.10435823062</v>
+        <v>1615.47479646563</v>
       </c>
       <c r="E7" t="n">
-        <v>2651.11271612996</v>
+        <v>2781.6232248689</v>
       </c>
       <c r="F7" t="n">
-        <v>2827.53569070833</v>
+        <v>2847.89966836922</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>570.870627382628</v>
+        <v>594.372966687468</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2312.26115529802</v>
+        <v>2336.60326890603</v>
       </c>
       <c r="C8" t="n">
-        <v>1784.29864013751</v>
+        <v>1797.57559027587</v>
       </c>
       <c r="D8" t="n">
-        <v>1604.76719787576</v>
+        <v>1631.4387665512</v>
       </c>
       <c r="E8" t="n">
-        <v>2713.26487790539</v>
+        <v>2816.08227137564</v>
       </c>
       <c r="F8" t="n">
-        <v>2854.53680235356</v>
+        <v>2877.57964442996</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>553.261155298023</v>
+        <v>577.603268906029</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2261.69631969865</v>
+        <v>2286.27018727353</v>
       </c>
       <c r="C9" t="n">
-        <v>1789.86011713188</v>
+        <v>1784.07136300567</v>
       </c>
       <c r="D9" t="n">
-        <v>1596.38313245587</v>
+        <v>1572.14047229465</v>
       </c>
       <c r="E9" t="n">
-        <v>2673.6683330509</v>
+        <v>2668.69519059208</v>
       </c>
       <c r="F9" t="n">
-        <v>2876.51952135173</v>
+        <v>2876.22187486997</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>502.696319698655</v>
+        <v>527.270187273535</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2023.44931937047</v>
+        <v>2041.11487855649</v>
       </c>
       <c r="C10" t="n">
-        <v>1531.74947334365</v>
+        <v>1485.01333771013</v>
       </c>
       <c r="D10" t="n">
-        <v>1325.95072913061</v>
+        <v>1273.79837332286</v>
       </c>
       <c r="E10" t="n">
-        <v>2407.26181816771</v>
+        <v>2455.21743410569</v>
       </c>
       <c r="F10" t="n">
-        <v>2613.62845044283</v>
+        <v>2599.81374849421</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>212.449319370465</v>
+        <v>230.114878556495</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1843.88959653763</v>
+        <v>1881.07937298488</v>
       </c>
       <c r="C11" t="n">
-        <v>1364.39386169921</v>
+        <v>1309.87954245619</v>
       </c>
       <c r="D11" t="n">
-        <v>1160.78672927908</v>
+        <v>1097.39945707988</v>
       </c>
       <c r="E11" t="n">
-        <v>2241.0483264298</v>
+        <v>2344.02799361072</v>
       </c>
       <c r="F11" t="n">
-        <v>2450.87151208396</v>
+        <v>2429.22461669365</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>337.889596537626</v>
+        <v>375.079372984882</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1980.93531202516</v>
+        <v>2001.92285531327</v>
       </c>
       <c r="C12" t="n">
-        <v>1579.53111299129</v>
+        <v>1520.53678202122</v>
       </c>
       <c r="D12" t="n">
-        <v>1362.77216700903</v>
+        <v>1294.65683649019</v>
       </c>
       <c r="E12" t="n">
-        <v>2485.04007718502</v>
+        <v>2471.37419294353</v>
       </c>
       <c r="F12" t="n">
-        <v>2698.26378965552</v>
+        <v>2687.06782628031</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>341.935312025159</v>
+        <v>362.922855313271</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2055.94399441911</v>
+        <v>2042.57003003354</v>
       </c>
       <c r="C13" t="n">
-        <v>1596.77428920028</v>
+        <v>1520.75854291321</v>
       </c>
       <c r="D13" t="n">
-        <v>1358.53275516409</v>
+        <v>1274.22737588739</v>
       </c>
       <c r="E13" t="n">
-        <v>2533.35364339824</v>
+        <v>2522.21250847608</v>
       </c>
       <c r="F13" t="n">
-        <v>2744.76607687248</v>
+        <v>2798.88190114027</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>237.943994419107</v>
+        <v>224.570030033537</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2383.70990055491</v>
+        <v>2421.29807290254</v>
       </c>
       <c r="C14" t="n">
-        <v>1914.43103099402</v>
+        <v>1850.19905729362</v>
       </c>
       <c r="D14" t="n">
-        <v>1659.2584558052</v>
+        <v>1587.2071790582</v>
       </c>
       <c r="E14" t="n">
-        <v>2894.97600574439</v>
+        <v>2906.92030850223</v>
       </c>
       <c r="F14" t="n">
-        <v>3133.66854385451</v>
+        <v>3201.12131214256</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>545.709900554909</v>
+        <v>583.298072902544</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2369.45036570567</v>
+        <v>2369.94051687556</v>
       </c>
       <c r="C15" t="n">
-        <v>1768.52726544701</v>
+        <v>1691.32586313986</v>
       </c>
       <c r="D15" t="n">
-        <v>1499.97939880097</v>
+        <v>1427.24967986289</v>
       </c>
       <c r="E15" t="n">
-        <v>2791.07340771096</v>
+        <v>2785.02425391867</v>
       </c>
       <c r="F15" t="n">
-        <v>3051.6731237793</v>
+        <v>3056.65482997381</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>520.450365705673</v>
+        <v>520.940516875556</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3122.40673975883</v>
+        <v>3137.60080675476</v>
       </c>
       <c r="C16" t="n">
-        <v>2631.9546352947</v>
+        <v>2646.37858090725</v>
       </c>
       <c r="D16" t="n">
-        <v>2384.98025229264</v>
+        <v>2356.84411180562</v>
       </c>
       <c r="E16" t="n">
-        <v>3870.87044883112</v>
+        <v>3828.03840281131</v>
       </c>
       <c r="F16" t="n">
-        <v>4181.85040466349</v>
+        <v>4152.32200827506</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>131.406739758833</v>
+        <v>146.600806754764</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2938.56424009533</v>
+        <v>2928.68125774732</v>
       </c>
       <c r="C17" t="n">
-        <v>2329.24592105384</v>
+        <v>2291.29284255078</v>
       </c>
       <c r="D17" t="n">
-        <v>2030.04324651397</v>
+        <v>1997.8433759324</v>
       </c>
       <c r="E17" t="n">
-        <v>3459.66053386259</v>
+        <v>3463.61951289034</v>
       </c>
       <c r="F17" t="n">
-        <v>3758.86320840246</v>
+        <v>3788.72147515193</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>141.564240095332</v>
+        <v>131.681257747324</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2670.3744564922</v>
+        <v>2658.40989405181</v>
       </c>
       <c r="C18" t="n">
-        <v>1949.79547507638</v>
+        <v>1956.12924199764</v>
       </c>
       <c r="D18" t="n">
-        <v>1710.71620936223</v>
+        <v>1697.79979774635</v>
       </c>
       <c r="E18" t="n">
-        <v>3283.71825276073</v>
+        <v>3349.74987683038</v>
       </c>
       <c r="F18" t="n">
-        <v>3411.45727795734</v>
+        <v>3484.86981402032</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>161.374456492201</v>
+        <v>149.409894051814</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2383.26365335335</v>
+        <v>2330.16770858632</v>
       </c>
       <c r="C19" t="n">
-        <v>1625.94413108705</v>
+        <v>1647.86883845053</v>
       </c>
       <c r="D19" t="n">
-        <v>1381.7072973625</v>
+        <v>1382.46520906064</v>
       </c>
       <c r="E19" t="n">
-        <v>3091.21960907202</v>
+        <v>2979.72849848402</v>
       </c>
       <c r="F19" t="n">
-        <v>3134.1555930335</v>
+        <v>3155.65342957391</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>117.263653353347</v>
+        <v>64.1677085863157</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2324.08903156803</v>
+        <v>2323.24441930916</v>
       </c>
       <c r="C20" t="n">
-        <v>1652.52589758054</v>
+        <v>1661.07634421893</v>
       </c>
       <c r="D20" t="n">
-        <v>1403.23817906801</v>
+        <v>1370.30828396673</v>
       </c>
       <c r="E20" t="n">
-        <v>2824.35466582489</v>
+        <v>2858.79983276756</v>
       </c>
       <c r="F20" t="n">
-        <v>3076.70690839687</v>
+        <v>3177.45798666045</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>184.089031568027</v>
+        <v>183.244419309162</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2277.39202187009</v>
+        <v>2307.48957167446</v>
       </c>
       <c r="C21" t="n">
-        <v>1661.60572536473</v>
+        <v>1613.37549812159</v>
       </c>
       <c r="D21" t="n">
-        <v>1375.29816382442</v>
+        <v>1319.21039908642</v>
       </c>
       <c r="E21" t="n">
-        <v>2793.37843163598</v>
+        <v>2814.60788073667</v>
       </c>
       <c r="F21" t="n">
-        <v>3069.95313016384</v>
+        <v>3152.5276046583</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>168.392021870088</v>
+        <v>198.489571674462</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2057.85275140661</v>
+        <v>2104.85776030096</v>
       </c>
       <c r="C22" t="n">
-        <v>1386.06673025111</v>
+        <v>1324.53596280045</v>
       </c>
       <c r="D22" t="n">
-        <v>1103.14820029984</v>
+        <v>1037.59271199634</v>
       </c>
       <c r="E22" t="n">
-        <v>2529.32646183503</v>
+        <v>2755.16774234195</v>
       </c>
       <c r="F22" t="n">
-        <v>2810.66302521311</v>
+        <v>2848.95891007872</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>24.85275140661</v>
+        <v>71.8577603009617</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1884.30308505986</v>
+        <v>1912.67044731751</v>
       </c>
       <c r="C23" t="n">
-        <v>1213.91124407118</v>
+        <v>1157.04841858191</v>
       </c>
       <c r="D23" t="n">
-        <v>930.643425817936</v>
+        <v>873.740058233357</v>
       </c>
       <c r="E23" t="n">
-        <v>2365.42902102599</v>
+        <v>2490.36810977481</v>
       </c>
       <c r="F23" t="n">
-        <v>2651.44818108515</v>
+        <v>2680.71182265508</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>38.3030850598575</v>
+        <v>66.6704473175087</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1972.89220287654</v>
+        <v>1976.01849994089</v>
       </c>
       <c r="C24" t="n">
-        <v>1434.67903069169</v>
+        <v>1366.42955163461</v>
       </c>
       <c r="D24" t="n">
-        <v>1141.24002423318</v>
+        <v>1068.0506960145</v>
       </c>
       <c r="E24" t="n">
-        <v>2611.70015624608</v>
+        <v>2602.24958219037</v>
       </c>
       <c r="F24" t="n">
-        <v>2902.32647637007</v>
+        <v>2952.8056219999</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-82.1077971234599</v>
+        <v>-78.9815000591054</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2053.45234469096</v>
+        <v>2079.4719369973</v>
       </c>
       <c r="C25" t="n">
-        <v>1456.22526462817</v>
+        <v>1376.4984500667</v>
       </c>
       <c r="D25" t="n">
-        <v>1143.58157127902</v>
+        <v>1062.6953490746</v>
       </c>
       <c r="E25" t="n">
-        <v>2649.96873207989</v>
+        <v>2681.06162368986</v>
       </c>
       <c r="F25" t="n">
-        <v>2950.06494864779</v>
+        <v>3051.88980880727</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-315.547655309038</v>
+        <v>-289.528063002702</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2336.40454164163</v>
+        <v>2336.66154224266</v>
       </c>
       <c r="C26" t="n">
-        <v>1782.8628673287</v>
+        <v>1702.85663697936</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.0423134126</v>
+        <v>1369.81653992158</v>
       </c>
       <c r="E26" t="n">
-        <v>3022.7094785671</v>
+        <v>3069.98131138509</v>
       </c>
       <c r="F26" t="n">
-        <v>3337.52941755012</v>
+        <v>3455.78502852514</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-193.595458358374</v>
+        <v>-193.338457757345</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2341.16605878448</v>
+        <v>2361.10101005286</v>
       </c>
       <c r="C27" t="n">
-        <v>1623.85930325603</v>
+        <v>1549.17869206392</v>
       </c>
       <c r="D27" t="n">
-        <v>1278.72884343169</v>
+        <v>1218.31315880164</v>
       </c>
       <c r="E27" t="n">
-        <v>2927.79321932424</v>
+        <v>2916.99572163565</v>
       </c>
       <c r="F27" t="n">
-        <v>3272.92367914858</v>
+        <v>3304.58357637223</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-101.833941215521</v>
+        <v>-81.8989899471439</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3143.76075649491</v>
+        <v>3105.35122857636</v>
       </c>
       <c r="C28" t="n">
-        <v>2574.20138899116</v>
+        <v>2500.05854268895</v>
       </c>
       <c r="D28" t="n">
-        <v>2198.76620775587</v>
+        <v>2129.20774282641</v>
       </c>
       <c r="E28" t="n">
-        <v>3992.62926796498</v>
+        <v>3993.92304843105</v>
       </c>
       <c r="F28" t="n">
-        <v>4368.06444920027</v>
+        <v>4410.52875619261</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,10 +1280,10 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>12.7607564949062</v>
+        <v>-25.6487714236418</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2909.65862203893</v>
+        <v>2919.77044558658</v>
       </c>
       <c r="C29" t="n">
-        <v>2164.45414392355</v>
+        <v>2124.1897906021</v>
       </c>
       <c r="D29" t="n">
-        <v>1826.72430239158</v>
+        <v>1781.34057397067</v>
       </c>
       <c r="E29" t="n">
-        <v>3580.16001318352</v>
+        <v>3623.64943516914</v>
       </c>
       <c r="F29" t="n">
-        <v>3943.15125889888</v>
+        <v>4038.24092322865</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>384.658622038927</v>
+        <v>394.770445586578</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2679.62185735878</v>
+        <v>2683.25706271401</v>
       </c>
       <c r="C30" t="n">
-        <v>1843.83249649127</v>
+        <v>1826.45994328058</v>
       </c>
       <c r="D30" t="n">
-        <v>1499.87471884951</v>
+        <v>1491.70014190969</v>
       </c>
       <c r="E30" t="n">
-        <v>3437.28428133711</v>
+        <v>3513.47367653759</v>
       </c>
       <c r="F30" t="n">
-        <v>3593.10969167383</v>
+        <v>3726.50171959944</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>176.621857358783</v>
+        <v>180.257062714015</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2399.15018215248</v>
+        <v>2386.06396698502</v>
       </c>
       <c r="C31" t="n">
-        <v>1521.97792708445</v>
+        <v>1535.38285428305</v>
       </c>
       <c r="D31" t="n">
-        <v>1183.90265702296</v>
+        <v>1187.92953718914</v>
       </c>
       <c r="E31" t="n">
-        <v>3210.5494749312</v>
+        <v>3256.62891876828</v>
       </c>
       <c r="F31" t="n">
-        <v>3271.29311576699</v>
+        <v>3405.77336402739</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-11.8498178475247</v>
+        <v>-24.9360330149784</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2366.01362377732</v>
+        <v>2332.64074188691</v>
       </c>
       <c r="C32" t="n">
-        <v>1550.28782413263</v>
+        <v>1530.37338296238</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.96074424427</v>
+        <v>1179.00491831281</v>
       </c>
       <c r="E32" t="n">
-        <v>3013.70687895017</v>
+        <v>3003.0114956541</v>
       </c>
       <c r="F32" t="n">
-        <v>3268.46357704298</v>
+        <v>3407.65097756946</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>141.013623777319</v>
+        <v>107.64074188691</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2311.77177227984</v>
+        <v>2341.79970753442</v>
       </c>
       <c r="C33" t="n">
-        <v>1549.03743878369</v>
+        <v>1485.31779691174</v>
       </c>
       <c r="D33" t="n">
-        <v>1198.97359305895</v>
+        <v>1132.13356224132</v>
       </c>
       <c r="E33" t="n">
-        <v>2935.19236664707</v>
+        <v>2959.17901197634</v>
       </c>
       <c r="F33" t="n">
-        <v>3297.1916395979</v>
+        <v>3379.00118606577</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>56.7717722798388</v>
+        <v>86.7997075344165</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2075.92542041862</v>
+        <v>2138.38991618228</v>
       </c>
       <c r="C34" t="n">
-        <v>1270.61212162443</v>
+        <v>1203.20639154835</v>
       </c>
       <c r="D34" t="n">
-        <v>915.673696081346</v>
+        <v>862.121287121317</v>
       </c>
       <c r="E34" t="n">
-        <v>2673.13403090063</v>
+        <v>2822.60250873388</v>
       </c>
       <c r="F34" t="n">
-        <v>3040.95053482028</v>
+        <v>3067.96465340143</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>129.925420418615</v>
+        <v>192.389916182281</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1918.71614290046</v>
+        <v>1898.32818230952</v>
       </c>
       <c r="C35" t="n">
-        <v>1095.57269499521</v>
+        <v>1040.61009755375</v>
       </c>
       <c r="D35" t="n">
-        <v>726.38607155842</v>
+        <v>706.79398874373</v>
       </c>
       <c r="E35" t="n">
-        <v>2511.2088528842</v>
+        <v>2575.7911691185</v>
       </c>
       <c r="F35" t="n">
-        <v>2884.75200634086</v>
+        <v>2894.2099287285</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>235.716142900459</v>
+        <v>215.328182309519</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1974.37118751203</v>
+        <v>2005.79966623401</v>
       </c>
       <c r="C36" t="n">
-        <v>1318.81651411255</v>
+        <v>1247.59800613051</v>
       </c>
       <c r="D36" t="n">
-        <v>947.659363226106</v>
+        <v>896.193129582535</v>
       </c>
       <c r="E36" t="n">
-        <v>2759.43139442267</v>
+        <v>2757.27247328053</v>
       </c>
       <c r="F36" t="n">
-        <v>3138.61472004956</v>
+        <v>3167.30981281902</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>242.371187512026</v>
+        <v>273.79966623401</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2032.86084639748</v>
+        <v>2043.41719851267</v>
       </c>
       <c r="C37" t="n">
-        <v>1338.80662894613</v>
+        <v>1262.31968404026</v>
       </c>
       <c r="D37" t="n">
-        <v>954.065611460741</v>
+        <v>897.926838108719</v>
       </c>
       <c r="E37" t="n">
-        <v>2792.39279418092</v>
+        <v>2812.78184085657</v>
       </c>
       <c r="F37" t="n">
-        <v>3177.13381166631</v>
+        <v>3258.84923928445</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>845.860846397482</v>
+        <v>856.417198512667</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2323.33466038916</v>
+        <v>2282.87620882314</v>
       </c>
       <c r="C38" t="n">
-        <v>1645.34393971249</v>
+        <v>1585.10616716504</v>
       </c>
       <c r="D38" t="n">
-        <v>1241.38341801674</v>
+        <v>1198.21894598515</v>
       </c>
       <c r="E38" t="n">
-        <v>3171.54312033469</v>
+        <v>3203.53051479661</v>
       </c>
       <c r="F38" t="n">
-        <v>3575.50364203044</v>
+        <v>3665.13198347321</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1179.33466038916</v>
+        <v>1138.87620882314</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2302.98648168276</v>
+        <v>2312.56989694435</v>
       </c>
       <c r="C39" t="n">
-        <v>1486.11401111166</v>
+        <v>1434.9855194456</v>
       </c>
       <c r="D39" t="n">
-        <v>1071.36517388912</v>
+        <v>1052.74305968618</v>
       </c>
       <c r="E39" t="n">
-        <v>3053.07241802702</v>
+        <v>3054.58964088352</v>
       </c>
       <c r="F39" t="n">
-        <v>3467.82125524956</v>
+        <v>3509.71177423911</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>95.9864816827649</v>
+        <v>105.569896944346</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3126.80638441235</v>
+        <v>3095.39645900392</v>
       </c>
       <c r="C40" t="n">
-        <v>2405.26410121057</v>
+        <v>2322.50423205131</v>
       </c>
       <c r="D40" t="n">
-        <v>1983.10109118607</v>
+        <v>1900.18278044552</v>
       </c>
       <c r="E40" t="n">
-        <v>4097.75786708232</v>
+        <v>4131.14147556411</v>
       </c>
       <c r="F40" t="n">
-        <v>4528.84476702351</v>
+        <v>4624.77058055256</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,10 +1664,10 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>9.80638441235169</v>
+        <v>-21.6035409960796</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2843.49094008233</v>
+        <v>2837.60245278001</v>
       </c>
       <c r="C41" t="n">
-        <v>1971.63522254429</v>
+        <v>1922.94091515846</v>
       </c>
       <c r="D41" t="n">
-        <v>1542.18602172032</v>
+        <v>1510.12093224867</v>
       </c>
       <c r="E41" t="n">
-        <v>3683.88533230545</v>
+        <v>3756.8162127821</v>
       </c>
       <c r="F41" t="n">
-        <v>4101.78544516941</v>
+        <v>4246.53761578553</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-162.509059917674</v>
+        <v>-168.397547219995</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2675.93553511813</v>
+        <v>2710.93339879067</v>
       </c>
       <c r="C42" t="n">
-        <v>1649.24414445909</v>
+        <v>1629.54594366023</v>
       </c>
       <c r="D42" t="n">
-        <v>1212.63032751826</v>
+        <v>1224.52201229203</v>
       </c>
       <c r="E42" t="n">
-        <v>3509.52109098807</v>
+        <v>3639.29124535882</v>
       </c>
       <c r="F42" t="n">
-        <v>3749.24575340589</v>
+        <v>3929.37594884486</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-146.064464881867</v>
+        <v>-111.066601209327</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2436.00068497384</v>
+        <v>2447.57689113232</v>
       </c>
       <c r="C43" t="n">
-        <v>1337.62907551692</v>
+        <v>1345.97286550332</v>
       </c>
       <c r="D43" t="n">
-        <v>893.966327251034</v>
+        <v>951.371490483535</v>
       </c>
       <c r="E43" t="n">
-        <v>3458.00189766241</v>
+        <v>3537.74220450238</v>
       </c>
       <c r="F43" t="n">
-        <v>3539.78449059481</v>
+        <v>3693.99808987638</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-92.9993150261594</v>
+        <v>-81.4231088676761</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2440.2800471682</v>
+        <v>2376.74447186353</v>
       </c>
       <c r="C44" t="n">
-        <v>1368.94888135808</v>
+        <v>1375.71465839011</v>
       </c>
       <c r="D44" t="n">
-        <v>918.347457421205</v>
+        <v>972.998786058635</v>
       </c>
       <c r="E44" t="n">
-        <v>3168.26724230141</v>
+        <v>3228.26777957995</v>
       </c>
       <c r="F44" t="n">
-        <v>3521.96300917203</v>
+        <v>3602.87483107324</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-179.719952831797</v>
+        <v>-243.255528136473</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2325.80239845561</v>
+        <v>2350.87571436121</v>
       </c>
       <c r="C45" t="n">
-        <v>1367.68751238602</v>
+        <v>1373.08374987367</v>
       </c>
       <c r="D45" t="n">
-        <v>910.252651111829</v>
+        <v>964.457688641741</v>
       </c>
       <c r="E45" t="n">
-        <v>3095.91755707966</v>
+        <v>3117.62602230206</v>
       </c>
       <c r="F45" t="n">
-        <v>3553.35241835385</v>
+        <v>3620.34680189281</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-292.197601544387</v>
+        <v>-267.124285638786</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>2098.3578318662</v>
+        <v>2121.87665456284</v>
       </c>
       <c r="C46" t="n">
-        <v>1081.92151510189</v>
+        <v>1102.50130970243</v>
       </c>
       <c r="D46" t="n">
-        <v>617.753806871503</v>
+        <v>719.054038854274</v>
       </c>
       <c r="E46" t="n">
-        <v>2835.58886110573</v>
+        <v>2849.3456849504</v>
       </c>
       <c r="F46" t="n">
-        <v>3299.75656933611</v>
+        <v>3341.39707978544</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-451.642168133802</v>
+        <v>-428.123345437157</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1928.59886789504</v>
+        <v>1950.35027131147</v>
       </c>
       <c r="C47" t="n">
-        <v>896.641655395377</v>
+        <v>943.771617343281</v>
       </c>
       <c r="D47" t="n">
-        <v>425.837375021176</v>
+        <v>564.861887701913</v>
       </c>
       <c r="E47" t="n">
-        <v>2675.38256780989</v>
+        <v>2716.87911472057</v>
       </c>
       <c r="F47" t="n">
-        <v>3146.18684818409</v>
+        <v>3172.42984970352</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-614.401132104957</v>
+        <v>-592.649728688534</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>2010.23669528578</v>
+        <v>2061.67242275054</v>
       </c>
       <c r="C48" t="n">
-        <v>1121.84715679139</v>
+        <v>1147.9824543246</v>
       </c>
       <c r="D48" t="n">
-        <v>644.498563545234</v>
+        <v>738.732053586462</v>
       </c>
       <c r="E48" t="n">
-        <v>2925.31307179027</v>
+        <v>2934.11904659274</v>
       </c>
       <c r="F48" t="n">
-        <v>3402.66166503642</v>
+        <v>3453.96473760456</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-740.763304714219</v>
+        <v>-689.327577249462</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2002.43449261634</v>
+        <v>2013.36496879549</v>
       </c>
       <c r="C49" t="n">
-        <v>1132.11414754105</v>
+        <v>1149.49359229052</v>
       </c>
       <c r="D49" t="n">
-        <v>648.309551716819</v>
+        <v>734.678599701154</v>
       </c>
       <c r="E49" t="n">
-        <v>2959.97142089199</v>
+        <v>2962.86005804856</v>
       </c>
       <c r="F49" t="n">
-        <v>3443.77601671622</v>
+        <v>3490.9938858147</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-665.565507383665</v>
+        <v>-654.635031204509</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Hepatitis E.xlsx
+++ b/outcome/appendix/forecast/Hepatitis E.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2360.49508353872</v>
+        <v>2346.40878504279</v>
       </c>
       <c r="C2" t="n">
         <v>2069.81608400988</v>
@@ -448,7 +448,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>734.495083538722</v>
+        <v>720.408785042791</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2388.6234249205</v>
+        <v>2400.75778646692</v>
       </c>
       <c r="C3" t="n">
         <v>1898.80573504816</v>
@@ -468,10 +468,10 @@
         <v>1736.77226910575</v>
       </c>
       <c r="E3" t="n">
-        <v>2785.24285411384</v>
+        <v>2829.25273460528</v>
       </c>
       <c r="F3" t="n">
-        <v>2842.37577983023</v>
+        <v>2897.28062906556</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1343.6234249205</v>
+        <v>1355.75778646692</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,13 +491,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3175.7221930949</v>
+        <v>3138.85685091543</v>
       </c>
       <c r="C4" t="n">
-        <v>2864.62654708032</v>
+        <v>2718.40458887208</v>
       </c>
       <c r="D4" t="n">
-        <v>2683.70772955674</v>
+        <v>2663.18234379038</v>
       </c>
       <c r="E4" t="n">
         <v>3609.54540196867</v>
@@ -512,7 +512,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1534.7221930949</v>
+        <v>1497.85685091543</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2877.34986961615</v>
+        <v>2881.341484753</v>
       </c>
       <c r="C5" t="n">
         <v>2469.15893727208</v>
@@ -544,7 +544,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1145.34986961615</v>
+        <v>1149.341484753</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2597.37245959793</v>
+        <v>2649.30178225022</v>
       </c>
       <c r="C6" t="n">
         <v>2091.20256643864</v>
@@ -564,10 +564,10 @@
         <v>1933.77533026582</v>
       </c>
       <c r="E6" t="n">
-        <v>3027.84203543649</v>
+        <v>3249.93436438178</v>
       </c>
       <c r="F6" t="n">
-        <v>3161.6046838146</v>
+        <v>3323.50362037389</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1012.37245959793</v>
+        <v>1064.30178225022</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2302.37296668747</v>
+        <v>2327.28870202933</v>
       </c>
       <c r="C7" t="n">
         <v>1774.62555930224</v>
@@ -596,10 +596,10 @@
         <v>1615.47479646563</v>
       </c>
       <c r="E7" t="n">
-        <v>2781.6232248689</v>
+        <v>2889.39631271759</v>
       </c>
       <c r="F7" t="n">
-        <v>2847.89966836922</v>
+        <v>2954.0912336607</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>594.372966687468</v>
+        <v>619.288702029327</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2336.60326890603</v>
+        <v>2302.58120064145</v>
       </c>
       <c r="C8" t="n">
         <v>1797.57559027587</v>
@@ -628,7 +628,7 @@
         <v>1631.4387665512</v>
       </c>
       <c r="E8" t="n">
-        <v>2816.08227137564</v>
+        <v>2722.33943175664</v>
       </c>
       <c r="F8" t="n">
         <v>2877.57964442996</v>
@@ -640,7 +640,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>577.603268906029</v>
+        <v>543.581200641448</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2286.27018727353</v>
+        <v>2222.55518081642</v>
       </c>
       <c r="C9" t="n">
         <v>1784.07136300567</v>
@@ -672,7 +672,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>527.270187273535</v>
+        <v>463.555180816419</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2041.11487855649</v>
+        <v>2016.26489154487</v>
       </c>
       <c r="C10" t="n">
         <v>1485.01333771013</v>
@@ -692,7 +692,7 @@
         <v>1273.79837332286</v>
       </c>
       <c r="E10" t="n">
-        <v>2455.21743410569</v>
+        <v>2392.75737756933</v>
       </c>
       <c r="F10" t="n">
         <v>2599.81374849421</v>
@@ -704,7 +704,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>230.114878556495</v>
+        <v>205.264891544875</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1881.07937298488</v>
+        <v>1871.19257390304</v>
       </c>
       <c r="C11" t="n">
         <v>1309.87954245619</v>
@@ -724,10 +724,10 @@
         <v>1097.39945707988</v>
       </c>
       <c r="E11" t="n">
-        <v>2344.02799361072</v>
+        <v>2331.93088812384</v>
       </c>
       <c r="F11" t="n">
-        <v>2429.22461669365</v>
+        <v>2429.69643840649</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>375.079372984882</v>
+        <v>365.192573903043</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2001.92285531327</v>
+        <v>2015.190722223</v>
       </c>
       <c r="C12" t="n">
         <v>1520.53678202122</v>
@@ -768,7 +768,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>362.922855313271</v>
+        <v>376.190722222995</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2042.57003003354</v>
+        <v>2075.83297062333</v>
       </c>
       <c r="C13" t="n">
         <v>1520.75854291321</v>
@@ -800,7 +800,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>224.570030033537</v>
+        <v>257.832970623331</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2421.29807290254</v>
+        <v>2389.67705559816</v>
       </c>
       <c r="C14" t="n">
         <v>1850.19905729362</v>
@@ -832,7 +832,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>583.298072902544</v>
+        <v>551.677055598162</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2369.94051687556</v>
+        <v>2361.64536187006</v>
       </c>
       <c r="C15" t="n">
         <v>1691.32586313986</v>
@@ -852,7 +852,7 @@
         <v>1427.24967986289</v>
       </c>
       <c r="E15" t="n">
-        <v>2785.02425391867</v>
+        <v>2786.69089640547</v>
       </c>
       <c r="F15" t="n">
         <v>3056.65482997381</v>
@@ -864,7 +864,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>520.940516875556</v>
+        <v>512.645361870057</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,10 +875,10 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3137.60080675476</v>
+        <v>3148.78437886839</v>
       </c>
       <c r="C16" t="n">
-        <v>2646.37858090725</v>
+        <v>2652.98639909881</v>
       </c>
       <c r="D16" t="n">
         <v>2356.84411180562</v>
@@ -896,7 +896,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>146.600806754764</v>
+        <v>157.784378868385</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2928.68125774732</v>
+        <v>2906.0138419562</v>
       </c>
       <c r="C17" t="n">
         <v>2291.29284255078</v>
@@ -928,7 +928,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>131.681257747324</v>
+        <v>109.013841956204</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2658.40989405181</v>
+        <v>2666.22159296237</v>
       </c>
       <c r="C18" t="n">
         <v>1956.12924199764</v>
@@ -948,10 +948,10 @@
         <v>1697.79979774635</v>
       </c>
       <c r="E18" t="n">
-        <v>3349.74987683038</v>
+        <v>3428.89483589381</v>
       </c>
       <c r="F18" t="n">
-        <v>3484.86981402032</v>
+        <v>3573.84763082156</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>149.409894051814</v>
+        <v>157.221592962368</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2330.16770858632</v>
+        <v>2324.24807184893</v>
       </c>
       <c r="C19" t="n">
         <v>1647.86883845053</v>
@@ -980,7 +980,7 @@
         <v>1382.46520906064</v>
       </c>
       <c r="E19" t="n">
-        <v>2979.72849848402</v>
+        <v>3046.32491575947</v>
       </c>
       <c r="F19" t="n">
         <v>3155.65342957391</v>
@@ -992,7 +992,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>64.1677085863157</v>
+        <v>58.2480718489305</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2323.24441930916</v>
+        <v>2264.67661855708</v>
       </c>
       <c r="C20" t="n">
         <v>1661.07634421893</v>
@@ -1012,7 +1012,7 @@
         <v>1370.30828396673</v>
       </c>
       <c r="E20" t="n">
-        <v>2858.79983276756</v>
+        <v>2845.00177189122</v>
       </c>
       <c r="F20" t="n">
         <v>3177.45798666045</v>
@@ -1024,7 +1024,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>183.244419309162</v>
+        <v>124.67661855708</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2307.48957167446</v>
+        <v>2221.20305737806</v>
       </c>
       <c r="C21" t="n">
         <v>1613.37549812159</v>
@@ -1056,7 +1056,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>198.489571674462</v>
+        <v>112.203057378063</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2104.85776030096</v>
+        <v>2030.6399247087</v>
       </c>
       <c r="C22" t="n">
         <v>1324.53596280045</v>
@@ -1076,7 +1076,7 @@
         <v>1037.59271199634</v>
       </c>
       <c r="E22" t="n">
-        <v>2755.16774234195</v>
+        <v>2517.79344491355</v>
       </c>
       <c r="F22" t="n">
         <v>2848.95891007872</v>
@@ -1088,10 +1088,10 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>71.8577603009617</v>
+        <v>-2.36007529129984</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1912.67044731751</v>
+        <v>1860.09802320476</v>
       </c>
       <c r="C23" t="n">
         <v>1157.04841858191</v>
@@ -1108,7 +1108,7 @@
         <v>873.740058233357</v>
       </c>
       <c r="E23" t="n">
-        <v>2490.36810977481</v>
+        <v>2421.54065682899</v>
       </c>
       <c r="F23" t="n">
         <v>2680.71182265508</v>
@@ -1120,7 +1120,7 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>66.6704473175087</v>
+        <v>14.0980232047643</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1976.01849994089</v>
+        <v>1997.81282533988</v>
       </c>
       <c r="C24" t="n">
         <v>1366.42955163461</v>
@@ -1152,7 +1152,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-78.9815000591054</v>
+        <v>-57.1871746601205</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2079.4719369973</v>
+        <v>2063.89123044105</v>
       </c>
       <c r="C25" t="n">
         <v>1376.4984500667</v>
@@ -1184,7 +1184,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-289.528063002702</v>
+        <v>-305.108769558955</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2336.66154224266</v>
+        <v>2343.41996948268</v>
       </c>
       <c r="C26" t="n">
         <v>1702.85663697936</v>
@@ -1216,7 +1216,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-193.338457757345</v>
+        <v>-186.580030517322</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2361.10101005286</v>
+        <v>2348.34922144009</v>
       </c>
       <c r="C27" t="n">
         <v>1549.17869206392</v>
@@ -1248,7 +1248,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-81.8989899471439</v>
+        <v>-94.6507785599074</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3105.35122857636</v>
+        <v>3130.05353126023</v>
       </c>
       <c r="C28" t="n">
         <v>2500.05854268895</v>
@@ -1280,7 +1280,7 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>-25.6487714236418</v>
+        <v>-0.946468739773536</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2919.77044558658</v>
+        <v>2846.6108036025</v>
       </c>
       <c r="C29" t="n">
         <v>2124.1897906021</v>
@@ -1312,7 +1312,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>394.770445586578</v>
+        <v>321.610803602498</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2683.25706271401</v>
+        <v>2648.04254453022</v>
       </c>
       <c r="C30" t="n">
         <v>1826.45994328058</v>
@@ -1332,7 +1332,7 @@
         <v>1491.70014190969</v>
       </c>
       <c r="E30" t="n">
-        <v>3513.47367653759</v>
+        <v>3492.2239995886</v>
       </c>
       <c r="F30" t="n">
         <v>3726.50171959944</v>
@@ -1344,7 +1344,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>180.257062714015</v>
+        <v>145.042544530215</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2386.06396698502</v>
+        <v>2324.0682939393</v>
       </c>
       <c r="C31" t="n">
         <v>1535.38285428305</v>
@@ -1364,10 +1364,10 @@
         <v>1187.92953718914</v>
       </c>
       <c r="E31" t="n">
-        <v>3256.62891876828</v>
+        <v>3148.88499812821</v>
       </c>
       <c r="F31" t="n">
-        <v>3405.77336402739</v>
+        <v>3389.08110561058</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-24.9360330149784</v>
+        <v>-86.9317060606954</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2332.64074188691</v>
+        <v>2267.92272831003</v>
       </c>
       <c r="C32" t="n">
         <v>1530.37338296238</v>
@@ -1396,7 +1396,7 @@
         <v>1179.00491831281</v>
       </c>
       <c r="E32" t="n">
-        <v>3003.0114956541</v>
+        <v>2992.02527913244</v>
       </c>
       <c r="F32" t="n">
         <v>3407.65097756946</v>
@@ -1408,7 +1408,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>107.64074188691</v>
+        <v>42.9227283100317</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2341.79970753442</v>
+        <v>2210.91810875177</v>
       </c>
       <c r="C33" t="n">
         <v>1485.31779691174</v>
@@ -1440,10 +1440,10 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>86.7997075344165</v>
+        <v>-44.0818912482277</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2138.38991618228</v>
+        <v>2024.93520330599</v>
       </c>
       <c r="C34" t="n">
         <v>1203.20639154835</v>
@@ -1460,7 +1460,7 @@
         <v>862.121287121317</v>
       </c>
       <c r="E34" t="n">
-        <v>2822.60250873388</v>
+        <v>2667.61070061229</v>
       </c>
       <c r="F34" t="n">
         <v>3067.96465340143</v>
@@ -1472,7 +1472,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>192.389916182281</v>
+        <v>78.935203305987</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1898.32818230952</v>
+        <v>1851.96358867609</v>
       </c>
       <c r="C35" t="n">
         <v>1040.61009755375</v>
@@ -1492,7 +1492,7 @@
         <v>706.79398874373</v>
       </c>
       <c r="E35" t="n">
-        <v>2575.7911691185</v>
+        <v>2543.02866662998</v>
       </c>
       <c r="F35" t="n">
         <v>2894.2099287285</v>
@@ -1504,7 +1504,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>215.328182309519</v>
+        <v>168.963588676091</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2005.79966623401</v>
+        <v>1991.0840382738</v>
       </c>
       <c r="C36" t="n">
         <v>1247.59800613051</v>
@@ -1536,7 +1536,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>273.79966623401</v>
+        <v>259.084038273801</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2043.41719851267</v>
+        <v>2063.55746616843</v>
       </c>
       <c r="C37" t="n">
         <v>1262.31968404026</v>
@@ -1568,7 +1568,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>856.417198512667</v>
+        <v>876.557466168433</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2282.87620882314</v>
+        <v>2335.52925052468</v>
       </c>
       <c r="C38" t="n">
         <v>1585.10616716504</v>
@@ -1600,7 +1600,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1138.87620882314</v>
+        <v>1191.52925052468</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2312.56989694435</v>
+        <v>2341.6021231147</v>
       </c>
       <c r="C39" t="n">
         <v>1434.9855194456</v>
@@ -1632,7 +1632,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>105.569896944346</v>
+        <v>134.602123114698</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3095.39645900392</v>
+        <v>3113.805777147</v>
       </c>
       <c r="C40" t="n">
         <v>2322.50423205131</v>
@@ -1664,7 +1664,7 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>-21.6035409960796</v>
+        <v>-3.19422285299697</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2837.60245278001</v>
+        <v>2785.774798113</v>
       </c>
       <c r="C41" t="n">
         <v>1922.94091515846</v>
@@ -1696,7 +1696,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-168.397547219995</v>
+        <v>-220.225201886999</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2710.93339879067</v>
+        <v>2647.27003401601</v>
       </c>
       <c r="C42" t="n">
         <v>1629.54594366023</v>
@@ -1716,7 +1716,7 @@
         <v>1224.52201229203</v>
       </c>
       <c r="E42" t="n">
-        <v>3639.29124535882</v>
+        <v>3533.69907081747</v>
       </c>
       <c r="F42" t="n">
         <v>3929.37594884486</v>
@@ -1728,7 +1728,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-111.066601209327</v>
+        <v>-174.729965983986</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2447.57689113232</v>
+        <v>2349.39707636976</v>
       </c>
       <c r="C43" t="n">
         <v>1345.97286550332</v>
@@ -1748,10 +1748,10 @@
         <v>951.371490483535</v>
       </c>
       <c r="E43" t="n">
-        <v>3537.74220450238</v>
+        <v>3214.32682497725</v>
       </c>
       <c r="F43" t="n">
-        <v>3693.99808987638</v>
+        <v>3586.17671211366</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-81.4231088676761</v>
+        <v>-179.602923630235</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2376.74447186353</v>
+        <v>2291.57406178142</v>
       </c>
       <c r="C44" t="n">
         <v>1375.71465839011</v>
@@ -1780,7 +1780,7 @@
         <v>972.998786058635</v>
       </c>
       <c r="E44" t="n">
-        <v>3228.26777957995</v>
+        <v>3116.29658531482</v>
       </c>
       <c r="F44" t="n">
         <v>3602.87483107324</v>
@@ -1792,7 +1792,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-243.255528136473</v>
+        <v>-328.425938218582</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2350.87571436121</v>
+        <v>2235.80773941187</v>
       </c>
       <c r="C45" t="n">
         <v>1373.08374987367</v>
@@ -1824,7 +1824,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-267.124285638786</v>
+        <v>-382.19226058813</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>2121.87665456284</v>
+        <v>2037.51955367242</v>
       </c>
       <c r="C46" t="n">
         <v>1102.50130970243</v>
@@ -1844,7 +1844,7 @@
         <v>719.054038854274</v>
       </c>
       <c r="E46" t="n">
-        <v>2849.3456849504</v>
+        <v>2839.56785315</v>
       </c>
       <c r="F46" t="n">
         <v>3341.39707978544</v>
@@ -1856,7 +1856,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-428.123345437157</v>
+        <v>-512.480446327582</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1950.35027131147</v>
+        <v>1870.06255572892</v>
       </c>
       <c r="C47" t="n">
         <v>943.771617343281</v>
@@ -1876,7 +1876,7 @@
         <v>564.861887701913</v>
       </c>
       <c r="E47" t="n">
-        <v>2716.87911472057</v>
+        <v>2668.79728504788</v>
       </c>
       <c r="F47" t="n">
         <v>3172.42984970352</v>
@@ -1888,7 +1888,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-592.649728688534</v>
+        <v>-672.937444271078</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>2061.67242275054</v>
+        <v>2009.24878033999</v>
       </c>
       <c r="C48" t="n">
         <v>1147.9824543246</v>
@@ -1920,7 +1920,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-689.327577249462</v>
+        <v>-741.751219660012</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2013.36496879549</v>
+        <v>2048.75578049957</v>
       </c>
       <c r="C49" t="n">
         <v>1149.49359229052</v>
@@ -1952,7 +1952,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-654.635031204509</v>
+        <v>-619.244219500432</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Hepatitis E.xlsx
+++ b/outcome/appendix/forecast/Hepatitis E.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2346.40878504279</v>
+        <v>2378.06569508192</v>
       </c>
       <c r="C2" t="n">
         <v>2069.81608400988</v>
@@ -448,7 +448,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>720.408785042791</v>
+        <v>752.065695081923</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2400.75778646692</v>
+        <v>2343.66497734949</v>
       </c>
       <c r="C3" t="n">
         <v>1898.80573504816</v>
@@ -468,10 +468,10 @@
         <v>1736.77226910575</v>
       </c>
       <c r="E3" t="n">
-        <v>2829.25273460528</v>
+        <v>2649.05235760662</v>
       </c>
       <c r="F3" t="n">
-        <v>2897.28062906556</v>
+        <v>2831.65681407097</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1355.75778646692</v>
+        <v>1298.66497734949</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,13 +491,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3138.85685091543</v>
+        <v>3103.1995245717</v>
       </c>
       <c r="C4" t="n">
-        <v>2718.40458887208</v>
+        <v>2579.09699842962</v>
       </c>
       <c r="D4" t="n">
-        <v>2663.18234379038</v>
+        <v>2518.22373248302</v>
       </c>
       <c r="E4" t="n">
         <v>3609.54540196867</v>
@@ -512,7 +512,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1497.85685091543</v>
+        <v>1462.1995245717</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2881.341484753</v>
+        <v>2907.35067905523</v>
       </c>
       <c r="C5" t="n">
         <v>2469.15893727208</v>
@@ -532,7 +532,7 @@
         <v>2283.29332943847</v>
       </c>
       <c r="E5" t="n">
-        <v>3245.10923087099</v>
+        <v>3294.83628293049</v>
       </c>
       <c r="F5" t="n">
         <v>3449.57043252574</v>
@@ -544,7 +544,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1149.341484753</v>
+        <v>1175.35067905523</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2649.30178225022</v>
+        <v>2630.29632699167</v>
       </c>
       <c r="C6" t="n">
         <v>2091.20256643864</v>
@@ -564,10 +564,10 @@
         <v>1933.77533026582</v>
       </c>
       <c r="E6" t="n">
-        <v>3249.93436438178</v>
+        <v>3168.26125267739</v>
       </c>
       <c r="F6" t="n">
-        <v>3323.50362037389</v>
+        <v>3238.77355413596</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1064.30178225022</v>
+        <v>1045.29632699167</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2327.28870202933</v>
+        <v>2269.50489783241</v>
       </c>
       <c r="C7" t="n">
         <v>1774.62555930224</v>
@@ -596,10 +596,10 @@
         <v>1615.47479646563</v>
       </c>
       <c r="E7" t="n">
-        <v>2889.39631271759</v>
+        <v>2664.1207550185</v>
       </c>
       <c r="F7" t="n">
-        <v>2954.0912336607</v>
+        <v>2847.89966836922</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>619.288702029327</v>
+        <v>561.504897832414</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2302.58120064145</v>
+        <v>2300.54913248253</v>
       </c>
       <c r="C8" t="n">
         <v>1797.57559027587</v>
@@ -628,7 +628,7 @@
         <v>1631.4387665512</v>
       </c>
       <c r="E8" t="n">
-        <v>2722.33943175664</v>
+        <v>2740.24638034679</v>
       </c>
       <c r="F8" t="n">
         <v>2877.57964442996</v>
@@ -640,7 +640,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>543.581200641448</v>
+        <v>541.549132482534</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2222.55518081642</v>
+        <v>2271.11056592564</v>
       </c>
       <c r="C9" t="n">
         <v>1784.07136300567</v>
@@ -672,7 +672,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>463.555180816419</v>
+        <v>512.110565925638</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2016.26489154487</v>
+        <v>2022.94335389799</v>
       </c>
       <c r="C10" t="n">
         <v>1485.01333771013</v>
@@ -692,7 +692,7 @@
         <v>1273.79837332286</v>
       </c>
       <c r="E10" t="n">
-        <v>2392.75737756933</v>
+        <v>2399.62059869856</v>
       </c>
       <c r="F10" t="n">
         <v>2599.81374849421</v>
@@ -704,7 +704,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>205.264891544875</v>
+        <v>211.943353897987</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1871.19257390304</v>
+        <v>1867.69979525656</v>
       </c>
       <c r="C11" t="n">
         <v>1309.87954245619</v>
@@ -724,10 +724,10 @@
         <v>1097.39945707988</v>
       </c>
       <c r="E11" t="n">
-        <v>2331.93088812384</v>
+        <v>2304.32527005159</v>
       </c>
       <c r="F11" t="n">
-        <v>2429.69643840649</v>
+        <v>2429.22461669365</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>365.192573903043</v>
+        <v>361.699795256563</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2015.190722223</v>
+        <v>1999.15755542445</v>
       </c>
       <c r="C12" t="n">
         <v>1520.53678202122</v>
@@ -768,7 +768,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>376.190722222995</v>
+        <v>360.157555424453</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2075.83297062333</v>
+        <v>2046.9955825325</v>
       </c>
       <c r="C13" t="n">
         <v>1520.75854291321</v>
@@ -800,7 +800,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>257.832970623331</v>
+        <v>228.9955825325</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2389.67705559816</v>
+        <v>2341.43493210799</v>
       </c>
       <c r="C14" t="n">
         <v>1850.19905729362</v>
@@ -832,7 +832,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>551.677055598162</v>
+        <v>503.434932107989</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2361.64536187006</v>
+        <v>2336.87402497217</v>
       </c>
       <c r="C15" t="n">
         <v>1691.32586313986</v>
@@ -852,7 +852,7 @@
         <v>1427.24967986289</v>
       </c>
       <c r="E15" t="n">
-        <v>2786.69089640547</v>
+        <v>2785.02425391867</v>
       </c>
       <c r="F15" t="n">
         <v>3056.65482997381</v>
@@ -864,7 +864,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>512.645361870057</v>
+        <v>487.874024972174</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,13 +875,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3148.78437886839</v>
+        <v>3062.72866790939</v>
       </c>
       <c r="C16" t="n">
-        <v>2652.98639909881</v>
+        <v>2434.583887596</v>
       </c>
       <c r="D16" t="n">
-        <v>2356.84411180562</v>
+        <v>2316.1680831505</v>
       </c>
       <c r="E16" t="n">
         <v>3828.03840281131</v>
@@ -896,7 +896,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>157.784378868385</v>
+        <v>71.7286679093918</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2906.0138419562</v>
+        <v>2904.28289574168</v>
       </c>
       <c r="C17" t="n">
         <v>2291.29284255078</v>
@@ -916,7 +916,7 @@
         <v>1997.8433759324</v>
       </c>
       <c r="E17" t="n">
-        <v>3463.61951289034</v>
+        <v>3484.54786297648</v>
       </c>
       <c r="F17" t="n">
         <v>3788.72147515193</v>
@@ -928,7 +928,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>109.013841956204</v>
+        <v>107.282895741678</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2666.22159296237</v>
+        <v>2693.09625824875</v>
       </c>
       <c r="C18" t="n">
         <v>1956.12924199764</v>
@@ -948,10 +948,10 @@
         <v>1697.79979774635</v>
       </c>
       <c r="E18" t="n">
-        <v>3428.89483589381</v>
+        <v>3469.11058030745</v>
       </c>
       <c r="F18" t="n">
-        <v>3573.84763082156</v>
+        <v>3567.55666215005</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>157.221592962368</v>
+        <v>184.09625824875</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2324.24807184893</v>
+        <v>2305.04720534821</v>
       </c>
       <c r="C19" t="n">
         <v>1647.86883845053</v>
@@ -980,10 +980,10 @@
         <v>1382.46520906064</v>
       </c>
       <c r="E19" t="n">
-        <v>3046.32491575947</v>
+        <v>3017.94659653821</v>
       </c>
       <c r="F19" t="n">
-        <v>3155.65342957391</v>
+        <v>3162.40986262943</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>58.2480718489305</v>
+        <v>39.0472053482094</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2264.67661855708</v>
+        <v>2295.17546947856</v>
       </c>
       <c r="C20" t="n">
         <v>1661.07634421893</v>
@@ -1024,7 +1024,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>124.67661855708</v>
+        <v>155.17546947856</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2221.20305737806</v>
+        <v>2258.72918208457</v>
       </c>
       <c r="C21" t="n">
         <v>1613.37549812159</v>
@@ -1056,7 +1056,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>112.203057378063</v>
+        <v>149.729182084568</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2030.6399247087</v>
+        <v>2036.64981118202</v>
       </c>
       <c r="C22" t="n">
         <v>1324.53596280045</v>
@@ -1076,7 +1076,7 @@
         <v>1037.59271199634</v>
       </c>
       <c r="E22" t="n">
-        <v>2517.79344491355</v>
+        <v>2544.32579195792</v>
       </c>
       <c r="F22" t="n">
         <v>2848.95891007872</v>
@@ -1088,10 +1088,10 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>-2.36007529129984</v>
+        <v>3.64981118201649</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1860.09802320476</v>
+        <v>1884.75774798013</v>
       </c>
       <c r="C23" t="n">
         <v>1157.04841858191</v>
@@ -1108,7 +1108,7 @@
         <v>873.740058233357</v>
       </c>
       <c r="E23" t="n">
-        <v>2421.54065682899</v>
+        <v>2389.13528390233</v>
       </c>
       <c r="F23" t="n">
         <v>2680.71182265508</v>
@@ -1120,7 +1120,7 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>14.0980232047643</v>
+        <v>38.7577479801294</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1997.81282533988</v>
+        <v>2002.25948934241</v>
       </c>
       <c r="C24" t="n">
         <v>1366.42955163461</v>
@@ -1152,7 +1152,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-57.1871746601205</v>
+        <v>-52.7405106575854</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2063.89123044105</v>
+        <v>2020.77160986269</v>
       </c>
       <c r="C25" t="n">
         <v>1376.4984500667</v>
@@ -1184,7 +1184,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-305.108769558955</v>
+        <v>-348.22839013731</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2343.41996948268</v>
+        <v>2291.62856058815</v>
       </c>
       <c r="C26" t="n">
         <v>1702.85663697936</v>
@@ -1216,7 +1216,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-186.580030517322</v>
+        <v>-238.37143941185</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2348.34922144009</v>
+        <v>2252.12702590127</v>
       </c>
       <c r="C27" t="n">
         <v>1549.17869206392</v>
@@ -1248,7 +1248,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-94.6507785599074</v>
+        <v>-190.872974098728</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3130.05353126023</v>
+        <v>3135.94356684826</v>
       </c>
       <c r="C28" t="n">
         <v>2500.05854268895</v>
@@ -1280,10 +1280,10 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.946468739773536</v>
+        <v>4.94356684825516</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2846.6108036025</v>
+        <v>2785.89074918777</v>
       </c>
       <c r="C29" t="n">
         <v>2124.1897906021</v>
@@ -1312,7 +1312,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>321.610803602498</v>
+        <v>260.890749187771</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2648.04254453022</v>
+        <v>2723.3634492245</v>
       </c>
       <c r="C30" t="n">
         <v>1826.45994328058</v>
@@ -1332,10 +1332,10 @@
         <v>1491.70014190969</v>
       </c>
       <c r="E30" t="n">
-        <v>3492.2239995886</v>
+        <v>3614.5359941938</v>
       </c>
       <c r="F30" t="n">
-        <v>3726.50171959944</v>
+        <v>3743.02424519787</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>145.042544530215</v>
+        <v>220.363449224496</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2324.0682939393</v>
+        <v>2408.58889218561</v>
       </c>
       <c r="C31" t="n">
         <v>1535.38285428305</v>
@@ -1364,10 +1364,10 @@
         <v>1187.92953718914</v>
       </c>
       <c r="E31" t="n">
-        <v>3148.88499812821</v>
+        <v>3354.52292458073</v>
       </c>
       <c r="F31" t="n">
-        <v>3389.08110561058</v>
+        <v>3513.55606574768</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-86.9317060606954</v>
+        <v>-2.41110781439056</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2267.92272831003</v>
+        <v>2353.78871191628</v>
       </c>
       <c r="C32" t="n">
         <v>1530.37338296238</v>
@@ -1408,7 +1408,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>42.9227283100317</v>
+        <v>128.788711916285</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2210.91810875177</v>
+        <v>2231.76644336784</v>
       </c>
       <c r="C33" t="n">
         <v>1485.31779691174</v>
@@ -1440,7 +1440,7 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>-44.0818912482277</v>
+        <v>-23.2335566321572</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2024.93520330599</v>
+        <v>2052.10171754545</v>
       </c>
       <c r="C34" t="n">
         <v>1203.20639154835</v>
@@ -1472,7 +1472,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>78.935203305987</v>
+        <v>106.101717545454</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1851.96358867609</v>
+        <v>1881.32265579249</v>
       </c>
       <c r="C35" t="n">
         <v>1040.61009755375</v>
@@ -1492,7 +1492,7 @@
         <v>706.79398874373</v>
       </c>
       <c r="E35" t="n">
-        <v>2543.02866662998</v>
+        <v>2497.10883653134</v>
       </c>
       <c r="F35" t="n">
         <v>2894.2099287285</v>
@@ -1504,7 +1504,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>168.963588676091</v>
+        <v>198.322655792489</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1991.0840382738</v>
+        <v>2022.801690009</v>
       </c>
       <c r="C36" t="n">
         <v>1247.59800613051</v>
@@ -1536,7 +1536,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>259.084038273801</v>
+        <v>290.801690009004</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2063.55746616843</v>
+        <v>2011.72801601862</v>
       </c>
       <c r="C37" t="n">
         <v>1262.31968404026</v>
@@ -1568,7 +1568,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>876.557466168433</v>
+        <v>824.728016018621</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2335.52925052468</v>
+        <v>2290.83141823981</v>
       </c>
       <c r="C38" t="n">
         <v>1585.10616716504</v>
@@ -1600,7 +1600,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1191.52925052468</v>
+        <v>1146.83141823981</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2341.6021231147</v>
+        <v>2261.25303197829</v>
       </c>
       <c r="C39" t="n">
         <v>1434.9855194456</v>
@@ -1632,7 +1632,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>134.602123114698</v>
+        <v>54.2530319782854</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3113.805777147</v>
+        <v>3081.48039804365</v>
       </c>
       <c r="C40" t="n">
         <v>2322.50423205131</v>
@@ -1664,7 +1664,7 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>-3.19422285299697</v>
+        <v>-35.5196019563487</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2785.774798113</v>
+        <v>2755.12858811495</v>
       </c>
       <c r="C41" t="n">
         <v>1922.94091515846</v>
@@ -1696,7 +1696,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-220.225201886999</v>
+        <v>-250.871411885052</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2647.27003401601</v>
+        <v>2732.88082350603</v>
       </c>
       <c r="C42" t="n">
         <v>1629.54594366023</v>
@@ -1716,7 +1716,7 @@
         <v>1224.52201229203</v>
       </c>
       <c r="E42" t="n">
-        <v>3533.69907081747</v>
+        <v>3702.32744057989</v>
       </c>
       <c r="F42" t="n">
         <v>3929.37594884486</v>
@@ -1728,7 +1728,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-174.729965983986</v>
+        <v>-89.1191764939731</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2349.39707636976</v>
+        <v>2465.55531490631</v>
       </c>
       <c r="C43" t="n">
         <v>1345.97286550332</v>
@@ -1748,10 +1748,10 @@
         <v>951.371490483535</v>
       </c>
       <c r="E43" t="n">
-        <v>3214.32682497725</v>
+        <v>3551.72043461691</v>
       </c>
       <c r="F43" t="n">
-        <v>3586.17671211366</v>
+        <v>3663.30260049759</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-179.602923630235</v>
+        <v>-63.4446850936879</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2291.57406178142</v>
+        <v>2365.27328394649</v>
       </c>
       <c r="C44" t="n">
         <v>1375.71465839011</v>
@@ -1780,7 +1780,7 @@
         <v>972.998786058635</v>
       </c>
       <c r="E44" t="n">
-        <v>3116.29658531482</v>
+        <v>3145.86398992096</v>
       </c>
       <c r="F44" t="n">
         <v>3602.87483107324</v>
@@ -1792,7 +1792,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-328.425938218582</v>
+        <v>-254.726716053514</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2235.80773941187</v>
+        <v>2263.27208721206</v>
       </c>
       <c r="C45" t="n">
         <v>1373.08374987367</v>
@@ -1824,7 +1824,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-382.19226058813</v>
+        <v>-354.727912787941</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>2037.51955367242</v>
+        <v>2051.0612074951</v>
       </c>
       <c r="C46" t="n">
         <v>1102.50130970243</v>
@@ -1856,7 +1856,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-512.480446327582</v>
+        <v>-498.9387925049</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1870.06255572892</v>
+        <v>1903.63196583301</v>
       </c>
       <c r="C47" t="n">
         <v>943.771617343281</v>
@@ -1888,7 +1888,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-672.937444271078</v>
+        <v>-639.368034166995</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>2009.24878033999</v>
+        <v>2036.33958993833</v>
       </c>
       <c r="C48" t="n">
         <v>1147.9824543246</v>
@@ -1920,7 +1920,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-741.751219660012</v>
+        <v>-714.660410061669</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2048.75578049957</v>
+        <v>2020.95736926911</v>
       </c>
       <c r="C49" t="n">
         <v>1149.49359229052</v>
@@ -1952,7 +1952,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-619.244219500432</v>
+        <v>-647.042630730891</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Hepatitis E.xlsx
+++ b/outcome/appendix/forecast/Hepatitis E.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2378.06569508192</v>
+        <v>2344.15042245488</v>
       </c>
       <c r="C2" t="n">
         <v>2069.81608400988</v>
@@ -448,7 +448,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>752.065695081923</v>
+        <v>718.150422454882</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2343.66497734949</v>
+        <v>2348.80824144073</v>
       </c>
       <c r="C3" t="n">
         <v>1898.80573504816</v>
@@ -480,7 +480,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1298.66497734949</v>
+        <v>1303.80824144073</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,13 +491,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3103.1995245717</v>
+        <v>3175.40579609195</v>
       </c>
       <c r="C4" t="n">
-        <v>2579.09699842962</v>
+        <v>2810.07144879092</v>
       </c>
       <c r="D4" t="n">
-        <v>2518.22373248302</v>
+        <v>2683.70772955674</v>
       </c>
       <c r="E4" t="n">
         <v>3609.54540196867</v>
@@ -512,7 +512,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1462.1995245717</v>
+        <v>1534.40579609195</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2907.35067905523</v>
+        <v>2900.21767204264</v>
       </c>
       <c r="C5" t="n">
         <v>2469.15893727208</v>
@@ -532,7 +532,7 @@
         <v>2283.29332943847</v>
       </c>
       <c r="E5" t="n">
-        <v>3294.83628293049</v>
+        <v>3255.79218136504</v>
       </c>
       <c r="F5" t="n">
         <v>3449.57043252574</v>
@@ -544,7 +544,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1175.35067905523</v>
+        <v>1168.21767204264</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2630.29632699167</v>
+        <v>2636.4844944893</v>
       </c>
       <c r="C6" t="n">
         <v>2091.20256643864</v>
@@ -564,10 +564,10 @@
         <v>1933.77533026582</v>
       </c>
       <c r="E6" t="n">
-        <v>3168.26125267739</v>
+        <v>3204.62507106042</v>
       </c>
       <c r="F6" t="n">
-        <v>3238.77355413596</v>
+        <v>3271.57008177342</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1045.29632699167</v>
+        <v>1051.4844944893</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2269.50489783241</v>
+        <v>2287.51867919566</v>
       </c>
       <c r="C7" t="n">
         <v>1774.62555930224</v>
@@ -596,10 +596,10 @@
         <v>1615.47479646563</v>
       </c>
       <c r="E7" t="n">
-        <v>2664.1207550185</v>
+        <v>2830.21100965837</v>
       </c>
       <c r="F7" t="n">
-        <v>2847.89966836922</v>
+        <v>2911.94874138571</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>561.504897832414</v>
+        <v>579.518679195656</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2300.54913248253</v>
+        <v>2274.69148866721</v>
       </c>
       <c r="C8" t="n">
         <v>1797.57559027587</v>
@@ -628,7 +628,7 @@
         <v>1631.4387665512</v>
       </c>
       <c r="E8" t="n">
-        <v>2740.24638034679</v>
+        <v>2670.66663029362</v>
       </c>
       <c r="F8" t="n">
         <v>2877.57964442996</v>
@@ -640,7 +640,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>541.549132482534</v>
+        <v>515.691488667212</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2271.11056592564</v>
+        <v>2226.92663071821</v>
       </c>
       <c r="C9" t="n">
         <v>1784.07136300567</v>
@@ -672,7 +672,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>512.110565925638</v>
+        <v>467.926630718206</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2022.94335389799</v>
+        <v>2021.78745861173</v>
       </c>
       <c r="C10" t="n">
         <v>1485.01333771013</v>
@@ -692,7 +692,7 @@
         <v>1273.79837332286</v>
       </c>
       <c r="E10" t="n">
-        <v>2399.62059869856</v>
+        <v>2422.84929210715</v>
       </c>
       <c r="F10" t="n">
         <v>2599.81374849421</v>
@@ -704,7 +704,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>211.943353897987</v>
+        <v>210.787458611729</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1867.69979525656</v>
+        <v>1851.70008956733</v>
       </c>
       <c r="C11" t="n">
         <v>1309.87954245619</v>
@@ -724,7 +724,7 @@
         <v>1097.39945707988</v>
       </c>
       <c r="E11" t="n">
-        <v>2304.32527005159</v>
+        <v>2264.13815101206</v>
       </c>
       <c r="F11" t="n">
         <v>2429.22461669365</v>
@@ -736,7 +736,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>361.699795256563</v>
+        <v>345.700089567333</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1999.15755542445</v>
+        <v>1988.60940389406</v>
       </c>
       <c r="C12" t="n">
         <v>1520.53678202122</v>
@@ -768,7 +768,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>360.157555424453</v>
+        <v>349.609403894064</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2046.9955825325</v>
+        <v>2033.740912065</v>
       </c>
       <c r="C13" t="n">
         <v>1520.75854291321</v>
@@ -800,7 +800,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>228.9955825325</v>
+        <v>215.740912065004</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2341.43493210799</v>
+        <v>2348.16429504077</v>
       </c>
       <c r="C14" t="n">
         <v>1850.19905729362</v>
@@ -832,7 +832,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>503.434932107989</v>
+        <v>510.16429504077</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2336.87402497217</v>
+        <v>2384.92046581058</v>
       </c>
       <c r="C15" t="n">
         <v>1691.32586313986</v>
@@ -852,7 +852,7 @@
         <v>1427.24967986289</v>
       </c>
       <c r="E15" t="n">
-        <v>2785.02425391867</v>
+        <v>2819.96447106481</v>
       </c>
       <c r="F15" t="n">
         <v>3056.65482997381</v>
@@ -864,7 +864,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>487.874024972174</v>
+        <v>535.920465810576</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,13 +875,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3062.72866790939</v>
+        <v>3133.56554617138</v>
       </c>
       <c r="C16" t="n">
-        <v>2434.583887596</v>
+        <v>2652.98639909881</v>
       </c>
       <c r="D16" t="n">
-        <v>2316.1680831505</v>
+        <v>2356.84411180562</v>
       </c>
       <c r="E16" t="n">
         <v>3828.03840281131</v>
@@ -896,7 +896,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>71.7286679093918</v>
+        <v>142.56554617138</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2904.28289574168</v>
+        <v>2896.675030112</v>
       </c>
       <c r="C17" t="n">
         <v>2291.29284255078</v>
@@ -916,7 +916,7 @@
         <v>1997.8433759324</v>
       </c>
       <c r="E17" t="n">
-        <v>3484.54786297648</v>
+        <v>3463.61951289034</v>
       </c>
       <c r="F17" t="n">
         <v>3788.72147515193</v>
@@ -928,7 +928,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>107.282895741678</v>
+        <v>99.6750301120019</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2693.09625824875</v>
+        <v>2678.07014788296</v>
       </c>
       <c r="C18" t="n">
         <v>1956.12924199764</v>
@@ -948,10 +948,10 @@
         <v>1697.79979774635</v>
       </c>
       <c r="E18" t="n">
-        <v>3469.11058030745</v>
+        <v>3519.89421079827</v>
       </c>
       <c r="F18" t="n">
-        <v>3567.55666215005</v>
+        <v>3640.78010235157</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>184.09625824875</v>
+        <v>169.070147882962</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2305.04720534821</v>
+        <v>2342.90585903729</v>
       </c>
       <c r="C19" t="n">
         <v>1647.86883845053</v>
@@ -980,10 +980,10 @@
         <v>1382.46520906064</v>
       </c>
       <c r="E19" t="n">
-        <v>3017.94659653821</v>
+        <v>3067.74678763933</v>
       </c>
       <c r="F19" t="n">
-        <v>3162.40986262943</v>
+        <v>3185.69699218325</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>39.0472053482094</v>
+        <v>76.9058590372938</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2295.17546947856</v>
+        <v>2269.62664883032</v>
       </c>
       <c r="C20" t="n">
         <v>1661.07634421893</v>
@@ -1024,7 +1024,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>155.17546947856</v>
+        <v>129.626648830322</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2258.72918208457</v>
+        <v>2221.9093314889</v>
       </c>
       <c r="C21" t="n">
         <v>1613.37549812159</v>
@@ -1056,7 +1056,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>149.729182084568</v>
+        <v>112.909331488897</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2036.64981118202</v>
+        <v>2038.30228074735</v>
       </c>
       <c r="C22" t="n">
         <v>1324.53596280045</v>
@@ -1076,7 +1076,7 @@
         <v>1037.59271199634</v>
       </c>
       <c r="E22" t="n">
-        <v>2544.32579195792</v>
+        <v>2517.79344491355</v>
       </c>
       <c r="F22" t="n">
         <v>2848.95891007872</v>
@@ -1088,7 +1088,7 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>3.64981118201649</v>
+        <v>5.30228074735214</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1884.75774798013</v>
+        <v>1880.5216941088</v>
       </c>
       <c r="C23" t="n">
         <v>1157.04841858191</v>
@@ -1108,7 +1108,7 @@
         <v>873.740058233357</v>
       </c>
       <c r="E23" t="n">
-        <v>2389.13528390233</v>
+        <v>2390.88097062713</v>
       </c>
       <c r="F23" t="n">
         <v>2680.71182265508</v>
@@ -1120,7 +1120,7 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>38.7577479801294</v>
+        <v>34.5216941087972</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2002.25948934241</v>
+        <v>1985.15063154715</v>
       </c>
       <c r="C24" t="n">
         <v>1366.42955163461</v>
@@ -1152,7 +1152,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-52.7405106575854</v>
+        <v>-69.8493684528512</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2020.77160986269</v>
+        <v>2034.62447243079</v>
       </c>
       <c r="C25" t="n">
         <v>1376.4984500667</v>
@@ -1184,7 +1184,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-348.22839013731</v>
+        <v>-334.375527569214</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2291.62856058815</v>
+        <v>2338.93096930352</v>
       </c>
       <c r="C26" t="n">
         <v>1702.85663697936</v>
@@ -1216,7 +1216,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-238.37143941185</v>
+        <v>-191.069030696483</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2252.12702590127</v>
+        <v>2359.91035425295</v>
       </c>
       <c r="C27" t="n">
         <v>1549.17869206392</v>
@@ -1248,7 +1248,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-190.872974098728</v>
+        <v>-83.0896457470471</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3135.94356684826</v>
+        <v>3111.54360096493</v>
       </c>
       <c r="C28" t="n">
         <v>2500.05854268895</v>
@@ -1280,10 +1280,10 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>4.94356684825516</v>
+        <v>-19.4563990350721</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2785.89074918777</v>
+        <v>2854.37614140524</v>
       </c>
       <c r="C29" t="n">
         <v>2124.1897906021</v>
@@ -1312,7 +1312,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>260.890749187771</v>
+        <v>329.376141405236</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2723.3634492245</v>
+        <v>2690.36191611943</v>
       </c>
       <c r="C30" t="n">
         <v>1826.45994328058</v>
@@ -1332,10 +1332,10 @@
         <v>1491.70014190969</v>
       </c>
       <c r="E30" t="n">
-        <v>3614.5359941938</v>
+        <v>3581.79281198108</v>
       </c>
       <c r="F30" t="n">
-        <v>3743.02424519787</v>
+        <v>3743.40702674165</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>220.363449224496</v>
+        <v>187.361916119434</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2408.58889218561</v>
+        <v>2347.13377038444</v>
       </c>
       <c r="C31" t="n">
         <v>1535.38285428305</v>
@@ -1364,10 +1364,10 @@
         <v>1187.92953718914</v>
       </c>
       <c r="E31" t="n">
-        <v>3354.52292458073</v>
+        <v>3196.27200269032</v>
       </c>
       <c r="F31" t="n">
-        <v>3513.55606574768</v>
+        <v>3389.08110561058</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.41110781439056</v>
+        <v>-63.8662296155617</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2353.78871191628</v>
+        <v>2262.52796510318</v>
       </c>
       <c r="C32" t="n">
         <v>1530.37338296238</v>
@@ -1408,7 +1408,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>128.788711916285</v>
+        <v>37.5279651031833</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2231.76644336784</v>
+        <v>2217.93969366209</v>
       </c>
       <c r="C33" t="n">
         <v>1485.31779691174</v>
@@ -1440,7 +1440,7 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>-23.2335566321572</v>
+        <v>-37.0603063379108</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2052.10171754545</v>
+        <v>2035.85957196909</v>
       </c>
       <c r="C34" t="n">
         <v>1203.20639154835</v>
@@ -1472,7 +1472,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>106.101717545454</v>
+        <v>89.8595719690913</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1881.32265579249</v>
+        <v>1883.55818589219</v>
       </c>
       <c r="C35" t="n">
         <v>1040.61009755375</v>
@@ -1504,7 +1504,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>198.322655792489</v>
+        <v>200.558185892185</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2022.801690009</v>
+        <v>1997.54606718142</v>
       </c>
       <c r="C36" t="n">
         <v>1247.59800613051</v>
@@ -1536,7 +1536,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>290.801690009004</v>
+        <v>265.546067181423</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2011.72801601862</v>
+        <v>2028.00574123567</v>
       </c>
       <c r="C37" t="n">
         <v>1262.31968404026</v>
@@ -1568,7 +1568,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>824.728016018621</v>
+        <v>841.00574123567</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2290.83141823981</v>
+        <v>2303.7974785629</v>
       </c>
       <c r="C38" t="n">
         <v>1585.10616716504</v>
@@ -1600,7 +1600,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1146.83141823981</v>
+        <v>1159.7974785629</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2261.25303197829</v>
+        <v>2308.23469197555</v>
       </c>
       <c r="C39" t="n">
         <v>1434.9855194456</v>
@@ -1632,7 +1632,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>54.2530319782854</v>
+        <v>101.234691975552</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3081.48039804365</v>
+        <v>3112.89519574638</v>
       </c>
       <c r="C40" t="n">
         <v>2322.50423205131</v>
@@ -1664,7 +1664,7 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>-35.5196019563487</v>
+        <v>-4.10480425361993</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2755.12858811495</v>
+        <v>2729.71292544244</v>
       </c>
       <c r="C41" t="n">
         <v>1922.94091515846</v>
@@ -1696,7 +1696,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-250.871411885052</v>
+        <v>-276.287074557561</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2732.88082350603</v>
+        <v>2683.24350305839</v>
       </c>
       <c r="C42" t="n">
         <v>1629.54594366023</v>
@@ -1716,7 +1716,7 @@
         <v>1224.52201229203</v>
       </c>
       <c r="E42" t="n">
-        <v>3702.32744057989</v>
+        <v>3590.0950725375</v>
       </c>
       <c r="F42" t="n">
         <v>3929.37594884486</v>
@@ -1728,7 +1728,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-89.1191764939731</v>
+        <v>-138.756496941607</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2465.55531490631</v>
+        <v>2380.80375662875</v>
       </c>
       <c r="C43" t="n">
         <v>1345.97286550332</v>
@@ -1748,10 +1748,10 @@
         <v>951.371490483535</v>
       </c>
       <c r="E43" t="n">
-        <v>3551.72043461691</v>
+        <v>3278.73215010997</v>
       </c>
       <c r="F43" t="n">
-        <v>3663.30260049759</v>
+        <v>3586.17671211366</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-63.4446850936879</v>
+        <v>-148.196243371245</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2365.27328394649</v>
+        <v>2314.90664545768</v>
       </c>
       <c r="C44" t="n">
         <v>1375.71465839011</v>
@@ -1780,7 +1780,7 @@
         <v>972.998786058635</v>
       </c>
       <c r="E44" t="n">
-        <v>3145.86398992096</v>
+        <v>3116.29658531482</v>
       </c>
       <c r="F44" t="n">
         <v>3602.87483107324</v>
@@ -1792,7 +1792,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-254.726716053514</v>
+        <v>-305.093354542317</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2263.27208721206</v>
+        <v>2234.43499678099</v>
       </c>
       <c r="C45" t="n">
         <v>1373.08374987367</v>
@@ -1824,7 +1824,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-354.727912787941</v>
+        <v>-383.565003219011</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>2051.0612074951</v>
+        <v>2034.3678621721</v>
       </c>
       <c r="C46" t="n">
         <v>1102.50130970243</v>
@@ -1856,7 +1856,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-498.9387925049</v>
+        <v>-515.632137827901</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1903.63196583301</v>
+        <v>1893.5748747454</v>
       </c>
       <c r="C47" t="n">
         <v>943.771617343281</v>
@@ -1888,7 +1888,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-639.368034166995</v>
+        <v>-649.425125254597</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>2036.33958993833</v>
+        <v>2029.61191138835</v>
       </c>
       <c r="C48" t="n">
         <v>1147.9824543246</v>
@@ -1920,7 +1920,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-714.660410061669</v>
+        <v>-721.388088611649</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2020.95736926911</v>
+        <v>1999.82605039338</v>
       </c>
       <c r="C49" t="n">
         <v>1149.49359229052</v>
@@ -1952,7 +1952,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-647.042630730891</v>
+        <v>-668.173949606621</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Hepatitis E.xlsx
+++ b/outcome/appendix/forecast/Hepatitis E.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2344.15042245488</v>
+        <v>2349.6514045312</v>
       </c>
       <c r="C2" t="n">
-        <v>2069.81608400988</v>
+        <v>2069.88675851099</v>
       </c>
       <c r="D2" t="n">
-        <v>1915.72887354009</v>
+        <v>1914.88840853299</v>
       </c>
       <c r="E2" t="n">
-        <v>2698.57067930623</v>
+        <v>2698.56963143283</v>
       </c>
       <c r="F2" t="n">
-        <v>2863.05621523334</v>
+        <v>2863.05522391619</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>718.150422454882</v>
+        <v>723.651404531198</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2348.80824144073</v>
+        <v>2342.29782221702</v>
       </c>
       <c r="C3" t="n">
-        <v>1898.80573504816</v>
+        <v>1906.36605202748</v>
       </c>
       <c r="D3" t="n">
-        <v>1736.77226910575</v>
+        <v>1743.10631485975</v>
       </c>
       <c r="E3" t="n">
-        <v>2649.05235760662</v>
+        <v>2649.05072644809</v>
       </c>
       <c r="F3" t="n">
-        <v>2831.65681407097</v>
+        <v>2831.655113162</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1303.80824144073</v>
+        <v>1297.29782221702</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3175.40579609195</v>
+        <v>3167.36039760306</v>
       </c>
       <c r="C4" t="n">
-        <v>2810.07144879092</v>
+        <v>2800.99497482535</v>
       </c>
       <c r="D4" t="n">
-        <v>2683.70772955674</v>
+        <v>2690.53636788546</v>
       </c>
       <c r="E4" t="n">
-        <v>3609.54540196867</v>
+        <v>3611.8069992663</v>
       </c>
       <c r="F4" t="n">
-        <v>3807.80033182138</v>
+        <v>3811.02665649019</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1534.40579609195</v>
+        <v>1526.36039760306</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2900.21767204264</v>
+        <v>2844.48632900023</v>
       </c>
       <c r="C5" t="n">
-        <v>2469.15893727208</v>
+        <v>2469.15851315377</v>
       </c>
       <c r="D5" t="n">
-        <v>2283.29332943847</v>
+        <v>2283.29357234449</v>
       </c>
       <c r="E5" t="n">
-        <v>3255.79218136504</v>
+        <v>3256.75628529261</v>
       </c>
       <c r="F5" t="n">
-        <v>3449.57043252574</v>
+        <v>3463.01122316449</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1168.21767204264</v>
+        <v>1112.48632900023</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2636.4844944893</v>
+        <v>2626.29416011078</v>
       </c>
       <c r="C6" t="n">
-        <v>2091.20256643864</v>
+        <v>2091.48131127291</v>
       </c>
       <c r="D6" t="n">
-        <v>1933.77533026582</v>
+        <v>1934.10276457935</v>
       </c>
       <c r="E6" t="n">
-        <v>3204.62507106042</v>
+        <v>3196.31822684135</v>
       </c>
       <c r="F6" t="n">
-        <v>3271.57008177342</v>
+        <v>3280.79353498631</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1051.4844944893</v>
+        <v>1041.29416011078</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2287.51867919566</v>
+        <v>2329.30514373846</v>
       </c>
       <c r="C7" t="n">
-        <v>1774.62555930224</v>
+        <v>1774.91504212671</v>
       </c>
       <c r="D7" t="n">
-        <v>1615.47479646563</v>
+        <v>1615.81984261008</v>
       </c>
       <c r="E7" t="n">
-        <v>2830.21100965837</v>
+        <v>2905.29978112373</v>
       </c>
       <c r="F7" t="n">
-        <v>2911.94874138571</v>
+        <v>2972.2496333558</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>579.518679195656</v>
+        <v>621.30514373846</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2274.69148866721</v>
+        <v>2344.8767427233</v>
       </c>
       <c r="C8" t="n">
-        <v>1797.57559027587</v>
+        <v>1797.88351235981</v>
       </c>
       <c r="D8" t="n">
-        <v>1631.4387665512</v>
+        <v>1624.30813933078</v>
       </c>
       <c r="E8" t="n">
-        <v>2670.66663029362</v>
+        <v>2841.65248974322</v>
       </c>
       <c r="F8" t="n">
-        <v>2877.57964442996</v>
+        <v>2912.17458968587</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>515.691488667212</v>
+        <v>585.876742723296</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2226.92663071821</v>
+        <v>2267.98173875903</v>
       </c>
       <c r="C9" t="n">
-        <v>1784.07136300567</v>
+        <v>1776.21076905625</v>
       </c>
       <c r="D9" t="n">
-        <v>1572.14047229465</v>
+        <v>1562.5081026713</v>
       </c>
       <c r="E9" t="n">
-        <v>2668.69519059208</v>
+        <v>2668.69392694194</v>
       </c>
       <c r="F9" t="n">
-        <v>2876.22187486997</v>
+        <v>2876.22065733585</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>467.926630718206</v>
+        <v>508.98173875903</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2021.78745861173</v>
+        <v>2028.94652350877</v>
       </c>
       <c r="C10" t="n">
-        <v>1485.01333771013</v>
+        <v>1478.33677341757</v>
       </c>
       <c r="D10" t="n">
-        <v>1273.79837332286</v>
+        <v>1265.31932406466</v>
       </c>
       <c r="E10" t="n">
-        <v>2422.84929210715</v>
+        <v>2426.05930727776</v>
       </c>
       <c r="F10" t="n">
-        <v>2599.81374849421</v>
+        <v>2599.81132686721</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>210.787458611729</v>
+        <v>217.946523508774</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1851.70008956733</v>
+        <v>1891.90673704852</v>
       </c>
       <c r="C11" t="n">
-        <v>1309.87954245619</v>
+        <v>1303.3395798102</v>
       </c>
       <c r="D11" t="n">
-        <v>1097.39945707988</v>
+        <v>1089.03266638663</v>
       </c>
       <c r="E11" t="n">
-        <v>2264.13815101206</v>
+        <v>2329.52773483958</v>
       </c>
       <c r="F11" t="n">
-        <v>2429.22461669365</v>
+        <v>2429.22167804046</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>345.700089567333</v>
+        <v>385.906737048519</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1988.60940389406</v>
+        <v>2025.14781591673</v>
       </c>
       <c r="C12" t="n">
-        <v>1520.53678202122</v>
+        <v>1514.78085917896</v>
       </c>
       <c r="D12" t="n">
-        <v>1294.65683649019</v>
+        <v>1286.85946790746</v>
       </c>
       <c r="E12" t="n">
-        <v>2471.37419294353</v>
+        <v>2471.3723427982</v>
       </c>
       <c r="F12" t="n">
-        <v>2687.06782628031</v>
+        <v>2690.09170535224</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>349.609403894064</v>
+        <v>386.147815916727</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2033.740912065</v>
+        <v>2037.00848581211</v>
       </c>
       <c r="C13" t="n">
-        <v>1520.75854291321</v>
+        <v>1519.4421835214</v>
       </c>
       <c r="D13" t="n">
-        <v>1274.22737588739</v>
+        <v>1270.95058283249</v>
       </c>
       <c r="E13" t="n">
-        <v>2522.21250847608</v>
+        <v>2526.5754698608</v>
       </c>
       <c r="F13" t="n">
-        <v>2798.88190114027</v>
+        <v>2808.5677429138</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>215.740912065004</v>
+        <v>219.008485812114</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2348.16429504077</v>
+        <v>2335.43605416607</v>
       </c>
       <c r="C14" t="n">
-        <v>1850.19905729362</v>
+        <v>1847.69807669763</v>
       </c>
       <c r="D14" t="n">
-        <v>1587.2071790582</v>
+        <v>1582.58252481597</v>
       </c>
       <c r="E14" t="n">
-        <v>2906.92030850223</v>
+        <v>2913.53643687408</v>
       </c>
       <c r="F14" t="n">
-        <v>3201.12131214256</v>
+        <v>3210.38663271504</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>510.16429504077</v>
+        <v>497.43605416607</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2384.92046581058</v>
+        <v>2328.74521069721</v>
       </c>
       <c r="C15" t="n">
-        <v>1691.32586313986</v>
+        <v>1696.37476700839</v>
       </c>
       <c r="D15" t="n">
-        <v>1427.24967986289</v>
+        <v>1429.87926000795</v>
       </c>
       <c r="E15" t="n">
-        <v>2819.96447106481</v>
+        <v>2784.95780568817</v>
       </c>
       <c r="F15" t="n">
-        <v>3056.65482997381</v>
+        <v>3074.82287877146</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>535.920465810576</v>
+        <v>479.745210697211</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3133.56554617138</v>
+        <v>3140.2551848718</v>
       </c>
       <c r="C16" t="n">
-        <v>2652.98639909881</v>
+        <v>2658.79754898404</v>
       </c>
       <c r="D16" t="n">
-        <v>2356.84411180562</v>
+        <v>2359.9292923879</v>
       </c>
       <c r="E16" t="n">
-        <v>3828.03840281131</v>
+        <v>3845.06220419497</v>
       </c>
       <c r="F16" t="n">
-        <v>4152.32200827506</v>
+        <v>4172.52077239479</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>142.56554617138</v>
+        <v>149.255184871798</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2896.675030112</v>
+        <v>2827.36978967267</v>
       </c>
       <c r="C17" t="n">
-        <v>2291.29284255078</v>
+        <v>2294.22424915741</v>
       </c>
       <c r="D17" t="n">
-        <v>1997.8433759324</v>
+        <v>1998.08696886966</v>
       </c>
       <c r="E17" t="n">
-        <v>3463.61951289034</v>
+        <v>3477.78757164233</v>
       </c>
       <c r="F17" t="n">
-        <v>3788.72147515193</v>
+        <v>3806.10340010698</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>99.6750301120019</v>
+        <v>30.3697896726662</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2678.07014788296</v>
+        <v>2644.57817484344</v>
       </c>
       <c r="C18" t="n">
-        <v>1956.12924199764</v>
+        <v>1956.57769412037</v>
       </c>
       <c r="D18" t="n">
-        <v>1697.79979774635</v>
+        <v>1694.5577307216</v>
       </c>
       <c r="E18" t="n">
-        <v>3519.89421079827</v>
+        <v>3452.36946618872</v>
       </c>
       <c r="F18" t="n">
-        <v>3640.78010235157</v>
+        <v>3587.91150104298</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>169.070147882962</v>
+        <v>135.578174843443</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2342.90585903729</v>
+        <v>2364.04238203184</v>
       </c>
       <c r="C19" t="n">
-        <v>1647.86883845053</v>
+        <v>1648.31348752659</v>
       </c>
       <c r="D19" t="n">
-        <v>1382.46520906064</v>
+        <v>1376.71923799814</v>
       </c>
       <c r="E19" t="n">
-        <v>3067.74678763933</v>
+        <v>3218.57808887334</v>
       </c>
       <c r="F19" t="n">
-        <v>3185.69699218325</v>
+        <v>3318.44048081595</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>76.9058590372938</v>
+        <v>98.042382031842</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2269.62664883032</v>
+        <v>2320.09429051252</v>
       </c>
       <c r="C20" t="n">
-        <v>1661.07634421893</v>
+        <v>1653.63406514562</v>
       </c>
       <c r="D20" t="n">
-        <v>1370.30828396673</v>
+        <v>1360.45327544061</v>
       </c>
       <c r="E20" t="n">
-        <v>2845.00177189122</v>
+        <v>2891.61301928288</v>
       </c>
       <c r="F20" t="n">
-        <v>3177.45798666045</v>
+        <v>3184.15370017417</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>129.626648830322</v>
+        <v>180.094290512517</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2221.9093314889</v>
+        <v>2265.68311279297</v>
       </c>
       <c r="C21" t="n">
-        <v>1613.37549812159</v>
+        <v>1603.99351515223</v>
       </c>
       <c r="D21" t="n">
-        <v>1319.21039908642</v>
+        <v>1307.44074161301</v>
       </c>
       <c r="E21" t="n">
-        <v>2814.60788073667</v>
+        <v>2816.20029499891</v>
       </c>
       <c r="F21" t="n">
-        <v>3152.5276046583</v>
+        <v>3157.42034849269</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>112.909331488897</v>
+        <v>156.683112792968</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2038.30228074735</v>
+        <v>2045.61818117859</v>
       </c>
       <c r="C22" t="n">
-        <v>1324.53596280045</v>
+        <v>1316.45923680127</v>
       </c>
       <c r="D22" t="n">
-        <v>1037.59271199634</v>
+        <v>1027.18886399284</v>
       </c>
       <c r="E22" t="n">
-        <v>2517.79344491355</v>
+        <v>2517.79115720818</v>
       </c>
       <c r="F22" t="n">
-        <v>2848.95891007872</v>
+        <v>2855.3089436915</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>5.30228074735214</v>
+        <v>12.6181811785948</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1880.5216941088</v>
+        <v>1892.79953506825</v>
       </c>
       <c r="C23" t="n">
-        <v>1157.04841858191</v>
+        <v>1149.21325072893</v>
       </c>
       <c r="D23" t="n">
-        <v>873.740058233357</v>
+        <v>863.633567817689</v>
       </c>
       <c r="E23" t="n">
-        <v>2390.88097062713</v>
+        <v>2479.5493171346</v>
       </c>
       <c r="F23" t="n">
-        <v>2680.71182265508</v>
+        <v>2687.45774625519</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5216941087972</v>
+        <v>46.799535068255</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1985.15063154715</v>
+        <v>2036.66293155541</v>
       </c>
       <c r="C24" t="n">
-        <v>1366.42955163461</v>
+        <v>1359.34643237013</v>
       </c>
       <c r="D24" t="n">
-        <v>1068.0506960145</v>
+        <v>1058.43219911617</v>
       </c>
       <c r="E24" t="n">
-        <v>2602.24958219037</v>
+        <v>2607.10829590449</v>
       </c>
       <c r="F24" t="n">
-        <v>2952.8056219999</v>
+        <v>2961.28577173699</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-69.8493684528512</v>
+        <v>-18.3370684445943</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2034.62447243079</v>
+        <v>2032.58357814653</v>
       </c>
       <c r="C25" t="n">
-        <v>1376.4984500667</v>
+        <v>1373.6660014752</v>
       </c>
       <c r="D25" t="n">
-        <v>1062.6953490746</v>
+        <v>1057.28981367096</v>
       </c>
       <c r="E25" t="n">
-        <v>2681.06162368986</v>
+        <v>2690.10391824393</v>
       </c>
       <c r="F25" t="n">
-        <v>3051.88980880727</v>
+        <v>3064.49654059687</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-334.375527569214</v>
+        <v>-336.416421853469</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2338.93096930352</v>
+        <v>2302.75017925629</v>
       </c>
       <c r="C26" t="n">
-        <v>1702.85663697936</v>
+        <v>1698.84194667894</v>
       </c>
       <c r="D26" t="n">
-        <v>1369.81653992158</v>
+        <v>1363.0452717004</v>
       </c>
       <c r="E26" t="n">
-        <v>3069.98131138509</v>
+        <v>3078.41377539241</v>
       </c>
       <c r="F26" t="n">
-        <v>3455.78502852514</v>
+        <v>3467.92290948932</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-191.069030696483</v>
+        <v>-227.249820743707</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2359.91035425295</v>
+        <v>2303.0686817292</v>
       </c>
       <c r="C27" t="n">
-        <v>1549.17869206392</v>
+        <v>1552.66220234268</v>
       </c>
       <c r="D27" t="n">
-        <v>1218.31315880164</v>
+        <v>1218.70238030873</v>
       </c>
       <c r="E27" t="n">
-        <v>2916.99572163565</v>
+        <v>2934.07991880702</v>
       </c>
       <c r="F27" t="n">
-        <v>3304.58357637223</v>
+        <v>3325.65630113689</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-83.0896457470471</v>
+        <v>-139.931318270804</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3111.54360096493</v>
+        <v>3121.58662797469</v>
       </c>
       <c r="C28" t="n">
-        <v>2500.05854268895</v>
+        <v>2464.14311117525</v>
       </c>
       <c r="D28" t="n">
-        <v>2129.20774282641</v>
+        <v>2129.89656978502</v>
       </c>
       <c r="E28" t="n">
-        <v>3993.92304843105</v>
+        <v>4012.81881288585</v>
       </c>
       <c r="F28" t="n">
-        <v>4410.52875619261</v>
+        <v>4433.66625180217</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>-19.4563990350721</v>
+        <v>-9.41337202530667</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2854.37614140524</v>
+        <v>2776.52816744613</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.1897906021</v>
+        <v>2124.18974000339</v>
       </c>
       <c r="D29" t="n">
-        <v>1781.34057397067</v>
+        <v>1779.3870827555</v>
       </c>
       <c r="E29" t="n">
-        <v>3623.64943516914</v>
+        <v>3639.59217260907</v>
       </c>
       <c r="F29" t="n">
-        <v>4038.24092322865</v>
+        <v>4058.41800955192</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>329.376141405236</v>
+        <v>251.528167446126</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2690.36191611943</v>
+        <v>2651.02387674626</v>
       </c>
       <c r="C30" t="n">
-        <v>1826.45994328058</v>
+        <v>1826.46156776906</v>
       </c>
       <c r="D30" t="n">
-        <v>1491.70014190969</v>
+        <v>1486.47938633334</v>
       </c>
       <c r="E30" t="n">
-        <v>3581.79281198108</v>
+        <v>3485.54776764224</v>
       </c>
       <c r="F30" t="n">
-        <v>3743.40702674165</v>
+        <v>3742.86949135098</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>187.361916119434</v>
+        <v>148.023876746257</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2347.13377038444</v>
+        <v>2413.06550042988</v>
       </c>
       <c r="C31" t="n">
-        <v>1535.38285428305</v>
+        <v>1530.86042752323</v>
       </c>
       <c r="D31" t="n">
-        <v>1187.92953718914</v>
+        <v>1180.43161624561</v>
       </c>
       <c r="E31" t="n">
-        <v>3196.27200269032</v>
+        <v>3342.67887175314</v>
       </c>
       <c r="F31" t="n">
-        <v>3389.08110561058</v>
+        <v>3482.19071928853</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,10 +1376,10 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-63.8662296155617</v>
+        <v>2.06550042987737</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2262.52796510318</v>
+        <v>2352.81210525932</v>
       </c>
       <c r="C32" t="n">
-        <v>1530.37338296238</v>
+        <v>1521.76446048617</v>
       </c>
       <c r="D32" t="n">
-        <v>1179.00491831281</v>
+        <v>1167.56749592804</v>
       </c>
       <c r="E32" t="n">
-        <v>2992.02527913244</v>
+        <v>3064.95783153668</v>
       </c>
       <c r="F32" t="n">
-        <v>3407.65097756946</v>
+        <v>3416.74061015775</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>37.5279651031833</v>
+        <v>127.812105259322</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2217.93969366209</v>
+        <v>2256.79321036193</v>
       </c>
       <c r="C33" t="n">
-        <v>1485.31779691174</v>
+        <v>1474.83974590129</v>
       </c>
       <c r="D33" t="n">
-        <v>1132.13356224132</v>
+        <v>1118.90234711708</v>
       </c>
       <c r="E33" t="n">
-        <v>2959.17901197634</v>
+        <v>2962.21521191593</v>
       </c>
       <c r="F33" t="n">
-        <v>3379.00118606577</v>
+        <v>3386.2033636562</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,10 +1440,10 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>-37.0603063379108</v>
+        <v>1.79321036193096</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2035.85957196909</v>
+        <v>2049.37421202842</v>
       </c>
       <c r="C34" t="n">
-        <v>1203.20639154835</v>
+        <v>1194.11031498096</v>
       </c>
       <c r="D34" t="n">
-        <v>862.121287121317</v>
+        <v>850.409452810447</v>
       </c>
       <c r="E34" t="n">
-        <v>2667.61070061229</v>
+        <v>2667.60816850268</v>
       </c>
       <c r="F34" t="n">
-        <v>3067.96465340143</v>
+        <v>3076.55655322238</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>89.8595719690913</v>
+        <v>103.37421202842</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1883.55818589219</v>
+        <v>1922.44648092485</v>
       </c>
       <c r="C35" t="n">
-        <v>1040.61009755375</v>
+        <v>1031.82318970165</v>
       </c>
       <c r="D35" t="n">
-        <v>706.79398874373</v>
+        <v>695.516585130856</v>
       </c>
       <c r="E35" t="n">
-        <v>2497.10883653134</v>
+        <v>2497.105679286</v>
       </c>
       <c r="F35" t="n">
-        <v>2894.2099287285</v>
+        <v>2903.13489405499</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>200.558185892185</v>
+        <v>239.446480924845</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1997.54606718142</v>
+        <v>2042.56913336842</v>
       </c>
       <c r="C36" t="n">
-        <v>1247.59800613051</v>
+        <v>1239.51285592869</v>
       </c>
       <c r="D36" t="n">
-        <v>896.193129582535</v>
+        <v>885.281394721838</v>
       </c>
       <c r="E36" t="n">
-        <v>2757.27247328053</v>
+        <v>2757.27020658682</v>
       </c>
       <c r="F36" t="n">
-        <v>3167.30981281902</v>
+        <v>3177.97626236438</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>265.546067181423</v>
+        <v>310.569133368417</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2028.00574123567</v>
+        <v>2036.52513884475</v>
       </c>
       <c r="C37" t="n">
-        <v>1262.31968404026</v>
+        <v>1258.35700357337</v>
       </c>
       <c r="D37" t="n">
-        <v>897.926838108719</v>
+        <v>891.008538059467</v>
       </c>
       <c r="E37" t="n">
-        <v>2812.78184085657</v>
+        <v>2823.28674277468</v>
       </c>
       <c r="F37" t="n">
-        <v>3258.84923928445</v>
+        <v>3273.78774503585</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>841.00574123567</v>
+        <v>849.52513884475</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2303.7974785629</v>
+        <v>2307.10927526861</v>
       </c>
       <c r="C38" t="n">
-        <v>1585.10616716504</v>
+        <v>1579.94226594011</v>
       </c>
       <c r="D38" t="n">
-        <v>1198.21894598515</v>
+        <v>1189.87696323983</v>
       </c>
       <c r="E38" t="n">
-        <v>3203.53051479661</v>
+        <v>3213.41779500694</v>
       </c>
       <c r="F38" t="n">
-        <v>3665.13198347321</v>
+        <v>3679.58493009794</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1159.7974785629</v>
+        <v>1163.10927526861</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2308.23469197555</v>
+        <v>2249.17674360088</v>
       </c>
       <c r="C39" t="n">
-        <v>1434.9855194456</v>
+        <v>1437.25787427377</v>
       </c>
       <c r="D39" t="n">
-        <v>1052.74305968618</v>
+        <v>1051.4502350054</v>
       </c>
       <c r="E39" t="n">
-        <v>3054.58964088352</v>
+        <v>3066.26385920739</v>
       </c>
       <c r="F39" t="n">
-        <v>3509.71177423911</v>
+        <v>3533.147491019</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>101.234691975552</v>
+        <v>42.1767436008804</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3112.89519574638</v>
+        <v>3048.68138538363</v>
       </c>
       <c r="C40" t="n">
-        <v>2322.50423205131</v>
+        <v>2186.06245445313</v>
       </c>
       <c r="D40" t="n">
-        <v>1900.18278044552</v>
+        <v>1900.1812564023</v>
       </c>
       <c r="E40" t="n">
-        <v>4131.14147556411</v>
+        <v>4151.56243447483</v>
       </c>
       <c r="F40" t="n">
-        <v>4624.77058055256</v>
+        <v>4650.313688835</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>-4.10480425361993</v>
+        <v>-68.318614616368</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2729.71292544244</v>
+        <v>2752.0476331064</v>
       </c>
       <c r="C41" t="n">
-        <v>1922.94091515846</v>
+        <v>1922.9413644155</v>
       </c>
       <c r="D41" t="n">
-        <v>1510.12093224867</v>
+        <v>1510.12272826951</v>
       </c>
       <c r="E41" t="n">
-        <v>3756.8162127821</v>
+        <v>3774.21970944934</v>
       </c>
       <c r="F41" t="n">
-        <v>4246.53761578553</v>
+        <v>4269.02660151031</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-276.287074557561</v>
+        <v>-253.952366893599</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2683.24350305839</v>
+        <v>2603.36261804246</v>
       </c>
       <c r="C42" t="n">
-        <v>1629.54594366023</v>
+        <v>1629.54789456049</v>
       </c>
       <c r="D42" t="n">
-        <v>1224.52201229203</v>
+        <v>1224.52329881343</v>
       </c>
       <c r="E42" t="n">
-        <v>3590.0950725375</v>
+        <v>3471.74678600866</v>
       </c>
       <c r="F42" t="n">
-        <v>3929.37594884486</v>
+        <v>3947.95621664435</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-138.756496941607</v>
+        <v>-218.637381957535</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2380.80375662875</v>
+        <v>2379.61898951373</v>
       </c>
       <c r="C43" t="n">
-        <v>1345.97286550332</v>
+        <v>1345.97432349944</v>
       </c>
       <c r="D43" t="n">
-        <v>951.371490483535</v>
+        <v>951.367738548472</v>
       </c>
       <c r="E43" t="n">
-        <v>3278.73215010997</v>
+        <v>3361.18481295738</v>
       </c>
       <c r="F43" t="n">
-        <v>3586.17671211366</v>
+        <v>3601.76623172935</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-148.196243371245</v>
+        <v>-149.38101048627</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2314.90664545768</v>
+        <v>2371.8696596446</v>
       </c>
       <c r="C44" t="n">
-        <v>1375.71465839011</v>
+        <v>1375.71638837642</v>
       </c>
       <c r="D44" t="n">
-        <v>972.998786058635</v>
+        <v>972.995774883128</v>
       </c>
       <c r="E44" t="n">
-        <v>3116.29658531482</v>
+        <v>3282.72672079933</v>
       </c>
       <c r="F44" t="n">
-        <v>3602.87483107324</v>
+        <v>3614.00107438051</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-305.093354542317</v>
+        <v>-248.130340355405</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2234.43499678099</v>
+        <v>2288.12693657474</v>
       </c>
       <c r="C45" t="n">
-        <v>1373.08374987367</v>
+        <v>1367.83820535688</v>
       </c>
       <c r="D45" t="n">
-        <v>964.457688641741</v>
+        <v>964.454424855363</v>
       </c>
       <c r="E45" t="n">
-        <v>3117.62602230206</v>
+        <v>3117.62550625387</v>
       </c>
       <c r="F45" t="n">
-        <v>3620.34680189281</v>
+        <v>3620.35053134304</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-383.565003219011</v>
+        <v>-329.873063425255</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>2034.3678621721</v>
+        <v>2076.34748551341</v>
       </c>
       <c r="C46" t="n">
-        <v>1102.50130970243</v>
+        <v>1092.58845301475</v>
       </c>
       <c r="D46" t="n">
-        <v>719.054038854274</v>
+        <v>706.381504101563</v>
       </c>
       <c r="E46" t="n">
-        <v>2839.56785315</v>
+        <v>2839.56536154484</v>
       </c>
       <c r="F46" t="n">
-        <v>3341.39707978544</v>
+        <v>3341.39702226701</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-515.632137827901</v>
+        <v>-473.652514486587</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1893.5748747454</v>
+        <v>1916.22111386171</v>
       </c>
       <c r="C47" t="n">
-        <v>943.771617343281</v>
+        <v>934.223043897811</v>
       </c>
       <c r="D47" t="n">
-        <v>564.861887701913</v>
+        <v>558.804816428285</v>
       </c>
       <c r="E47" t="n">
-        <v>2668.79728504788</v>
+        <v>2668.79385985907</v>
       </c>
       <c r="F47" t="n">
-        <v>3172.42984970352</v>
+        <v>3172.42781789022</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-649.425125254597</v>
+        <v>-626.778886138288</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>2029.61191138835</v>
+        <v>2046.20116713734</v>
       </c>
       <c r="C48" t="n">
-        <v>1147.9824543246</v>
+        <v>1139.20398885328</v>
       </c>
       <c r="D48" t="n">
-        <v>738.732053586462</v>
+        <v>738.718975280972</v>
       </c>
       <c r="E48" t="n">
-        <v>2934.11904659274</v>
+        <v>2934.1170121328</v>
       </c>
       <c r="F48" t="n">
-        <v>3453.96473760456</v>
+        <v>3453.96591937699</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-721.388088611649</v>
+        <v>-704.798832862661</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>1999.82605039338</v>
+        <v>2046.96746505396</v>
       </c>
       <c r="C49" t="n">
-        <v>1149.49359229052</v>
+        <v>1149.49284706673</v>
       </c>
       <c r="D49" t="n">
-        <v>734.678599701154</v>
+        <v>734.665080224972</v>
       </c>
       <c r="E49" t="n">
-        <v>2962.86005804856</v>
+        <v>2962.85787500745</v>
       </c>
       <c r="F49" t="n">
-        <v>3490.9938858147</v>
+        <v>3490.99518948564</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-668.173949606621</v>
+        <v>-621.032534946038</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Hepatitis E.xlsx
+++ b/outcome/appendix/forecast/Hepatitis E.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2349.6514045312</v>
+        <v>2396.15698482</v>
       </c>
       <c r="C2" t="n">
-        <v>2069.88675851099</v>
+        <v>2074.74358712598</v>
       </c>
       <c r="D2" t="n">
-        <v>1914.88840853299</v>
+        <v>1919.59768123916</v>
       </c>
       <c r="E2" t="n">
-        <v>2698.56963143283</v>
+        <v>2698.57057329505</v>
       </c>
       <c r="F2" t="n">
-        <v>2863.05522391619</v>
+        <v>2863.05611486409</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>723.651404531198</v>
+        <v>770.156984819999</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2342.29782221702</v>
+        <v>2355.78933647953</v>
       </c>
       <c r="C3" t="n">
-        <v>1906.36605202748</v>
+        <v>1902.94386889777</v>
       </c>
       <c r="D3" t="n">
-        <v>1743.10631485975</v>
+        <v>1740.12941333072</v>
       </c>
       <c r="E3" t="n">
-        <v>2649.05072644809</v>
+        <v>2649.05219559445</v>
       </c>
       <c r="F3" t="n">
-        <v>2831.655113162</v>
+        <v>2831.65664537367</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1297.29782221702</v>
+        <v>1310.78933647953</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3167.36039760306</v>
+        <v>3161.47464179483</v>
       </c>
       <c r="C4" t="n">
-        <v>2800.99497482535</v>
+        <v>2800.17773113967</v>
       </c>
       <c r="D4" t="n">
-        <v>2690.53636788546</v>
+        <v>2686.87310350413</v>
       </c>
       <c r="E4" t="n">
-        <v>3611.8069992663</v>
+        <v>3609.54555266105</v>
       </c>
       <c r="F4" t="n">
-        <v>3811.02665649019</v>
+        <v>3807.80071523665</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1526.36039760306</v>
+        <v>1520.47464179483</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2844.48632900023</v>
+        <v>2868.44359967871</v>
       </c>
       <c r="C5" t="n">
-        <v>2469.15851315377</v>
+        <v>2469.15889503408</v>
       </c>
       <c r="D5" t="n">
-        <v>2283.29357234449</v>
+        <v>2283.29335371277</v>
       </c>
       <c r="E5" t="n">
-        <v>3256.75628529261</v>
+        <v>3250.05823425365</v>
       </c>
       <c r="F5" t="n">
-        <v>3463.01122316449</v>
+        <v>3454.90800778327</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1112.48632900023</v>
+        <v>1136.44359967871</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2626.29416011078</v>
+        <v>2653.55643028384</v>
       </c>
       <c r="C6" t="n">
-        <v>2091.48131127291</v>
+        <v>2091.08626750756</v>
       </c>
       <c r="D6" t="n">
-        <v>1934.10276457935</v>
+        <v>1933.63906509065</v>
       </c>
       <c r="E6" t="n">
-        <v>3196.31822684135</v>
+        <v>3248.31054098741</v>
       </c>
       <c r="F6" t="n">
-        <v>3280.79353498631</v>
+        <v>3322.95176171576</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1041.29416011078</v>
+        <v>1068.55643028384</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2329.30514373846</v>
+        <v>2314.18859358888</v>
       </c>
       <c r="C7" t="n">
-        <v>1774.91504212671</v>
+        <v>1774.50504731511</v>
       </c>
       <c r="D7" t="n">
-        <v>1615.81984261008</v>
+        <v>1615.3313586993</v>
       </c>
       <c r="E7" t="n">
-        <v>2905.29978112373</v>
+        <v>2848.26982825396</v>
       </c>
       <c r="F7" t="n">
-        <v>2972.2496333558</v>
+        <v>2912.20658705948</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>621.30514373846</v>
+        <v>606.188593588877</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2344.8767427233</v>
+        <v>2311.85554968245</v>
       </c>
       <c r="C8" t="n">
-        <v>1797.88351235981</v>
+        <v>1797.44739751347</v>
       </c>
       <c r="D8" t="n">
-        <v>1624.30813933078</v>
+        <v>1631.28398115487</v>
       </c>
       <c r="E8" t="n">
-        <v>2841.65248974322</v>
+        <v>2737.45738054273</v>
       </c>
       <c r="F8" t="n">
-        <v>2912.17458968587</v>
+        <v>2881.3693858783</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>585.876742723296</v>
+        <v>552.855549682453</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2267.98173875903</v>
+        <v>2247.68117250253</v>
       </c>
       <c r="C9" t="n">
-        <v>1776.21076905625</v>
+        <v>1787.94706622197</v>
       </c>
       <c r="D9" t="n">
-        <v>1562.5081026713</v>
+        <v>1576.25748102306</v>
       </c>
       <c r="E9" t="n">
-        <v>2668.69392694194</v>
+        <v>2668.69506496016</v>
       </c>
       <c r="F9" t="n">
-        <v>2876.22065733585</v>
+        <v>2876.22175398486</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>508.98173875903</v>
+        <v>488.681172502531</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2028.94652350877</v>
+        <v>2013.90991220116</v>
       </c>
       <c r="C10" t="n">
-        <v>1478.33677341757</v>
+        <v>1487.92437176737</v>
       </c>
       <c r="D10" t="n">
-        <v>1265.31932406466</v>
+        <v>1277.06780640508</v>
       </c>
       <c r="E10" t="n">
-        <v>2426.05930727776</v>
+        <v>2392.75718952022</v>
       </c>
       <c r="F10" t="n">
-        <v>2599.81132686721</v>
+        <v>2599.81350710267</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>217.946523508774</v>
+        <v>202.909912201157</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1891.90673704852</v>
+        <v>1877.12235761036</v>
       </c>
       <c r="C11" t="n">
-        <v>1303.3395798102</v>
+        <v>1312.09264959247</v>
       </c>
       <c r="D11" t="n">
-        <v>1089.03266638663</v>
+        <v>1100.08017520421</v>
       </c>
       <c r="E11" t="n">
-        <v>2329.52773483958</v>
+        <v>2295.18333516226</v>
       </c>
       <c r="F11" t="n">
-        <v>2429.22167804046</v>
+        <v>2429.22432351356</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>385.906737048519</v>
+        <v>371.122357610358</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2025.14781591673</v>
+        <v>2002.98728163082</v>
       </c>
       <c r="C12" t="n">
-        <v>1514.78085917896</v>
+        <v>1523.7001386378</v>
       </c>
       <c r="D12" t="n">
-        <v>1286.85946790746</v>
+        <v>1298.39182856054</v>
       </c>
       <c r="E12" t="n">
-        <v>2471.3723427982</v>
+        <v>2471.37400855078</v>
       </c>
       <c r="F12" t="n">
-        <v>2690.09170535224</v>
+        <v>2687.06760427457</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>386.147815916727</v>
+        <v>363.987281630819</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2037.00848581211</v>
+        <v>2022.92222705577</v>
       </c>
       <c r="C13" t="n">
-        <v>1519.4421835214</v>
+        <v>1523.74248139883</v>
       </c>
       <c r="D13" t="n">
-        <v>1270.95058283249</v>
+        <v>1277.63895218871</v>
       </c>
       <c r="E13" t="n">
-        <v>2526.5754698608</v>
+        <v>2522.22791674936</v>
       </c>
       <c r="F13" t="n">
-        <v>2808.5677429138</v>
+        <v>2799.2982933864</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>219.008485812114</v>
+        <v>204.922227055766</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2335.43605416607</v>
+        <v>2375.88732577731</v>
       </c>
       <c r="C14" t="n">
-        <v>1847.69807669763</v>
+        <v>1858.14432727866</v>
       </c>
       <c r="D14" t="n">
-        <v>1582.58252481597</v>
+        <v>1595.57458474628</v>
       </c>
       <c r="E14" t="n">
-        <v>2913.53643687408</v>
+        <v>2912.81056938339</v>
       </c>
       <c r="F14" t="n">
-        <v>3210.38663271504</v>
+        <v>3206.37235357069</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>497.43605416607</v>
+        <v>537.88732577731</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2328.74521069721</v>
+        <v>2335.63103476218</v>
       </c>
       <c r="C15" t="n">
-        <v>1696.37476700839</v>
+        <v>1698.14854920581</v>
       </c>
       <c r="D15" t="n">
-        <v>1429.87926000795</v>
+        <v>1434.58976452214</v>
       </c>
       <c r="E15" t="n">
-        <v>2784.95780568817</v>
+        <v>2785.05141617583</v>
       </c>
       <c r="F15" t="n">
-        <v>3074.82287877146</v>
+        <v>3060.21693098174</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>479.745210697211</v>
+        <v>486.631034762181</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3140.2551848718</v>
+        <v>3136.66494318366</v>
       </c>
       <c r="C16" t="n">
-        <v>2658.79754898404</v>
+        <v>2659.44292598204</v>
       </c>
       <c r="D16" t="n">
-        <v>2359.9292923879</v>
+        <v>2364.0706832074</v>
       </c>
       <c r="E16" t="n">
-        <v>3845.06220419497</v>
+        <v>3831.16657207262</v>
       </c>
       <c r="F16" t="n">
-        <v>4172.52077239479</v>
+        <v>4154.47707384209</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>149.255184871798</v>
+        <v>145.664943183656</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2827.36978967267</v>
+        <v>2872.4499043859</v>
       </c>
       <c r="C17" t="n">
-        <v>2294.22424915741</v>
+        <v>2297.25120383607</v>
       </c>
       <c r="D17" t="n">
-        <v>1998.08696886966</v>
+        <v>2004.62861106618</v>
       </c>
       <c r="E17" t="n">
-        <v>3477.78757164233</v>
+        <v>3465.94219404664</v>
       </c>
       <c r="F17" t="n">
-        <v>3806.10340010698</v>
+        <v>3789.97187872563</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>30.3697896726662</v>
+        <v>75.4499043859041</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2644.57817484344</v>
+        <v>2716.87241411877</v>
       </c>
       <c r="C18" t="n">
-        <v>1956.57769412037</v>
+        <v>1955.94218842289</v>
       </c>
       <c r="D18" t="n">
-        <v>1694.5577307216</v>
+        <v>1704.88960390638</v>
       </c>
       <c r="E18" t="n">
-        <v>3452.36946618872</v>
+        <v>3523.87355654413</v>
       </c>
       <c r="F18" t="n">
-        <v>3587.91150104298</v>
+        <v>3625.94541858313</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>135.578174843443</v>
+        <v>207.872414118768</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2364.04238203184</v>
+        <v>2358.17605743576</v>
       </c>
       <c r="C19" t="n">
-        <v>1648.31348752659</v>
+        <v>1647.6835908283</v>
       </c>
       <c r="D19" t="n">
-        <v>1376.71923799814</v>
+        <v>1389.68525221468</v>
       </c>
       <c r="E19" t="n">
-        <v>3218.57808887334</v>
+        <v>3124.9135234089</v>
       </c>
       <c r="F19" t="n">
-        <v>3318.44048081595</v>
+        <v>3257.82322026661</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>98.042382031842</v>
+        <v>92.1760574357604</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2320.09429051252</v>
+        <v>2307.25569976594</v>
       </c>
       <c r="C20" t="n">
-        <v>1653.63406514562</v>
+        <v>1667.34261158203</v>
       </c>
       <c r="D20" t="n">
-        <v>1360.45327544061</v>
+        <v>1377.50680656279</v>
       </c>
       <c r="E20" t="n">
-        <v>2891.61301928288</v>
+        <v>2846.89914525476</v>
       </c>
       <c r="F20" t="n">
-        <v>3184.15370017417</v>
+        <v>3178.02856251071</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>180.094290512517</v>
+        <v>167.255699765943</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2265.68311279297</v>
+        <v>2211.45780194046</v>
       </c>
       <c r="C21" t="n">
-        <v>1603.99351515223</v>
+        <v>1618.95617210155</v>
       </c>
       <c r="D21" t="n">
-        <v>1307.44074161301</v>
+        <v>1325.8074404565</v>
       </c>
       <c r="E21" t="n">
-        <v>2816.20029499891</v>
+        <v>2815.44065929966</v>
       </c>
       <c r="F21" t="n">
-        <v>3157.42034849269</v>
+        <v>3151.9220547442</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>156.683112792968</v>
+        <v>102.457801940461</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2045.61818117859</v>
+        <v>2011.18779830125</v>
       </c>
       <c r="C22" t="n">
-        <v>1316.45923680127</v>
+        <v>1329.0042844572</v>
       </c>
       <c r="D22" t="n">
-        <v>1027.18886399284</v>
+        <v>1043.0991147435</v>
       </c>
       <c r="E22" t="n">
-        <v>2517.79115720818</v>
+        <v>2517.79321652967</v>
       </c>
       <c r="F22" t="n">
-        <v>2855.3089436915</v>
+        <v>2846.90480821999</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,10 +1088,10 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>12.6181811785948</v>
+        <v>-21.8122016987504</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1892.79953506825</v>
+        <v>1885.60311715456</v>
       </c>
       <c r="C23" t="n">
-        <v>1149.21325072893</v>
+        <v>1160.70852568231</v>
       </c>
       <c r="D23" t="n">
-        <v>863.633567817689</v>
+        <v>878.476424825937</v>
       </c>
       <c r="E23" t="n">
-        <v>2479.5493171346</v>
+        <v>2360.80018812945</v>
       </c>
       <c r="F23" t="n">
-        <v>2687.45774625519</v>
+        <v>2677.47035918278</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>46.799535068255</v>
+        <v>39.6031171545569</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2036.66293155541</v>
+        <v>1987.15940435439</v>
       </c>
       <c r="C24" t="n">
-        <v>1359.34643237013</v>
+        <v>1371.00389919662</v>
       </c>
       <c r="D24" t="n">
-        <v>1058.43219911617</v>
+        <v>1073.80059605712</v>
       </c>
       <c r="E24" t="n">
-        <v>2607.10829590449</v>
+        <v>2602.19883669495</v>
       </c>
       <c r="F24" t="n">
-        <v>2961.28577173699</v>
+        <v>2950.03054551395</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-18.3370684445943</v>
+        <v>-67.8405956456052</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2032.58357814653</v>
+        <v>2001.29752828425</v>
       </c>
       <c r="C25" t="n">
-        <v>1373.6660014752</v>
+        <v>1380.91361978547</v>
       </c>
       <c r="D25" t="n">
-        <v>1057.28981367096</v>
+        <v>1068.1535533487</v>
       </c>
       <c r="E25" t="n">
-        <v>2690.10391824393</v>
+        <v>2680.39121223372</v>
       </c>
       <c r="F25" t="n">
-        <v>3064.49654059687</v>
+        <v>3049.65630379433</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-336.416421853469</v>
+        <v>-367.702471715746</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2302.75017925629</v>
+        <v>2335.22287337564</v>
       </c>
       <c r="C26" t="n">
-        <v>1698.84194667894</v>
+        <v>1712.16464734682</v>
       </c>
       <c r="D26" t="n">
-        <v>1363.0452717004</v>
+        <v>1380.13247248228</v>
       </c>
       <c r="E26" t="n">
-        <v>3078.41377539241</v>
+        <v>3074.26447741345</v>
       </c>
       <c r="F26" t="n">
-        <v>3467.92290948932</v>
+        <v>3458.50163036706</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-227.249820743707</v>
+        <v>-194.777126624357</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2303.0686817292</v>
+        <v>2302.20124121075</v>
       </c>
       <c r="C27" t="n">
-        <v>1552.66220234268</v>
+        <v>1557.29236281552</v>
       </c>
       <c r="D27" t="n">
-        <v>1218.70238030873</v>
+        <v>1227.48412816785</v>
       </c>
       <c r="E27" t="n">
-        <v>2934.07991880702</v>
+        <v>2919.78435024526</v>
       </c>
       <c r="F27" t="n">
-        <v>3325.65630113689</v>
+        <v>3305.70922217477</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-139.931318270804</v>
+        <v>-140.798758789246</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3121.58662797469</v>
+        <v>3119.7777634169</v>
       </c>
       <c r="C28" t="n">
-        <v>2464.14311117525</v>
+        <v>2507.92752975527</v>
       </c>
       <c r="D28" t="n">
-        <v>2129.89656978502</v>
+        <v>2138.49697470171</v>
       </c>
       <c r="E28" t="n">
-        <v>4012.81881288585</v>
+        <v>3995.44944614048</v>
       </c>
       <c r="F28" t="n">
-        <v>4433.66625180217</v>
+        <v>4410.17162618465</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>-9.41337202530667</v>
+        <v>-11.222236583098</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2776.52816744613</v>
+        <v>2799.30423161841</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.18974000339</v>
+        <v>2124.18978717059</v>
       </c>
       <c r="D29" t="n">
-        <v>1779.3870827555</v>
+        <v>1790.0301466686</v>
       </c>
       <c r="E29" t="n">
-        <v>3639.59217260907</v>
+        <v>3624.45167102358</v>
       </c>
       <c r="F29" t="n">
-        <v>4058.41800955192</v>
+        <v>4037.10029808299</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>251.528167446126</v>
+        <v>274.304231618408</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2651.02387674626</v>
+        <v>2792.48938483915</v>
       </c>
       <c r="C30" t="n">
-        <v>1826.46156776906</v>
+        <v>1826.46010739815</v>
       </c>
       <c r="D30" t="n">
-        <v>1486.47938633334</v>
+        <v>1500.12282719398</v>
       </c>
       <c r="E30" t="n">
-        <v>3485.54776764224</v>
+        <v>3695.54122704235</v>
       </c>
       <c r="F30" t="n">
-        <v>3742.86949135098</v>
+        <v>3840.51074395438</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>148.023876746257</v>
+        <v>289.489384839146</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2413.06550042988</v>
+        <v>2404.96053190129</v>
       </c>
       <c r="C31" t="n">
-        <v>1530.86042752323</v>
+        <v>1537.75287428998</v>
       </c>
       <c r="D31" t="n">
-        <v>1180.43161624561</v>
+        <v>1196.71499487345</v>
       </c>
       <c r="E31" t="n">
-        <v>3342.67887175314</v>
+        <v>3330.23912839964</v>
       </c>
       <c r="F31" t="n">
-        <v>3482.19071928853</v>
+        <v>3489.94181260382</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,10 +1376,10 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>2.06550042987737</v>
+        <v>-6.0394680987115</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2352.81210525932</v>
+        <v>2315.81468718231</v>
       </c>
       <c r="C32" t="n">
-        <v>1521.76446048617</v>
+        <v>1537.72148846457</v>
       </c>
       <c r="D32" t="n">
-        <v>1167.56749592804</v>
+        <v>1187.71327691481</v>
       </c>
       <c r="E32" t="n">
-        <v>3064.95783153668</v>
+        <v>2992.5967684256</v>
       </c>
       <c r="F32" t="n">
-        <v>3416.74061015775</v>
+        <v>3406.12055193019</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>127.812105259322</v>
+        <v>90.8146871823114</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2256.79321036193</v>
+        <v>2173.15010510432</v>
       </c>
       <c r="C33" t="n">
-        <v>1474.83974590129</v>
+        <v>1491.94809291584</v>
       </c>
       <c r="D33" t="n">
-        <v>1118.90234711708</v>
+        <v>1140.18966437122</v>
       </c>
       <c r="E33" t="n">
-        <v>2962.21521191593</v>
+        <v>2958.71868719081</v>
       </c>
       <c r="F33" t="n">
-        <v>3386.2033636562</v>
+        <v>3376.34548733524</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,10 +1440,10 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>1.79321036193096</v>
+        <v>-81.8498948956785</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2049.37421202842</v>
+        <v>1989.0705433091</v>
       </c>
       <c r="C34" t="n">
-        <v>1194.11031498096</v>
+        <v>1208.65308845422</v>
       </c>
       <c r="D34" t="n">
-        <v>850.409452810447</v>
+        <v>868.954211428995</v>
       </c>
       <c r="E34" t="n">
-        <v>2667.60816850268</v>
+        <v>2667.61044746496</v>
       </c>
       <c r="F34" t="n">
-        <v>3076.55655322238</v>
+        <v>3063.93507109186</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>103.37421202842</v>
+        <v>43.0705433090986</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1922.44648092485</v>
+        <v>1848.7862571643</v>
       </c>
       <c r="C35" t="n">
-        <v>1031.82318970165</v>
+        <v>1045.19795472743</v>
       </c>
       <c r="D35" t="n">
-        <v>695.516585130856</v>
+        <v>712.761406959777</v>
       </c>
       <c r="E35" t="n">
-        <v>2497.105679286</v>
+        <v>2497.10852080053</v>
       </c>
       <c r="F35" t="n">
-        <v>2903.13489405499</v>
+        <v>2889.05002546522</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>239.446480924845</v>
+        <v>165.786257164304</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2042.56913336842</v>
+        <v>1978.90669727396</v>
       </c>
       <c r="C36" t="n">
-        <v>1239.51285592869</v>
+        <v>1253.10271669522</v>
       </c>
       <c r="D36" t="n">
-        <v>885.281394721838</v>
+        <v>903.199898405927</v>
       </c>
       <c r="E36" t="n">
-        <v>2757.27020658682</v>
+        <v>2757.27224659962</v>
       </c>
       <c r="F36" t="n">
-        <v>3177.97626236438</v>
+        <v>3162.64519069764</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>310.569133368417</v>
+        <v>246.906697273963</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2036.52513884475</v>
+        <v>1996.58736491689</v>
       </c>
       <c r="C37" t="n">
-        <v>1258.35700357337</v>
+        <v>1267.69746333184</v>
       </c>
       <c r="D37" t="n">
-        <v>891.008538059467</v>
+        <v>904.692887163408</v>
       </c>
       <c r="E37" t="n">
-        <v>2823.28674277468</v>
+        <v>2810.89465185832</v>
       </c>
       <c r="F37" t="n">
-        <v>3273.78774503585</v>
+        <v>3254.68215167218</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>849.52513884475</v>
+        <v>809.587364916894</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2307.10927526861</v>
+        <v>2293.04411825805</v>
       </c>
       <c r="C38" t="n">
-        <v>1579.94226594011</v>
+        <v>1595.34249124102</v>
       </c>
       <c r="D38" t="n">
-        <v>1189.87696323983</v>
+        <v>1209.80178784363</v>
       </c>
       <c r="E38" t="n">
-        <v>3213.41779500694</v>
+        <v>3206.63825691079</v>
       </c>
       <c r="F38" t="n">
-        <v>3679.58493009794</v>
+        <v>3665.97882874745</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1163.10927526861</v>
+        <v>1149.04411825805</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2249.17674360088</v>
+        <v>2257.64403272898</v>
       </c>
       <c r="C39" t="n">
-        <v>1437.25787427377</v>
+        <v>1443.99105896231</v>
       </c>
       <c r="D39" t="n">
-        <v>1051.4502350054</v>
+        <v>1063.11495157556</v>
       </c>
       <c r="E39" t="n">
-        <v>3066.26385920739</v>
+        <v>3054.58951653028</v>
       </c>
       <c r="F39" t="n">
-        <v>3533.147491019</v>
+        <v>3509.01112262571</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>42.1767436008804</v>
+        <v>50.644032728977</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3048.68138538363</v>
+        <v>3067.07859658873</v>
       </c>
       <c r="C40" t="n">
-        <v>2186.06245445313</v>
+        <v>2322.50390195783</v>
       </c>
       <c r="D40" t="n">
-        <v>1900.1812564023</v>
+        <v>1900.18263089037</v>
       </c>
       <c r="E40" t="n">
-        <v>4151.56243447483</v>
+        <v>4131.46540990777</v>
       </c>
       <c r="F40" t="n">
-        <v>4650.313688835</v>
+        <v>4622.5147944499</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>-68.318614616368</v>
+        <v>-49.9214034112697</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2752.0476331064</v>
+        <v>2764.26735806444</v>
       </c>
       <c r="C41" t="n">
-        <v>1922.9413644155</v>
+        <v>1922.94096246526</v>
       </c>
       <c r="D41" t="n">
-        <v>1510.12272826951</v>
+        <v>1510.12111473926</v>
       </c>
       <c r="E41" t="n">
-        <v>3774.21970944934</v>
+        <v>3756.46083126791</v>
       </c>
       <c r="F41" t="n">
-        <v>4269.02660151031</v>
+        <v>4243.56401110064</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-253.952366893599</v>
+        <v>-241.732641935563</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2603.36261804246</v>
+        <v>2790.81011336391</v>
       </c>
       <c r="C42" t="n">
-        <v>1629.54789456049</v>
+        <v>1629.54614113802</v>
       </c>
       <c r="D42" t="n">
-        <v>1224.52329881343</v>
+        <v>1224.52214370858</v>
       </c>
       <c r="E42" t="n">
-        <v>3471.74678600866</v>
+        <v>3754.44032238344</v>
       </c>
       <c r="F42" t="n">
-        <v>3947.95621664435</v>
+        <v>3926.56730670314</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-218.637381957535</v>
+        <v>-31.1898866360866</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2379.61898951373</v>
+        <v>2402.69914027334</v>
       </c>
       <c r="C43" t="n">
-        <v>1345.97432349944</v>
+        <v>1345.97301361568</v>
       </c>
       <c r="D43" t="n">
-        <v>951.367738548472</v>
+        <v>951.371117627761</v>
       </c>
       <c r="E43" t="n">
-        <v>3361.18481295738</v>
+        <v>3427.31188266166</v>
       </c>
       <c r="F43" t="n">
-        <v>3601.76623172935</v>
+        <v>3583.4431641608</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-149.38101048627</v>
+        <v>-126.300859726658</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2371.8696596446</v>
+        <v>2300.30223625939</v>
       </c>
       <c r="C44" t="n">
-        <v>1375.71638837642</v>
+        <v>1375.71483376163</v>
       </c>
       <c r="D44" t="n">
-        <v>972.995774883128</v>
+        <v>972.998487400593</v>
       </c>
       <c r="E44" t="n">
-        <v>3282.72672079933</v>
+        <v>3115.8217465381</v>
       </c>
       <c r="F44" t="n">
-        <v>3614.00107438051</v>
+        <v>3599.6747731083</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-248.130340355405</v>
+        <v>-319.697763740613</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2288.12693657474</v>
+        <v>2179.22796985156</v>
       </c>
       <c r="C45" t="n">
-        <v>1367.83820535688</v>
+        <v>1373.08392182877</v>
       </c>
       <c r="D45" t="n">
-        <v>964.454424855363</v>
+        <v>964.45736477246</v>
       </c>
       <c r="E45" t="n">
-        <v>3117.62550625387</v>
+        <v>3117.62597049717</v>
       </c>
       <c r="F45" t="n">
-        <v>3620.35053134304</v>
+        <v>3620.34717395202</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-329.873063425255</v>
+        <v>-438.772030148443</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>2076.34748551341</v>
+        <v>1990.78640302566</v>
       </c>
       <c r="C46" t="n">
-        <v>1092.58845301475</v>
+        <v>1108.68101636751</v>
       </c>
       <c r="D46" t="n">
-        <v>706.381504101563</v>
+        <v>719.402108004904</v>
       </c>
       <c r="E46" t="n">
-        <v>2839.56536154484</v>
+        <v>2839.56760369671</v>
       </c>
       <c r="F46" t="n">
-        <v>3341.39702226701</v>
+        <v>3341.39707298673</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-473.652514486587</v>
+        <v>-559.213596974345</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1916.22111386171</v>
+        <v>1841.14815683974</v>
       </c>
       <c r="C47" t="n">
-        <v>934.223043897811</v>
+        <v>949.05769758474</v>
       </c>
       <c r="D47" t="n">
-        <v>558.804816428285</v>
+        <v>564.859115454709</v>
       </c>
       <c r="E47" t="n">
-        <v>2668.79385985907</v>
+        <v>2668.7969421558</v>
       </c>
       <c r="F47" t="n">
-        <v>3172.42781789022</v>
+        <v>3172.42964534085</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-626.778886138288</v>
+        <v>-701.851843160258</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>2046.20116713734</v>
+        <v>1981.61674936554</v>
       </c>
       <c r="C48" t="n">
-        <v>1139.20398885328</v>
+        <v>1147.98240197264</v>
       </c>
       <c r="D48" t="n">
-        <v>738.718975280972</v>
+        <v>738.73074755231</v>
       </c>
       <c r="E48" t="n">
-        <v>2934.1170121328</v>
+        <v>2934.11884277393</v>
       </c>
       <c r="F48" t="n">
-        <v>3453.96591937699</v>
+        <v>3453.96485460949</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-704.798832862661</v>
+        <v>-769.383250634462</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2046.96746505396</v>
+        <v>2005.41156049934</v>
       </c>
       <c r="C49" t="n">
-        <v>1149.49284706673</v>
+        <v>1149.49352022431</v>
       </c>
       <c r="D49" t="n">
-        <v>734.665080224972</v>
+        <v>734.677249623627</v>
       </c>
       <c r="E49" t="n">
-        <v>2962.85787500745</v>
+        <v>2962.85983936971</v>
       </c>
       <c r="F49" t="n">
-        <v>3490.99518948564</v>
+        <v>3490.99401498476</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-621.032534946038</v>
+        <v>-662.588439500658</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Hepatitis E.xlsx
+++ b/outcome/appendix/forecast/Hepatitis E.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2396.15698482</v>
+        <v>2342.11090283977</v>
       </c>
       <c r="C2" t="n">
         <v>2074.74358712598</v>
@@ -448,7 +448,7 @@
         <v>1626</v>
       </c>
       <c r="I2" t="n">
-        <v>770.156984819999</v>
+        <v>716.110902839766</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2355.78933647953</v>
+        <v>2369.82755284611</v>
       </c>
       <c r="C3" t="n">
         <v>1902.94386889777</v>
@@ -468,7 +468,7 @@
         <v>1740.12941333072</v>
       </c>
       <c r="E3" t="n">
-        <v>2649.05219559445</v>
+        <v>2703.96123434024</v>
       </c>
       <c r="F3" t="n">
         <v>2831.65664537367</v>
@@ -480,7 +480,7 @@
         <v>1045</v>
       </c>
       <c r="I3" t="n">
-        <v>1310.78933647953</v>
+        <v>1324.82755284611</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,10 +491,10 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3161.47464179483</v>
+        <v>3201.90941307947</v>
       </c>
       <c r="C4" t="n">
-        <v>2800.17773113967</v>
+        <v>2874.32135025737</v>
       </c>
       <c r="D4" t="n">
         <v>2686.87310350413</v>
@@ -512,7 +512,7 @@
         <v>1641</v>
       </c>
       <c r="I4" t="n">
-        <v>1520.47464179483</v>
+        <v>1560.90941307947</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2868.44359967871</v>
+        <v>2878.13102002152</v>
       </c>
       <c r="C5" t="n">
         <v>2469.15889503408</v>
@@ -544,7 +544,7 @@
         <v>1732</v>
       </c>
       <c r="I5" t="n">
-        <v>1136.44359967871</v>
+        <v>1146.13102002152</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>2653.55643028384</v>
+        <v>2610.97194283237</v>
       </c>
       <c r="C6" t="n">
         <v>2091.08626750756</v>
@@ -564,10 +564,10 @@
         <v>1933.63906509065</v>
       </c>
       <c r="E6" t="n">
-        <v>3248.31054098741</v>
+        <v>3105.28536265745</v>
       </c>
       <c r="F6" t="n">
-        <v>3322.95176171576</v>
+        <v>3174.0295177805</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1585</v>
       </c>
       <c r="I6" t="n">
-        <v>1068.55643028384</v>
+        <v>1025.97194283237</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>2314.18859358888</v>
+        <v>2283.69027375363</v>
       </c>
       <c r="C7" t="n">
         <v>1774.50504731511</v>
@@ -596,10 +596,10 @@
         <v>1615.3313586993</v>
       </c>
       <c r="E7" t="n">
-        <v>2848.26982825396</v>
+        <v>2739.3254741668</v>
       </c>
       <c r="F7" t="n">
-        <v>2912.20658705948</v>
+        <v>2852.4348524719</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>1708</v>
       </c>
       <c r="I7" t="n">
-        <v>606.188593588877</v>
+        <v>575.690273753625</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2311.85554968245</v>
+        <v>2283.84513656023</v>
       </c>
       <c r="C8" t="n">
         <v>1797.44739751347</v>
@@ -628,7 +628,7 @@
         <v>1631.28398115487</v>
       </c>
       <c r="E8" t="n">
-        <v>2737.45738054273</v>
+        <v>2656.51849707012</v>
       </c>
       <c r="F8" t="n">
         <v>2881.3693858783</v>
@@ -640,7 +640,7 @@
         <v>1759</v>
       </c>
       <c r="I8" t="n">
-        <v>552.855549682453</v>
+        <v>524.845136560231</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2247.68117250253</v>
+        <v>2242.7782879547</v>
       </c>
       <c r="C9" t="n">
         <v>1787.94706622197</v>
@@ -672,7 +672,7 @@
         <v>1759</v>
       </c>
       <c r="I9" t="n">
-        <v>488.681172502531</v>
+        <v>483.778287954703</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2013.90991220116</v>
+        <v>2014.88330579479</v>
       </c>
       <c r="C10" t="n">
         <v>1487.92437176737</v>
@@ -704,7 +704,7 @@
         <v>1811</v>
       </c>
       <c r="I10" t="n">
-        <v>202.909912201157</v>
+        <v>203.883305794786</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1877.12235761036</v>
+        <v>1826.3667549706</v>
       </c>
       <c r="C11" t="n">
         <v>1312.09264959247</v>
@@ -724,7 +724,7 @@
         <v>1100.08017520421</v>
       </c>
       <c r="E11" t="n">
-        <v>2295.18333516226</v>
+        <v>2221.39745251194</v>
       </c>
       <c r="F11" t="n">
         <v>2429.22432351356</v>
@@ -736,7 +736,7 @@
         <v>1506</v>
       </c>
       <c r="I11" t="n">
-        <v>371.122357610358</v>
+        <v>320.366754970602</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2002.98728163082</v>
+        <v>2029.66418568461</v>
       </c>
       <c r="C12" t="n">
         <v>1523.7001386378</v>
@@ -768,7 +768,7 @@
         <v>1639</v>
       </c>
       <c r="I12" t="n">
-        <v>363.987281630819</v>
+        <v>390.664185684609</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2022.92222705577</v>
+        <v>2084.82754830573</v>
       </c>
       <c r="C13" t="n">
         <v>1523.74248139883</v>
@@ -800,7 +800,7 @@
         <v>1818</v>
       </c>
       <c r="I13" t="n">
-        <v>204.922227055766</v>
+        <v>266.827548305726</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2375.88732577731</v>
+        <v>2407.42813305335</v>
       </c>
       <c r="C14" t="n">
         <v>1858.14432727866</v>
@@ -832,7 +832,7 @@
         <v>1838</v>
       </c>
       <c r="I14" t="n">
-        <v>537.88732577731</v>
+        <v>569.428133053346</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2335.63103476218</v>
+        <v>2370.61081447678</v>
       </c>
       <c r="C15" t="n">
         <v>1698.14854920581</v>
@@ -864,7 +864,7 @@
         <v>1849</v>
       </c>
       <c r="I15" t="n">
-        <v>486.631034762181</v>
+        <v>521.61081447678</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3136.66494318366</v>
+        <v>3194.10822284297</v>
       </c>
       <c r="C16" t="n">
         <v>2659.44292598204</v>
@@ -896,7 +896,7 @@
         <v>2991</v>
       </c>
       <c r="I16" t="n">
-        <v>145.664943183656</v>
+        <v>203.108222842966</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2872.4499043859</v>
+        <v>2897.96130349579</v>
       </c>
       <c r="C17" t="n">
         <v>2297.25120383607</v>
@@ -928,7 +928,7 @@
         <v>2797</v>
       </c>
       <c r="I17" t="n">
-        <v>75.4499043859041</v>
+        <v>100.961303495791</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2716.87241411877</v>
+        <v>2608.39539654242</v>
       </c>
       <c r="C18" t="n">
         <v>1955.94218842289</v>
@@ -948,10 +948,10 @@
         <v>1704.88960390638</v>
       </c>
       <c r="E18" t="n">
-        <v>3523.87355654413</v>
+        <v>3294.65816687637</v>
       </c>
       <c r="F18" t="n">
-        <v>3625.94541858313</v>
+        <v>3486.09999392378</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>2509</v>
       </c>
       <c r="I18" t="n">
-        <v>207.872414118768</v>
+        <v>99.3953965424166</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2358.17605743576</v>
+        <v>2295.80609994063</v>
       </c>
       <c r="C19" t="n">
         <v>1647.6835908283</v>
@@ -980,10 +980,10 @@
         <v>1389.68525221468</v>
       </c>
       <c r="E19" t="n">
-        <v>3124.9135234089</v>
+        <v>2887.12506443986</v>
       </c>
       <c r="F19" t="n">
-        <v>3257.82322026661</v>
+        <v>3156.77700009565</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>2266</v>
       </c>
       <c r="I19" t="n">
-        <v>92.1760574357604</v>
+        <v>29.8060999406307</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2307.25569976594</v>
+        <v>2283.41500776191</v>
       </c>
       <c r="C20" t="n">
         <v>1667.34261158203</v>
@@ -1024,7 +1024,7 @@
         <v>2140</v>
       </c>
       <c r="I20" t="n">
-        <v>167.255699765943</v>
+        <v>143.415007761912</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2211.45780194046</v>
+        <v>2254.83847749969</v>
       </c>
       <c r="C21" t="n">
         <v>1618.95617210155</v>
@@ -1056,7 +1056,7 @@
         <v>2109</v>
       </c>
       <c r="I21" t="n">
-        <v>102.457801940461</v>
+        <v>145.838477499688</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2011.18779830125</v>
+        <v>2025.44292383996</v>
       </c>
       <c r="C22" t="n">
         <v>1329.0042844572</v>
@@ -1088,7 +1088,7 @@
         <v>2033</v>
       </c>
       <c r="I22" t="n">
-        <v>-21.8122016987504</v>
+        <v>-7.55707616003883</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1885.60311715456</v>
+        <v>1845.68307006635</v>
       </c>
       <c r="C23" t="n">
         <v>1160.70852568231</v>
@@ -1108,7 +1108,7 @@
         <v>878.476424825937</v>
       </c>
       <c r="E23" t="n">
-        <v>2360.80018812945</v>
+        <v>2347.15139859697</v>
       </c>
       <c r="F23" t="n">
         <v>2677.47035918278</v>
@@ -1120,10 +1120,10 @@
         <v>1846</v>
       </c>
       <c r="I23" t="n">
-        <v>39.6031171545569</v>
+        <v>-0.316929933645724</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1987.15940435439</v>
+        <v>2028.34309328755</v>
       </c>
       <c r="C24" t="n">
         <v>1371.00389919662</v>
@@ -1152,7 +1152,7 @@
         <v>2055</v>
       </c>
       <c r="I24" t="n">
-        <v>-67.8405956456052</v>
+        <v>-26.6569067124481</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2001.29752828425</v>
+        <v>2085.25010144531</v>
       </c>
       <c r="C25" t="n">
         <v>1380.91361978547</v>
@@ -1184,7 +1184,7 @@
         <v>2369</v>
       </c>
       <c r="I25" t="n">
-        <v>-367.702471715746</v>
+        <v>-283.749898554694</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2335.22287337564</v>
+        <v>2389.46207612263</v>
       </c>
       <c r="C26" t="n">
         <v>1712.16464734682</v>
@@ -1216,7 +1216,7 @@
         <v>2530</v>
       </c>
       <c r="I26" t="n">
-        <v>-194.777126624357</v>
+        <v>-140.53792387737</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2302.20124121075</v>
+        <v>2376.52496270837</v>
       </c>
       <c r="C27" t="n">
         <v>1557.29236281552</v>
@@ -1248,7 +1248,7 @@
         <v>2443</v>
       </c>
       <c r="I27" t="n">
-        <v>-140.798758789246</v>
+        <v>-66.4750372916296</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3119.7777634169</v>
+        <v>3145.68149772522</v>
       </c>
       <c r="C28" t="n">
         <v>2507.92752975527</v>
@@ -1280,10 +1280,10 @@
         <v>3131</v>
       </c>
       <c r="I28" t="n">
-        <v>-11.222236583098</v>
+        <v>14.6814977252202</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2799.30423161841</v>
+        <v>2924.84782766298</v>
       </c>
       <c r="C29" t="n">
         <v>2124.18978717059</v>
@@ -1312,7 +1312,7 @@
         <v>2525</v>
       </c>
       <c r="I29" t="n">
-        <v>274.304231618408</v>
+        <v>399.847827662981</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2792.48938483915</v>
+        <v>2617.25688715253</v>
       </c>
       <c r="C30" t="n">
         <v>1826.46010739815</v>
@@ -1332,10 +1332,10 @@
         <v>1500.12282719398</v>
       </c>
       <c r="E30" t="n">
-        <v>3695.54122704235</v>
+        <v>3398.40143895741</v>
       </c>
       <c r="F30" t="n">
-        <v>3840.51074395438</v>
+        <v>3725.45871612853</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>2503</v>
       </c>
       <c r="I30" t="n">
-        <v>289.489384839146</v>
+        <v>114.25688715253</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2404.96053190129</v>
+        <v>2296.20687110544</v>
       </c>
       <c r="C31" t="n">
         <v>1537.75287428998</v>
@@ -1364,10 +1364,10 @@
         <v>1196.71499487345</v>
       </c>
       <c r="E31" t="n">
-        <v>3330.23912839964</v>
+        <v>2992.38832242655</v>
       </c>
       <c r="F31" t="n">
-        <v>3489.94181260382</v>
+        <v>3388.04584588888</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>2411</v>
       </c>
       <c r="I31" t="n">
-        <v>-6.0394680987115</v>
+        <v>-114.793128894557</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2315.81468718231</v>
+        <v>2264.82660894824</v>
       </c>
       <c r="C32" t="n">
         <v>1537.72148846457</v>
@@ -1408,7 +1408,7 @@
         <v>2225</v>
       </c>
       <c r="I32" t="n">
-        <v>90.8146871823114</v>
+        <v>39.826608948244</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2173.15010510432</v>
+        <v>2245.42655532661</v>
       </c>
       <c r="C33" t="n">
         <v>1491.94809291584</v>
@@ -1440,7 +1440,7 @@
         <v>2255</v>
       </c>
       <c r="I33" t="n">
-        <v>-81.8498948956785</v>
+        <v>-9.57344467339044</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>1989.0705433091</v>
+        <v>2021.21423812113</v>
       </c>
       <c r="C34" t="n">
         <v>1208.65308845422</v>
@@ -1472,7 +1472,7 @@
         <v>1946</v>
       </c>
       <c r="I34" t="n">
-        <v>43.0705433090986</v>
+        <v>75.2142381211318</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1848.7862571643</v>
+        <v>1851.70620809396</v>
       </c>
       <c r="C35" t="n">
         <v>1045.19795472743</v>
@@ -1504,7 +1504,7 @@
         <v>1683</v>
       </c>
       <c r="I35" t="n">
-        <v>165.786257164304</v>
+        <v>168.706208093959</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1978.90669727396</v>
+        <v>2007.40210538828</v>
       </c>
       <c r="C36" t="n">
         <v>1253.10271669522</v>
@@ -1536,7 +1536,7 @@
         <v>1732</v>
       </c>
       <c r="I36" t="n">
-        <v>246.906697273963</v>
+        <v>275.402105388278</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1996.58736491689</v>
+        <v>2081.72976911441</v>
       </c>
       <c r="C37" t="n">
         <v>1267.69746333184</v>
@@ -1568,7 +1568,7 @@
         <v>1187</v>
       </c>
       <c r="I37" t="n">
-        <v>809.587364916894</v>
+        <v>894.729769114409</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2293.04411825805</v>
+        <v>2374.22632057693</v>
       </c>
       <c r="C38" t="n">
         <v>1595.34249124102</v>
@@ -1600,7 +1600,7 @@
         <v>1144</v>
       </c>
       <c r="I38" t="n">
-        <v>1149.04411825805</v>
+        <v>1230.22632057693</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2257.64403272898</v>
+        <v>2362.57745766725</v>
       </c>
       <c r="C39" t="n">
         <v>1443.99105896231</v>
@@ -1632,7 +1632,7 @@
         <v>2207</v>
       </c>
       <c r="I39" t="n">
-        <v>50.644032728977</v>
+        <v>155.577457667253</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3067.07859658873</v>
+        <v>3085.71793150711</v>
       </c>
       <c r="C40" t="n">
         <v>2322.50390195783</v>
@@ -1664,7 +1664,7 @@
         <v>3117</v>
       </c>
       <c r="I40" t="n">
-        <v>-49.9214034112697</v>
+        <v>-31.2820684928897</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2764.26735806444</v>
+        <v>2956.44305647745</v>
       </c>
       <c r="C41" t="n">
         <v>1922.94096246526</v>
@@ -1696,7 +1696,7 @@
         <v>3006</v>
       </c>
       <c r="I41" t="n">
-        <v>-241.732641935563</v>
+        <v>-49.5569435225498</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2790.81011336391</v>
+        <v>2638.67305278411</v>
       </c>
       <c r="C42" t="n">
         <v>1629.54614113802</v>
@@ -1716,7 +1716,7 @@
         <v>1224.52214370858</v>
       </c>
       <c r="E42" t="n">
-        <v>3754.44032238344</v>
+        <v>3467.77124430248</v>
       </c>
       <c r="F42" t="n">
         <v>3926.56730670314</v>
@@ -1728,7 +1728,7 @@
         <v>2822</v>
       </c>
       <c r="I42" t="n">
-        <v>-31.1898866360866</v>
+        <v>-183.326947215895</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2402.69914027334</v>
+        <v>2305.48884679844</v>
       </c>
       <c r="C43" t="n">
         <v>1345.97301361568</v>
@@ -1748,7 +1748,7 @@
         <v>951.371117627761</v>
       </c>
       <c r="E43" t="n">
-        <v>3427.31188266166</v>
+        <v>3104.30505260598</v>
       </c>
       <c r="F43" t="n">
         <v>3583.4431641608</v>
@@ -1760,7 +1760,7 @@
         <v>2529</v>
       </c>
       <c r="I43" t="n">
-        <v>-126.300859726658</v>
+        <v>-223.511153201557</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2300.30223625939</v>
+        <v>2246.27520836472</v>
       </c>
       <c r="C44" t="n">
         <v>1375.71483376163</v>
@@ -1792,7 +1792,7 @@
         <v>2620</v>
       </c>
       <c r="I44" t="n">
-        <v>-319.697763740613</v>
+        <v>-373.724791635278</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2179.22796985156</v>
+        <v>2229.19978403744</v>
       </c>
       <c r="C45" t="n">
         <v>1373.08392182877</v>
@@ -1824,7 +1824,7 @@
         <v>2618</v>
       </c>
       <c r="I45" t="n">
-        <v>-438.772030148443</v>
+        <v>-388.800215962558</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>1990.78640302566</v>
+        <v>2019.59601082296</v>
       </c>
       <c r="C46" t="n">
         <v>1108.68101636751</v>
@@ -1856,7 +1856,7 @@
         <v>2550</v>
       </c>
       <c r="I46" t="n">
-        <v>-559.213596974345</v>
+        <v>-530.403989177037</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1841.14815683974</v>
+        <v>1849.39215209954</v>
       </c>
       <c r="C47" t="n">
         <v>949.05769758474</v>
@@ -1888,7 +1888,7 @@
         <v>2543</v>
       </c>
       <c r="I47" t="n">
-        <v>-701.851843160258</v>
+        <v>-693.607847900457</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>1981.61674936554</v>
+        <v>1964.3742326996</v>
       </c>
       <c r="C48" t="n">
         <v>1147.98240197264</v>
@@ -1920,7 +1920,7 @@
         <v>2751</v>
       </c>
       <c r="I48" t="n">
-        <v>-769.383250634462</v>
+        <v>-786.625767300396</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2005.41156049934</v>
+        <v>2064.74047651631</v>
       </c>
       <c r="C49" t="n">
         <v>1149.49352022431</v>
@@ -1952,7 +1952,7 @@
         <v>2668</v>
       </c>
       <c r="I49" t="n">
-        <v>-662.588439500658</v>
+        <v>-603.259523483691</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
